--- a/backend/data/orders.xlsx
+++ b/backend/data/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,22 +418,124 @@
       <c r="E1" t="str">
         <v>product_code</v>
       </c>
+      <c r="F1" t="str">
+        <v>selling_price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>order_total</v>
+      </c>
+      <c r="H1" t="str">
+        <v>payment_type</v>
+      </c>
+      <c r="I1" t="str">
+        <v>prepaid_amount</v>
+      </c>
+      <c r="J1" t="str">
+        <v>order_total_ratio</v>
+      </c>
+      <c r="K1" t="str">
+        <v>order_total_split</v>
+      </c>
+      <c r="L1" t="str">
+        <v>collectable_amount</v>
+      </c>
+      <c r="M1" t="str">
+        <v>status</v>
+      </c>
+      <c r="N1" t="str">
+        <v>claimed_by</v>
+      </c>
+      <c r="O1" t="str">
+        <v>claimed_at</v>
+      </c>
+      <c r="P1" t="str">
+        <v>last_claimed_by</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>last_claimed_at</v>
+      </c>
+      <c r="R1" t="str">
+        <v>clone_status</v>
+      </c>
+      <c r="S1" t="str">
+        <v>cloned_order_id</v>
+      </c>
+      <c r="T1" t="str">
+        <v>is_cloned_row</v>
+      </c>
+      <c r="U1" t="str">
+        <v>label_downloaded</v>
+      </c>
+      <c r="V1" t="str">
+        <v>handover_at</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>251977</v>
+        <v>252013_1</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-22 23:23:04</v>
+        <v>2025-07-25 04:57:36</v>
       </c>
       <c r="D2" t="str">
-        <v>Arsenal Home Jersey 2024-25 Fan Version - L</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
       </c>
       <c r="E2" t="str">
-        <v>CLU-ARS-HM-24/25-FV-L</v>
+        <v>CLU-RM-DRGPPL--FV-XXL</v>
+      </c>
+      <c r="F2">
+        <v>1199</v>
+      </c>
+      <c r="G2">
+        <v>2498</v>
+      </c>
+      <c r="H2" t="str">
+        <v>P</v>
+      </c>
+      <c r="I2">
+        <v>1199</v>
+      </c>
+      <c r="J2">
+        <v>1199</v>
+      </c>
+      <c r="K2">
+        <v>1199</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -441,16 +543,67 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>251976</v>
+        <v>252013_1</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-07-22 21:53:12</v>
+        <v>2025-07-25 04:57:36</v>
       </c>
       <c r="D3" t="str">
-        <v>INDIA Champions Trophy ODI Cricket Jersey - 2025 - M</v>
+        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E3" t="str">
-        <v>IND-CTODI-25-PV-M</v>
+        <v>CLU-ARS-TH-25/26-PV-2XL</v>
+      </c>
+      <c r="F3">
+        <v>1299</v>
+      </c>
+      <c r="G3">
+        <v>2498</v>
+      </c>
+      <c r="H3" t="str">
+        <v>P</v>
+      </c>
+      <c r="I3">
+        <v>1299</v>
+      </c>
+      <c r="J3">
+        <v>1299</v>
+      </c>
+      <c r="K3">
+        <v>1299</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -458,16 +611,67 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>251975</v>
+        <v>251818_27</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-07-22 20:03:26</v>
+        <v>2025-07-25 04:46:44</v>
       </c>
       <c r="D4" t="str">
-        <v>Real Madrid Y3 Fourth Jersey 2024-25 Fan Version - L</v>
+        <v>Retro Portugal 2012 Away Full Sleeve Jersey - S</v>
       </c>
       <c r="E4" t="str">
-        <v>CLU-RM-FORY3-24/25-FV-L</v>
+        <v>RET-PORT-AWF-12/13-PV-S</v>
+      </c>
+      <c r="F4">
+        <v>1714.09</v>
+      </c>
+      <c r="G4">
+        <v>1714.09</v>
+      </c>
+      <c r="H4" t="str">
+        <v>P</v>
+      </c>
+      <c r="I4">
+        <v>1714.09</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1714.09</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -475,16 +679,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>251974</v>
+        <v>251985_1</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-07-22 15:41:18</v>
+        <v>2025-07-25 04:39:22</v>
       </c>
       <c r="D5" t="str">
-        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - L</v>
+        <v>Germany Home Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E5" t="str">
-        <v>NAT-MEX-GCC-25/26-PV-L</v>
+        <v>NAT-GER-HM-24/25-FV-XXL</v>
+      </c>
+      <c r="F5">
+        <v>999</v>
+      </c>
+      <c r="G5">
+        <v>899</v>
+      </c>
+      <c r="H5" t="str">
+        <v>P</v>
+      </c>
+      <c r="I5">
+        <v>899</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>899</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -492,16 +747,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>251974</v>
+        <v>252017</v>
       </c>
       <c r="C6" t="str">
-        <v>2025-07-22 15:41:18</v>
+        <v>2025-07-25 01:55:36</v>
       </c>
       <c r="D6" t="str">
-        <v>Real Madrid SE Pink Dragon Jersey Player Version - L</v>
+        <v>Real Madrid SE Gold Jersey 2023-24 Player Version - 2XL</v>
       </c>
       <c r="E6" t="str">
-        <v>CLU-RM-DRGPNK-FV-L</v>
+        <v>CLU-RM-SEGB-23/24-PV-2XL</v>
+      </c>
+      <c r="F6">
+        <v>1199</v>
+      </c>
+      <c r="G6">
+        <v>1099</v>
+      </c>
+      <c r="H6" t="str">
+        <v>P</v>
+      </c>
+      <c r="I6">
+        <v>1099</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1099</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -509,16 +815,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>251973</v>
+        <v>252015</v>
       </c>
       <c r="C7" t="str">
-        <v>2025-07-22 14:54:10</v>
+        <v>2025-07-25 00:43:25</v>
       </c>
       <c r="D7" t="str">
-        <v>Portugal Away Jersey 2024-25 Player Version - M</v>
+        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E7" t="str">
-        <v>NAT-PORT-AW-24/25-PV-M</v>
+        <v>NAT-MEX-GCC-25/26-PV-S</v>
+      </c>
+      <c r="F7">
+        <v>1299</v>
+      </c>
+      <c r="G7">
+        <v>1199</v>
+      </c>
+      <c r="H7" t="str">
+        <v>P</v>
+      </c>
+      <c r="I7">
+        <v>1199</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1199</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -526,16 +883,67 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>251972</v>
+        <v>252014</v>
       </c>
       <c r="C8" t="str">
-        <v>2025-07-22 13:35:11</v>
+        <v>2025-07-24 21:05:36</v>
       </c>
       <c r="D8" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - XL</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - M</v>
       </c>
       <c r="E8" t="str">
-        <v>IND-TST-25-PV-XL</v>
+        <v>CLU-RM-DRGPPL--FV-M</v>
+      </c>
+      <c r="F8">
+        <v>1199</v>
+      </c>
+      <c r="G8">
+        <v>2398</v>
+      </c>
+      <c r="H8" t="str">
+        <v>C</v>
+      </c>
+      <c r="I8">
+        <v>119.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1199</v>
+      </c>
+      <c r="L8">
+        <v>1079.1</v>
+      </c>
+      <c r="M8" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -543,16 +951,67 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>251971</v>
+        <v>252014</v>
       </c>
       <c r="C9" t="str">
-        <v>2025-07-22 13:23:12</v>
+        <v>2025-07-24 21:05:36</v>
       </c>
       <c r="D9" t="str">
-        <v>Barcelona Home Jersey 2024-25 Player Version - XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E9" t="str">
-        <v>CLU-BARC-HM-24/25-PV-XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-M</v>
+      </c>
+      <c r="F9">
+        <v>1199</v>
+      </c>
+      <c r="G9">
+        <v>2398</v>
+      </c>
+      <c r="H9" t="str">
+        <v>C</v>
+      </c>
+      <c r="I9">
+        <v>119.9</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1199</v>
+      </c>
+      <c r="L9">
+        <v>1079.1</v>
+      </c>
+      <c r="M9" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -560,16 +1019,67 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>251971</v>
+        <v>252012</v>
       </c>
       <c r="C10" t="str">
-        <v>2025-07-22 13:23:12</v>
+        <v>2025-07-24 15:13:41</v>
       </c>
       <c r="D10" t="str">
-        <v>Argentina 2022 World Cup Home Jersey Player Version - XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - XL</v>
       </c>
       <c r="E10" t="str">
-        <v>NAT-ARG-WCHM-22/23-PV-XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-XL</v>
+      </c>
+      <c r="F10">
+        <v>1199</v>
+      </c>
+      <c r="G10">
+        <v>1199</v>
+      </c>
+      <c r="H10" t="str">
+        <v>C</v>
+      </c>
+      <c r="I10">
+        <v>119.9</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1199</v>
+      </c>
+      <c r="L10">
+        <v>1079.1</v>
+      </c>
+      <c r="M10" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -577,16 +1087,67 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>251971</v>
+        <v>251987_1</v>
       </c>
       <c r="C11" t="str">
-        <v>2025-07-22 13:23:12</v>
+        <v>2025-07-24 14:58:52</v>
       </c>
       <c r="D11" t="str">
-        <v>Barcelona Home Jersey 2025-26 Player Version - XL</v>
+        <v>Manchester United Full Sleeve Home Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E11" t="str">
-        <v>CLU-BARC-HM-25/26-PV-XL</v>
+        <v>CLU-MU-HMF-24/25-PV-M</v>
+      </c>
+      <c r="F11">
+        <v>1212.34</v>
+      </c>
+      <c r="G11">
+        <v>1212.34</v>
+      </c>
+      <c r="H11" t="str">
+        <v>C</v>
+      </c>
+      <c r="I11">
+        <v>121.23</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1212.34</v>
+      </c>
+      <c r="L11">
+        <v>1091.11</v>
+      </c>
+      <c r="M11" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -594,16 +1155,67 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>251971</v>
+        <v>251983_1</v>
       </c>
       <c r="C12" t="str">
-        <v>2025-07-22 13:23:12</v>
+        <v>2025-07-24 14:49:58</v>
       </c>
       <c r="D12" t="str">
-        <v>Inter Miami Home Jersey 2025-26 Player Version - XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
       </c>
       <c r="E12" t="str">
-        <v>CLU-IM-HM-25/26-PV-XL</v>
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F12">
+        <v>1109.1</v>
+      </c>
+      <c r="G12">
+        <v>1109.1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>C</v>
+      </c>
+      <c r="I12">
+        <v>110.91</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1109.1</v>
+      </c>
+      <c r="L12">
+        <v>998.19</v>
+      </c>
+      <c r="M12" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -611,16 +1223,67 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>251971</v>
+        <v>252011</v>
       </c>
       <c r="C13" t="str">
-        <v>2025-07-22 13:23:12</v>
+        <v>2025-07-24 14:49:19</v>
       </c>
       <c r="D13" t="str">
-        <v>INDIA Champions Trophy ODI Cricket Jersey - 2025 - XL</v>
+        <v>Bayern Munich Third Jersey 2024-25 Fan Version - XL</v>
       </c>
       <c r="E13" t="str">
-        <v>IND-CTODI-25-PV-XL</v>
+        <v>CLU-BM-TH-24/25-FV-XL</v>
+      </c>
+      <c r="F13">
+        <v>999</v>
+      </c>
+      <c r="G13">
+        <v>999</v>
+      </c>
+      <c r="H13" t="str">
+        <v>C</v>
+      </c>
+      <c r="I13">
+        <v>99.9</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>999</v>
+      </c>
+      <c r="L13">
+        <v>899.1</v>
+      </c>
+      <c r="M13" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -628,16 +1291,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>251970</v>
+        <v>252006</v>
       </c>
       <c r="C14" t="str">
-        <v>2025-07-22 11:30:38</v>
+        <v>2025-07-24 10:18:59</v>
       </c>
       <c r="D14" t="str">
-        <v>Manchester United Away Jersey 2025-26 Player Version - 2XL</v>
+        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E14" t="str">
-        <v>CLU-MU-AW-25/26-PV-2XL</v>
+        <v>CLU-MU-TH-25/26-PV-M</v>
+      </c>
+      <c r="F14">
+        <v>1299</v>
+      </c>
+      <c r="G14">
+        <v>1299</v>
+      </c>
+      <c r="H14" t="str">
+        <v>C</v>
+      </c>
+      <c r="I14">
+        <v>129.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1299</v>
+      </c>
+      <c r="L14">
+        <v>1169.1</v>
+      </c>
+      <c r="M14" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -645,16 +1359,67 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>251970</v>
+        <v>252004</v>
       </c>
       <c r="C15" t="str">
-        <v>2025-07-22 11:30:38</v>
+        <v>2025-07-24 07:32:44</v>
       </c>
       <c r="D15" t="str">
-        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
+        <v>Manchester United Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E15" t="str">
-        <v>CLU-ARS-TH-25/26-PV-2XL</v>
+        <v>CLU-MU-TH-25/26-PV-XL</v>
+      </c>
+      <c r="F15">
+        <v>1299</v>
+      </c>
+      <c r="G15">
+        <v>1199</v>
+      </c>
+      <c r="H15" t="str">
+        <v>P</v>
+      </c>
+      <c r="I15">
+        <v>1199</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1199</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -662,16 +1427,67 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>251969</v>
+        <v>252002</v>
       </c>
       <c r="C16" t="str">
-        <v>2025-07-22 10:47:05</v>
+        <v>2025-07-24 03:03:08</v>
       </c>
       <c r="D16" t="str">
-        <v>Arsenal Home Jersey 2024-25 Player Version - S</v>
+        <v>Manchester United Away Jersey 2024-25 Fan Version - L</v>
       </c>
       <c r="E16" t="str">
-        <v>CLU-ARS-HM-24/25-PV-S</v>
+        <v>CLU-MU-AW-24/25-FV-L</v>
+      </c>
+      <c r="F16">
+        <v>999</v>
+      </c>
+      <c r="G16">
+        <v>999</v>
+      </c>
+      <c r="H16" t="str">
+        <v>C</v>
+      </c>
+      <c r="I16">
+        <v>99.9</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>999</v>
+      </c>
+      <c r="L16">
+        <v>899.1</v>
+      </c>
+      <c r="M16" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -679,16 +1495,67 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>251968</v>
+        <v>252001</v>
       </c>
       <c r="C17" t="str">
-        <v>2025-07-22 10:31:56</v>
+        <v>2025-07-24 02:59:53</v>
       </c>
       <c r="D17" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Bayern Munich 125th Anniversery Jersey Player Version - S</v>
       </c>
       <c r="E17" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>CLU-BM-125ANN-24/25-PV-S</v>
+      </c>
+      <c r="F17">
+        <v>1199</v>
+      </c>
+      <c r="G17">
+        <v>1199</v>
+      </c>
+      <c r="H17" t="str">
+        <v>C</v>
+      </c>
+      <c r="I17">
+        <v>119.9</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1199</v>
+      </c>
+      <c r="L17">
+        <v>1079.1</v>
+      </c>
+      <c r="M17" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -696,16 +1563,67 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>251967</v>
+        <v>252000</v>
       </c>
       <c r="C18" t="str">
-        <v>2025-07-22 04:22:10</v>
+        <v>2025-07-24 02:52:18</v>
       </c>
       <c r="D18" t="str">
-        <v>Real Madrid Home Jersey 2024-25 Fan Version - L</v>
+        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E18" t="str">
-        <v>CLU-RM-HM-24/25-FV-L</v>
+        <v>CLU-MU-TH-25/26-PV-M</v>
+      </c>
+      <c r="F18">
+        <v>1299</v>
+      </c>
+      <c r="G18">
+        <v>1199</v>
+      </c>
+      <c r="H18" t="str">
+        <v>P</v>
+      </c>
+      <c r="I18">
+        <v>1199</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1199</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -713,16 +1631,67 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>251966</v>
+        <v>251998</v>
       </c>
       <c r="C19" t="str">
-        <v>2025-07-22 04:19:19</v>
+        <v>2025-07-24 00:19:59</v>
       </c>
       <c r="D19" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - S</v>
+        <v>Chelsea Home Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E19" t="str">
-        <v>CLU-MU-TH-25/26-PV-S</v>
+        <v>CLU-CH-HM-25/26-PV-XL</v>
+      </c>
+      <c r="F19">
+        <v>1299</v>
+      </c>
+      <c r="G19">
+        <v>1199</v>
+      </c>
+      <c r="H19" t="str">
+        <v>P</v>
+      </c>
+      <c r="I19">
+        <v>1199</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1199</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -730,16 +1699,67 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>251965</v>
+        <v>251991</v>
       </c>
       <c r="C20" t="str">
-        <v>2025-07-22 02:28:12</v>
+        <v>2025-07-23 18:31:19</v>
       </c>
       <c r="D20" t="str">
-        <v>Real Madrid Pre Match Jersey 2025-26 Player Version - M</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E20" t="str">
-        <v>CLU-RM-PM-25/26-PV-M</v>
+        <v>CLU-LP-HM-25/26-PV-M</v>
+      </c>
+      <c r="F20">
+        <v>1299</v>
+      </c>
+      <c r="G20">
+        <v>1299</v>
+      </c>
+      <c r="H20" t="str">
+        <v>C</v>
+      </c>
+      <c r="I20">
+        <v>129.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1299</v>
+      </c>
+      <c r="L20">
+        <v>1169.1</v>
+      </c>
+      <c r="M20" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -747,16 +1767,67 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>251964</v>
+        <v>251989</v>
       </c>
       <c r="C21" t="str">
-        <v>2025-07-22 00:25:40</v>
+        <v>2025-07-23 17:05:49</v>
       </c>
       <c r="D21" t="str">
-        <v>Chelsea Home Blue Jersey 2024-25 Player Version - XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E21" t="str">
-        <v>CLU-CHEL-HM-24/25-PV-XL</v>
+        <v>CLU-LP-HM-25/26-PV-XL</v>
+      </c>
+      <c r="F21">
+        <v>1299</v>
+      </c>
+      <c r="G21">
+        <v>1199</v>
+      </c>
+      <c r="H21" t="str">
+        <v>P</v>
+      </c>
+      <c r="I21">
+        <v>1199</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1199</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -764,16 +1835,67 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>251963</v>
+        <v>251986</v>
       </c>
       <c r="C22" t="str">
-        <v>2025-07-22 00:21:11</v>
+        <v>2025-07-23 13:24:41</v>
       </c>
       <c r="D22" t="str">
-        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
+        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E22" t="str">
-        <v>CLU-ARS-TH-25/26-PV-2XL</v>
+        <v>CLU-MU-AW-24/25-FV-XXL</v>
+      </c>
+      <c r="F22">
+        <v>999</v>
+      </c>
+      <c r="G22">
+        <v>899.1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>P</v>
+      </c>
+      <c r="I22">
+        <v>899.1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>899.1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -781,16 +1903,67 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>251962</v>
+        <v>251950_2</v>
       </c>
       <c r="C23" t="str">
-        <v>2025-07-21 22:28:20</v>
+        <v>2025-07-23 12:07:15</v>
       </c>
       <c r="D23" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - S</v>
       </c>
       <c r="E23" t="str">
-        <v>CLU-LP-HM-25/26-PV-S</v>
+        <v>CLU-RM-DRGPPL--FV-S</v>
+      </c>
+      <c r="F23">
+        <v>1199</v>
+      </c>
+      <c r="G23">
+        <v>1099</v>
+      </c>
+      <c r="H23" t="str">
+        <v>P</v>
+      </c>
+      <c r="I23">
+        <v>1099</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1099</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -798,16 +1971,67 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>251962</v>
+        <v>251982</v>
       </c>
       <c r="C24" t="str">
-        <v>2025-07-21 22:28:20</v>
+        <v>2025-07-23 10:29:15</v>
       </c>
       <c r="D24" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - S</v>
+        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E24" t="str">
-        <v>IND-TST-25-PV-S</v>
+        <v>CLU-MU-TH-25/26-PV-M</v>
+      </c>
+      <c r="F24">
+        <v>1299</v>
+      </c>
+      <c r="G24">
+        <v>1199</v>
+      </c>
+      <c r="H24" t="str">
+        <v>P</v>
+      </c>
+      <c r="I24">
+        <v>1199</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1199</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -815,16 +2039,67 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>251961</v>
+        <v>251972</v>
       </c>
       <c r="C25" t="str">
-        <v>2025-07-21 21:54:08</v>
+        <v>2025-07-22 13:35:11</v>
       </c>
       <c r="D25" t="str">
-        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - 2XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - XL</v>
       </c>
       <c r="E25" t="str">
-        <v>NAT-MEX-GCC-25/26-PV-2XL</v>
+        <v>IND-TST-25-PV-XL</v>
+      </c>
+      <c r="F25">
+        <v>1299</v>
+      </c>
+      <c r="G25">
+        <v>1199</v>
+      </c>
+      <c r="H25" t="str">
+        <v>P</v>
+      </c>
+      <c r="I25">
+        <v>1199</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1199</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -832,16 +2107,67 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>251960</v>
+        <v>251968</v>
       </c>
       <c r="C26" t="str">
-        <v>2025-07-21 21:08:11</v>
+        <v>2025-07-22 10:31:56</v>
       </c>
       <c r="D26" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - L</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E26" t="str">
-        <v>CLU-MU-TH-25/26-PV-L</v>
+        <v>CLU-RM-GOLD-24/25-FV-L</v>
+      </c>
+      <c r="F26">
+        <v>1199</v>
+      </c>
+      <c r="G26">
+        <v>1099</v>
+      </c>
+      <c r="H26" t="str">
+        <v>P</v>
+      </c>
+      <c r="I26">
+        <v>1099</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1099</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -849,16 +2175,67 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>251959</v>
+        <v>251965</v>
       </c>
       <c r="C27" t="str">
-        <v>2025-07-21 20:54:10</v>
+        <v>2025-07-22 02:28:12</v>
       </c>
       <c r="D27" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
+        <v>Real Madrid Pre Match Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E27" t="str">
-        <v>CLU-LP-HM-25/26-PV-S</v>
+        <v>CLU-RM-PM-25/26-PV-M</v>
+      </c>
+      <c r="F27">
+        <v>1299</v>
+      </c>
+      <c r="G27">
+        <v>1299</v>
+      </c>
+      <c r="H27" t="str">
+        <v>C</v>
+      </c>
+      <c r="I27">
+        <v>129.9</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1299</v>
+      </c>
+      <c r="L27">
+        <v>1169.1</v>
+      </c>
+      <c r="M27" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -866,16 +2243,67 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>251958</v>
+        <v>251962</v>
       </c>
       <c r="C28" t="str">
-        <v>2025-07-21 20:49:39</v>
+        <v>2025-07-21 22:28:20</v>
       </c>
       <c r="D28" t="str">
-        <v>Barcelona X Travis Scott Special Edition SE 2025-26 Player Version - 2XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E28" t="str">
-        <v>CLU-BARC-SE-TS-25/26-PV-2XL</v>
+        <v>CLU-LP-HM-25/26-PV-S</v>
+      </c>
+      <c r="F28">
+        <v>1299</v>
+      </c>
+      <c r="G28">
+        <v>2398</v>
+      </c>
+      <c r="H28" t="str">
+        <v>P</v>
+      </c>
+      <c r="I28">
+        <v>1199</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1199</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -883,16 +2311,67 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>251957</v>
+        <v>251962</v>
       </c>
       <c r="C29" t="str">
-        <v>2025-07-21 20:36:42</v>
+        <v>2025-07-21 22:28:20</v>
       </c>
       <c r="D29" t="str">
-        <v>Manchester City Third Jersey 2024-25 Player Version - XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - S</v>
       </c>
       <c r="E29" t="str">
-        <v>CLU-MC-TH-24/25-PV-XL</v>
+        <v>IND-TST-25-PV-S</v>
+      </c>
+      <c r="F29">
+        <v>1299</v>
+      </c>
+      <c r="G29">
+        <v>2398</v>
+      </c>
+      <c r="H29" t="str">
+        <v>P</v>
+      </c>
+      <c r="I29">
+        <v>1199</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1199</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -900,16 +2379,67 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>251956</v>
+        <v>251959</v>
       </c>
       <c r="C30" t="str">
-        <v>2025-07-21 19:37:24</v>
+        <v>2025-07-21 20:54:10</v>
       </c>
       <c r="D30" t="str">
-        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E30" t="str">
-        <v>NAT-MEX-GCC-25/26-PV-XL</v>
+        <v>CLU-LP-HM-25/26-PV-S</v>
+      </c>
+      <c r="F30">
+        <v>1299</v>
+      </c>
+      <c r="G30">
+        <v>1199</v>
+      </c>
+      <c r="H30" t="str">
+        <v>P</v>
+      </c>
+      <c r="I30">
+        <v>1199</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1199</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -928,22 +2458,124 @@
       <c r="E31" t="str">
         <v>CLU-LP-HM-25/26-PV-M</v>
       </c>
+      <c r="F31">
+        <v>1299</v>
+      </c>
+      <c r="G31">
+        <v>1299</v>
+      </c>
+      <c r="H31" t="str">
+        <v>C</v>
+      </c>
+      <c r="I31">
+        <v>129.9</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1299</v>
+      </c>
+      <c r="L31">
+        <v>1169.1</v>
+      </c>
+      <c r="M31" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>251950</v>
+        <v>251947</v>
       </c>
       <c r="C32" t="str">
-        <v>2025-07-20 23:46:29</v>
+        <v>2025-07-20 21:54:21</v>
       </c>
       <c r="D32" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - S</v>
+        <v>Real Madrid Third Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E32" t="str">
-        <v>CLU-RM-DRGPPL--FV-S</v>
+        <v>CLU-RM-TH-24/25-FV-XXL</v>
+      </c>
+      <c r="F32">
+        <v>999</v>
+      </c>
+      <c r="G32">
+        <v>1798</v>
+      </c>
+      <c r="H32" t="str">
+        <v>P</v>
+      </c>
+      <c r="I32">
+        <v>899</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>899</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -951,16 +2583,67 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>251950</v>
+        <v>251947</v>
       </c>
       <c r="C33" t="str">
-        <v>2025-07-20 23:46:29</v>
+        <v>2025-07-20 21:54:21</v>
       </c>
       <c r="D33" t="str">
-        <v>Real Madrid CNY SE Solid 2024-25 Jersey Player Version - L</v>
+        <v>Real Madrid SE Gold Jersey 2023-24 Fan Version - 2XL</v>
       </c>
       <c r="E33" t="str">
-        <v>CLU-RM-CNY-24/25-PV-L</v>
+        <v>CLU-RM-SEGB-23/24-FV-2XL</v>
+      </c>
+      <c r="F33">
+        <v>999</v>
+      </c>
+      <c r="G33">
+        <v>1798</v>
+      </c>
+      <c r="H33" t="str">
+        <v>P</v>
+      </c>
+      <c r="I33">
+        <v>899</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>899</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -968,16 +2651,67 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>251947</v>
+        <v>251944</v>
       </c>
       <c r="C34" t="str">
-        <v>2025-07-20 21:54:21</v>
+        <v>2025-07-20 17:40:05</v>
       </c>
       <c r="D34" t="str">
-        <v>Real Madrid Third Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E34" t="str">
-        <v>CLU-RM-TH-24/25-FV-XXL</v>
+        <v>CLU-LP-HM-25/26-PV-M</v>
+      </c>
+      <c r="F34">
+        <v>1299</v>
+      </c>
+      <c r="G34">
+        <v>1199</v>
+      </c>
+      <c r="H34" t="str">
+        <v>P</v>
+      </c>
+      <c r="I34">
+        <v>1199</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1199</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -985,16 +2719,67 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>251947</v>
+        <v>251924_1</v>
       </c>
       <c r="C35" t="str">
-        <v>2025-07-20 21:54:21</v>
+        <v>2025-07-20 15:03:08</v>
       </c>
       <c r="D35" t="str">
-        <v>Real Madrid SE Gold Jersey 2023-24 Fan Version - 2XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E35" t="str">
-        <v>CLU-RM-SEGB-23/24-FV-2XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-L</v>
+      </c>
+      <c r="F35">
+        <v>1199</v>
+      </c>
+      <c r="G35">
+        <v>1099</v>
+      </c>
+      <c r="H35" t="str">
+        <v>P</v>
+      </c>
+      <c r="I35">
+        <v>1099</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1099</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -1002,16 +2787,67 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>251944</v>
+        <v>251935</v>
       </c>
       <c r="C36" t="str">
-        <v>2025-07-20 17:40:05</v>
+        <v>2025-07-20 06:41:45</v>
       </c>
       <c r="D36" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
       </c>
       <c r="E36" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>CLU-RM-DRGPPL--FV-XXL</v>
+      </c>
+      <c r="F36">
+        <v>1199</v>
+      </c>
+      <c r="G36">
+        <v>1199</v>
+      </c>
+      <c r="H36" t="str">
+        <v>C</v>
+      </c>
+      <c r="I36">
+        <v>119.9</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1199</v>
+      </c>
+      <c r="L36">
+        <v>1079.1</v>
+      </c>
+      <c r="M36" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -1019,16 +2855,67 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>251924_1</v>
+        <v>251934</v>
       </c>
       <c r="C37" t="str">
-        <v>2025-07-20 15:03:08</v>
+        <v>2025-07-19 23:16:17</v>
       </c>
       <c r="D37" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Spain Home Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E37" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>NAT-SPN-HM-24/25-PV-L</v>
+      </c>
+      <c r="F37">
+        <v>1248.49</v>
+      </c>
+      <c r="G37">
+        <v>2493.24</v>
+      </c>
+      <c r="H37" t="str">
+        <v>C</v>
+      </c>
+      <c r="I37">
+        <v>124.85</v>
+      </c>
+      <c r="J37">
+        <v>124849</v>
+      </c>
+      <c r="K37">
+        <v>1248.49</v>
+      </c>
+      <c r="L37">
+        <v>1123.64</v>
+      </c>
+      <c r="M37" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
@@ -1036,16 +2923,67 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>251937</v>
+        <v>251934</v>
       </c>
       <c r="C38" t="str">
-        <v>2025-07-20 09:44:40</v>
+        <v>2025-07-19 23:16:17</v>
       </c>
       <c r="D38" t="str">
-        <v>Paris Home Jersey 2025-26 Player Version - L</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
       </c>
       <c r="E38" t="str">
-        <v>CLU-PSG-HM-25/26-PV-L</v>
+        <v>CLU-RM-DRGPPL--FV-L</v>
+      </c>
+      <c r="F38">
+        <v>1244.75</v>
+      </c>
+      <c r="G38">
+        <v>2493.24</v>
+      </c>
+      <c r="H38" t="str">
+        <v>C</v>
+      </c>
+      <c r="I38">
+        <v>124.47</v>
+      </c>
+      <c r="J38">
+        <v>124475</v>
+      </c>
+      <c r="K38">
+        <v>1244.75</v>
+      </c>
+      <c r="L38">
+        <v>1120.28</v>
+      </c>
+      <c r="M38" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
@@ -1053,16 +2991,67 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>251936</v>
+        <v>251921</v>
       </c>
       <c r="C39" t="str">
-        <v>2025-07-20 06:42:45</v>
+        <v>2025-07-19 08:18:52</v>
       </c>
       <c r="D39" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E39" t="str">
-        <v>CLU-MU-TH-25/26-PV-M</v>
+        <v>CLU-LP-HM-25/26-PV-XL</v>
+      </c>
+      <c r="F39">
+        <v>1299</v>
+      </c>
+      <c r="G39">
+        <v>1199</v>
+      </c>
+      <c r="H39" t="str">
+        <v>P</v>
+      </c>
+      <c r="I39">
+        <v>1199</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1199</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <v/>
+      </c>
+      <c r="V39" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
@@ -1070,16 +3059,67 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>251935</v>
+        <v>251916</v>
       </c>
       <c r="C40" t="str">
-        <v>2025-07-20 06:41:45</v>
+        <v>2025-07-18 15:33:09</v>
       </c>
       <c r="D40" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
       </c>
       <c r="E40" t="str">
-        <v>CLU-RM-DRGPPL--FV-XXL</v>
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F40">
+        <v>1299</v>
+      </c>
+      <c r="G40">
+        <v>1199</v>
+      </c>
+      <c r="H40" t="str">
+        <v>P</v>
+      </c>
+      <c r="I40">
+        <v>1199</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1199</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <v/>
+      </c>
+      <c r="V40" t="str">
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1087,16 +3127,67 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>251934</v>
+        <v>251913</v>
       </c>
       <c r="C41" t="str">
-        <v>2025-07-19 23:16:17</v>
+        <v>2025-07-18 08:32:22</v>
       </c>
       <c r="D41" t="str">
-        <v>Spain Home Jersey 2024-25 Player Version - L</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E41" t="str">
-        <v>NAT-SPN-HM-24/25-PV-L</v>
+        <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F41">
+        <v>1299</v>
+      </c>
+      <c r="G41">
+        <v>1199</v>
+      </c>
+      <c r="H41" t="str">
+        <v>P</v>
+      </c>
+      <c r="I41">
+        <v>1199</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1199</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -1104,16 +3195,67 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>251934</v>
+        <v>251911</v>
       </c>
       <c r="C42" t="str">
-        <v>2025-07-19 23:16:17</v>
+        <v>2025-07-18 08:03:29</v>
       </c>
       <c r="D42" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E42" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
+        <v>CLU-MU-AW-24/25-FV-XXL</v>
+      </c>
+      <c r="F42">
+        <v>999</v>
+      </c>
+      <c r="G42">
+        <v>899.1</v>
+      </c>
+      <c r="H42" t="str">
+        <v>P</v>
+      </c>
+      <c r="I42">
+        <v>899.1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>899.1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -1121,16 +3263,67 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>251932</v>
+        <v>251908</v>
       </c>
       <c r="C43" t="str">
-        <v>2025-07-19 22:11:24</v>
+        <v>2025-07-18 00:15:30</v>
       </c>
       <c r="D43" t="str">
-        <v>Paris Away Jersey 2024-25 Fan Version - L</v>
+        <v>Manchester United Away Jersey 2024-25 Fan Version - XL</v>
       </c>
       <c r="E43" t="str">
-        <v>CLU-PSG-AW-24/25-FV-L</v>
+        <v>CLU-MU-AW-24/25-FV-XL</v>
+      </c>
+      <c r="F43">
+        <v>999</v>
+      </c>
+      <c r="G43">
+        <v>899.1</v>
+      </c>
+      <c r="H43" t="str">
+        <v>P</v>
+      </c>
+      <c r="I43">
+        <v>899.1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>899.1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <v/>
+      </c>
+      <c r="V43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1138,16 +3331,67 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>251930</v>
+        <v>251892</v>
       </c>
       <c r="C44" t="str">
-        <v>2025-07-19 16:11:24</v>
+        <v>2025-07-16 23:49:41</v>
       </c>
       <c r="D44" t="str">
-        <v>FC Barcelona SE Pink Edition Jersey 2025-26 Player Version - S</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E44" t="str">
-        <v>CLU-BARC-SEP-25/26-PV-S</v>
+        <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F44">
+        <v>1299</v>
+      </c>
+      <c r="G44">
+        <v>1299</v>
+      </c>
+      <c r="H44" t="str">
+        <v>C</v>
+      </c>
+      <c r="I44">
+        <v>129.9</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1299</v>
+      </c>
+      <c r="L44">
+        <v>1169.1</v>
+      </c>
+      <c r="M44" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1155,16 +3399,67 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>251929</v>
+        <v>251891</v>
       </c>
       <c r="C45" t="str">
-        <v>2025-07-19 15:09:43</v>
+        <v>2025-07-16 21:56:23</v>
       </c>
       <c r="D45" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
       </c>
       <c r="E45" t="str">
-        <v>CLU-MU-TH-25/26-PV-M</v>
+        <v>CLU-RM-DRGPPL--FV-L</v>
+      </c>
+      <c r="F45">
+        <v>1199</v>
+      </c>
+      <c r="G45">
+        <v>1099</v>
+      </c>
+      <c r="H45" t="str">
+        <v>P</v>
+      </c>
+      <c r="I45">
+        <v>1099</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1099</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1172,16 +3467,67 @@
         <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>251900_1</v>
+        <v>251889</v>
       </c>
       <c r="C46" t="str">
-        <v>2025-07-19 14:14:10</v>
+        <v>2025-07-16 19:23:46</v>
       </c>
       <c r="D46" t="str">
-        <v>FC Barcelona SE Pink Edition Jersey 2025-26 Player Version - S</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E46" t="str">
-        <v>CLU-BARC-SEP-25/26-PV-S</v>
+        <v>CLU-LP-HM-25/26-PV-M</v>
+      </c>
+      <c r="F46">
+        <v>1299</v>
+      </c>
+      <c r="G46">
+        <v>1199</v>
+      </c>
+      <c r="H46" t="str">
+        <v>P</v>
+      </c>
+      <c r="I46">
+        <v>1199</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1199</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <v/>
+      </c>
+      <c r="V46" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1189,16 +3535,67 @@
         <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>251927</v>
+        <v>251882</v>
       </c>
       <c r="C47" t="str">
-        <v>2025-07-19 13:37:32</v>
+        <v>2025-07-16 10:32:15</v>
       </c>
       <c r="D47" t="str">
-        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
+        <v>Japan X Dragon Ball Z Special Anime 2024-25 Player Version - M</v>
       </c>
       <c r="E47" t="str">
-        <v>CLU-ARS-TH-25/26-PV-S</v>
+        <v>NAT-JPN-DBZSP-24/25-PV-M</v>
+      </c>
+      <c r="F47">
+        <v>1199</v>
+      </c>
+      <c r="G47">
+        <v>1199</v>
+      </c>
+      <c r="H47" t="str">
+        <v>C</v>
+      </c>
+      <c r="I47">
+        <v>119.9</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1199</v>
+      </c>
+      <c r="L47">
+        <v>1079.1</v>
+      </c>
+      <c r="M47" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1206,16 +3603,67 @@
         <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>251907_1</v>
+        <v>251880</v>
       </c>
       <c r="C48" t="str">
-        <v>2025-07-19 13:19:17</v>
+        <v>2025-07-16 07:07:50</v>
       </c>
       <c r="D48" t="str">
-        <v>Spain Away Jersey 2024-25 Player Version - L</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E48" t="str">
-        <v>NAT-SPN-AW-24/25-PV-L</v>
+        <v>CLU-RM-GOLD-24/25-FV-L</v>
+      </c>
+      <c r="F48">
+        <v>1199</v>
+      </c>
+      <c r="G48">
+        <v>1099</v>
+      </c>
+      <c r="H48" t="str">
+        <v>P</v>
+      </c>
+      <c r="I48">
+        <v>1099</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1099</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1223,16 +3671,67 @@
         <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>251921</v>
+        <v>251877</v>
       </c>
       <c r="C49" t="str">
-        <v>2025-07-19 08:18:52</v>
+        <v>2025-07-15 23:30:10</v>
       </c>
       <c r="D49" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E49" t="str">
-        <v>CLU-LP-HM-25/26-PV-XL</v>
+        <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F49">
+        <v>1299</v>
+      </c>
+      <c r="G49">
+        <v>1199</v>
+      </c>
+      <c r="H49" t="str">
+        <v>P</v>
+      </c>
+      <c r="I49">
+        <v>1199</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1199</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <v/>
+      </c>
+      <c r="P49" t="str">
+        <v/>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v/>
+      </c>
+      <c r="U49" t="str">
+        <v/>
+      </c>
+      <c r="V49" t="str">
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1240,16 +3739,67 @@
         <v>49</v>
       </c>
       <c r="B50" t="str">
-        <v>251916</v>
+        <v>251871</v>
       </c>
       <c r="C50" t="str">
-        <v>2025-07-18 15:33:09</v>
+        <v>2025-07-15 17:06:43</v>
       </c>
       <c r="D50" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
       </c>
       <c r="E50" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-S</v>
+      </c>
+      <c r="F50">
+        <v>1199</v>
+      </c>
+      <c r="G50">
+        <v>1199</v>
+      </c>
+      <c r="H50" t="str">
+        <v>C</v>
+      </c>
+      <c r="I50">
+        <v>119.9</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1199</v>
+      </c>
+      <c r="L50">
+        <v>1079.1</v>
+      </c>
+      <c r="M50" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <v/>
+      </c>
+      <c r="P50" t="str">
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v/>
+      </c>
+      <c r="U50" t="str">
+        <v/>
+      </c>
+      <c r="V50" t="str">
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1257,16 +3807,67 @@
         <v>50</v>
       </c>
       <c r="B51" t="str">
-        <v>251913</v>
+        <v>251869</v>
       </c>
       <c r="C51" t="str">
-        <v>2025-07-18 08:32:22</v>
+        <v>2025-07-15 13:57:22</v>
       </c>
       <c r="D51" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - XL</v>
       </c>
       <c r="E51" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>india-test-cricket-jersey-full-sleeves-2025-xl</v>
+      </c>
+      <c r="F51">
+        <v>1499</v>
+      </c>
+      <c r="G51">
+        <v>1499</v>
+      </c>
+      <c r="H51" t="str">
+        <v>C</v>
+      </c>
+      <c r="I51">
+        <v>149.9</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1499</v>
+      </c>
+      <c r="L51">
+        <v>1349.1</v>
+      </c>
+      <c r="M51" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v/>
+      </c>
+      <c r="U51" t="str">
+        <v/>
+      </c>
+      <c r="V51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1274,16 +3875,67 @@
         <v>51</v>
       </c>
       <c r="B52" t="str">
-        <v>251911</v>
+        <v>251865</v>
       </c>
       <c r="C52" t="str">
-        <v>2025-07-18 08:03:29</v>
+        <v>2025-07-15 06:03:42</v>
       </c>
       <c r="D52" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E52" t="str">
-        <v>CLU-MU-AW-24/25-FV-XXL</v>
+        <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F52">
+        <v>1299</v>
+      </c>
+      <c r="G52">
+        <v>1199</v>
+      </c>
+      <c r="H52" t="str">
+        <v>P</v>
+      </c>
+      <c r="I52">
+        <v>1199</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1199</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N52" t="str">
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <v/>
+      </c>
+      <c r="Q52" t="str">
+        <v/>
+      </c>
+      <c r="R52" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S52" t="str">
+        <v/>
+      </c>
+      <c r="T52" t="str">
+        <v/>
+      </c>
+      <c r="U52" t="str">
+        <v/>
+      </c>
+      <c r="V52" t="str">
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1291,16 +3943,67 @@
         <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>251908</v>
+        <v>251854</v>
       </c>
       <c r="C53" t="str">
-        <v>2025-07-18 00:15:30</v>
+        <v>2025-07-14 10:21:25</v>
       </c>
       <c r="D53" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - L</v>
       </c>
       <c r="E53" t="str">
-        <v>CLU-MU-AW-24/25-FV-XL</v>
+        <v>IND-TST-25-PV-L</v>
+      </c>
+      <c r="F53">
+        <v>1299</v>
+      </c>
+      <c r="G53">
+        <v>1199</v>
+      </c>
+      <c r="H53" t="str">
+        <v>P</v>
+      </c>
+      <c r="I53">
+        <v>1199</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1199</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N53" t="str">
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <v/>
+      </c>
+      <c r="P53" t="str">
+        <v/>
+      </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S53" t="str">
+        <v/>
+      </c>
+      <c r="T53" t="str">
+        <v/>
+      </c>
+      <c r="U53" t="str">
+        <v/>
+      </c>
+      <c r="V53" t="str">
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1308,16 +4011,67 @@
         <v>53</v>
       </c>
       <c r="B54" t="str">
-        <v>251906</v>
+        <v>251853</v>
       </c>
       <c r="C54" t="str">
-        <v>2025-07-17 21:34:05</v>
+        <v>2025-07-14 07:42:58</v>
       </c>
       <c r="D54" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
       </c>
       <c r="E54" t="str">
-        <v>CLU-MU-TH-25/26-PV-XL</v>
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F54">
+        <v>1299</v>
+      </c>
+      <c r="G54">
+        <v>1349</v>
+      </c>
+      <c r="H54" t="str">
+        <v>P</v>
+      </c>
+      <c r="I54">
+        <v>1349</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1349</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <v/>
+      </c>
+      <c r="P54" t="str">
+        <v/>
+      </c>
+      <c r="Q54" t="str">
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S54" t="str">
+        <v/>
+      </c>
+      <c r="T54" t="str">
+        <v/>
+      </c>
+      <c r="U54" t="str">
+        <v/>
+      </c>
+      <c r="V54" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
@@ -1325,16 +4079,67 @@
         <v>54</v>
       </c>
       <c r="B55" t="str">
-        <v>251897</v>
+        <v>251848</v>
       </c>
       <c r="C55" t="str">
-        <v>2025-07-17 14:07:43</v>
+        <v>2025-07-13 22:03:23</v>
       </c>
       <c r="D55" t="str">
-        <v>Mexico de Oro Black Jersey 2025-26 Player Version - XL</v>
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
       </c>
       <c r="E55" t="str">
-        <v>NAT-MEX-deOro-25/26-PV-XL</v>
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F55">
+        <v>1299</v>
+      </c>
+      <c r="G55">
+        <v>1299</v>
+      </c>
+      <c r="H55" t="str">
+        <v>C</v>
+      </c>
+      <c r="I55">
+        <v>129.9</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1299</v>
+      </c>
+      <c r="L55">
+        <v>1169.1</v>
+      </c>
+      <c r="M55" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N55" t="str">
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
+      <c r="P55" t="str">
+        <v/>
+      </c>
+      <c r="Q55" t="str">
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S55" t="str">
+        <v/>
+      </c>
+      <c r="T55" t="str">
+        <v/>
+      </c>
+      <c r="U55" t="str">
+        <v/>
+      </c>
+      <c r="V55" t="str">
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -1342,16 +4147,67 @@
         <v>55</v>
       </c>
       <c r="B56" t="str">
-        <v>251892</v>
+        <v>251840</v>
       </c>
       <c r="C56" t="str">
-        <v>2025-07-16 23:49:41</v>
+        <v>2025-07-13 09:20:24</v>
       </c>
       <c r="D56" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - S</v>
       </c>
       <c r="E56" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>india-test-cricket-jersey-full-sleeves-2025-s</v>
+      </c>
+      <c r="F56">
+        <v>1499</v>
+      </c>
+      <c r="G56">
+        <v>1499</v>
+      </c>
+      <c r="H56" t="str">
+        <v>C</v>
+      </c>
+      <c r="I56">
+        <v>149.9</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1499</v>
+      </c>
+      <c r="L56">
+        <v>1349.1</v>
+      </c>
+      <c r="M56" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N56" t="str">
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <v/>
+      </c>
+      <c r="P56" t="str">
+        <v/>
+      </c>
+      <c r="Q56" t="str">
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S56" t="str">
+        <v/>
+      </c>
+      <c r="T56" t="str">
+        <v/>
+      </c>
+      <c r="U56" t="str">
+        <v/>
+      </c>
+      <c r="V56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -1359,16 +4215,67 @@
         <v>56</v>
       </c>
       <c r="B57" t="str">
-        <v>251891</v>
+        <v>251834</v>
       </c>
       <c r="C57" t="str">
-        <v>2025-07-16 21:56:23</v>
+        <v>2025-07-12 19:34:04</v>
       </c>
       <c r="D57" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Japan Dragon Ball Z Goku Super Saiyan Jersey Fan Version - 2XL</v>
       </c>
       <c r="E57" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
+        <v>NAT-JPN-DBZ-GOK-24/25-FV-2XL</v>
+      </c>
+      <c r="F57">
+        <v>999</v>
+      </c>
+      <c r="G57">
+        <v>899</v>
+      </c>
+      <c r="H57" t="str">
+        <v>P</v>
+      </c>
+      <c r="I57">
+        <v>899</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>899</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <v/>
+      </c>
+      <c r="P57" t="str">
+        <v/>
+      </c>
+      <c r="Q57" t="str">
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S57" t="str">
+        <v/>
+      </c>
+      <c r="T57" t="str">
+        <v/>
+      </c>
+      <c r="U57" t="str">
+        <v/>
+      </c>
+      <c r="V57" t="str">
+        <v/>
       </c>
     </row>
     <row r="58">
@@ -1376,16 +4283,67 @@
         <v>57</v>
       </c>
       <c r="B58" t="str">
-        <v>251889</v>
+        <v>251781_1</v>
       </c>
       <c r="C58" t="str">
-        <v>2025-07-16 19:23:46</v>
+        <v>2025-07-12 16:03:15</v>
       </c>
       <c r="D58" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
       </c>
       <c r="E58" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>CLU-RM-DRGPPL--FV-XXL</v>
+      </c>
+      <c r="F58">
+        <v>1137.36</v>
+      </c>
+      <c r="G58">
+        <v>1037.36</v>
+      </c>
+      <c r="H58" t="str">
+        <v>P</v>
+      </c>
+      <c r="I58">
+        <v>1037.36</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1037.36</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <v/>
+      </c>
+      <c r="Q58" t="str">
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S58" t="str">
+        <v/>
+      </c>
+      <c r="T58" t="str">
+        <v/>
+      </c>
+      <c r="U58" t="str">
+        <v/>
+      </c>
+      <c r="V58" t="str">
+        <v/>
       </c>
     </row>
     <row r="59">
@@ -1393,16 +4351,67 @@
         <v>58</v>
       </c>
       <c r="B59" t="str">
-        <v>251886</v>
+        <v>251815</v>
       </c>
       <c r="C59" t="str">
-        <v>2025-07-16 17:48:21</v>
+        <v>2025-07-11 08:13:03</v>
       </c>
       <c r="D59" t="str">
-        <v>Retro Arsenal 2004-05 Home Jersey - L</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E59" t="str">
-        <v>RET-ARS-HM-04/05-PV-L</v>
+        <v>CLU-RM-GOLD-24/25-FV-M</v>
+      </c>
+      <c r="F59">
+        <v>1199</v>
+      </c>
+      <c r="G59">
+        <v>1099</v>
+      </c>
+      <c r="H59" t="str">
+        <v>P</v>
+      </c>
+      <c r="I59">
+        <v>1099</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1099</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N59" t="str">
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <v/>
+      </c>
+      <c r="P59" t="str">
+        <v/>
+      </c>
+      <c r="Q59" t="str">
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S59" t="str">
+        <v/>
+      </c>
+      <c r="T59" t="str">
+        <v/>
+      </c>
+      <c r="U59" t="str">
+        <v/>
+      </c>
+      <c r="V59" t="str">
+        <v/>
       </c>
     </row>
     <row r="60">
@@ -1410,16 +4419,67 @@
         <v>59</v>
       </c>
       <c r="B60" t="str">
-        <v>251882</v>
+        <v>251814</v>
       </c>
       <c r="C60" t="str">
-        <v>2025-07-16 10:32:15</v>
+        <v>2025-07-11 07:51:10</v>
       </c>
       <c r="D60" t="str">
-        <v>Japan X Dragon Ball Z Special Anime 2024-25 Player Version - M</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
       </c>
       <c r="E60" t="str">
-        <v>NAT-JPN-DBZSP-24/25-PV-M</v>
+        <v>CLU-RM-GOLD-24/25-FV-S</v>
+      </c>
+      <c r="F60">
+        <v>1199</v>
+      </c>
+      <c r="G60">
+        <v>1099</v>
+      </c>
+      <c r="H60" t="str">
+        <v>P</v>
+      </c>
+      <c r="I60">
+        <v>1099</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1099</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S60" t="str">
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <v/>
+      </c>
+      <c r="U60" t="str">
+        <v/>
+      </c>
+      <c r="V60" t="str">
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -1427,16 +4487,67 @@
         <v>60</v>
       </c>
       <c r="B61" t="str">
-        <v>251880</v>
+        <v>251810</v>
       </c>
       <c r="C61" t="str">
-        <v>2025-07-16 07:07:50</v>
+        <v>2025-07-11 06:07:40</v>
       </c>
       <c r="D61" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Japan Dragon Ball Z Vegeta Version - XL</v>
       </c>
       <c r="E61" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>NAT-JPN-DBZVEG--PV-XL</v>
+      </c>
+      <c r="F61">
+        <v>1199</v>
+      </c>
+      <c r="G61">
+        <v>1199</v>
+      </c>
+      <c r="H61" t="str">
+        <v>C</v>
+      </c>
+      <c r="I61">
+        <v>119.9</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1199</v>
+      </c>
+      <c r="L61">
+        <v>1079.1</v>
+      </c>
+      <c r="M61" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N61" t="str">
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <v/>
+      </c>
+      <c r="P61" t="str">
+        <v/>
+      </c>
+      <c r="Q61" t="str">
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S61" t="str">
+        <v/>
+      </c>
+      <c r="T61" t="str">
+        <v/>
+      </c>
+      <c r="U61" t="str">
+        <v/>
+      </c>
+      <c r="V61" t="str">
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -1444,16 +4555,67 @@
         <v>61</v>
       </c>
       <c r="B62" t="str">
-        <v>251877</v>
+        <v>251803</v>
       </c>
       <c r="C62" t="str">
-        <v>2025-07-15 23:30:10</v>
+        <v>2025-07-10 15:35:53</v>
       </c>
       <c r="D62" t="str">
         <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E62" t="str">
         <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F62">
+        <v>1299</v>
+      </c>
+      <c r="G62">
+        <v>1299</v>
+      </c>
+      <c r="H62" t="str">
+        <v>C</v>
+      </c>
+      <c r="I62">
+        <v>129.9</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1299</v>
+      </c>
+      <c r="L62">
+        <v>1169.1</v>
+      </c>
+      <c r="M62" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N62" t="str">
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <v/>
+      </c>
+      <c r="Q62" t="str">
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S62" t="str">
+        <v/>
+      </c>
+      <c r="T62" t="str">
+        <v/>
+      </c>
+      <c r="U62" t="str">
+        <v/>
+      </c>
+      <c r="V62" t="str">
+        <v/>
       </c>
     </row>
     <row r="63">
@@ -1461,16 +4623,67 @@
         <v>62</v>
       </c>
       <c r="B63" t="str">
-        <v>251871</v>
+        <v>251792</v>
       </c>
       <c r="C63" t="str">
-        <v>2025-07-15 17:06:43</v>
+        <v>2025-07-10 11:01:41</v>
       </c>
       <c r="D63" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E63" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>CLU-LP-HM-25/26-PV-L</v>
+      </c>
+      <c r="F63">
+        <v>1299</v>
+      </c>
+      <c r="G63">
+        <v>1299</v>
+      </c>
+      <c r="H63" t="str">
+        <v>C</v>
+      </c>
+      <c r="I63">
+        <v>129.9</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1299</v>
+      </c>
+      <c r="L63">
+        <v>1169.1</v>
+      </c>
+      <c r="M63" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S63" t="str">
+        <v/>
+      </c>
+      <c r="T63" t="str">
+        <v/>
+      </c>
+      <c r="U63" t="str">
+        <v/>
+      </c>
+      <c r="V63" t="str">
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -1478,16 +4691,67 @@
         <v>63</v>
       </c>
       <c r="B64" t="str">
-        <v>251869</v>
+        <v>251787</v>
       </c>
       <c r="C64" t="str">
-        <v>2025-07-15 13:57:22</v>
+        <v>2025-07-09 22:24:20</v>
       </c>
       <c r="D64" t="str">
-        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - XL</v>
+        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
       </c>
       <c r="E64" t="str">
-        <v>india-test-cricket-jersey-full-sleeves-2025-xl</v>
+        <v>NAT-JPN-DBZVEG--FV-L</v>
+      </c>
+      <c r="F64">
+        <v>999</v>
+      </c>
+      <c r="G64">
+        <v>999</v>
+      </c>
+      <c r="H64" t="str">
+        <v>C</v>
+      </c>
+      <c r="I64">
+        <v>99.9</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>999</v>
+      </c>
+      <c r="L64">
+        <v>899.1</v>
+      </c>
+      <c r="M64" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N64" t="str">
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <v/>
+      </c>
+      <c r="P64" t="str">
+        <v/>
+      </c>
+      <c r="Q64" t="str">
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S64" t="str">
+        <v/>
+      </c>
+      <c r="T64" t="str">
+        <v/>
+      </c>
+      <c r="U64" t="str">
+        <v/>
+      </c>
+      <c r="V64" t="str">
+        <v/>
       </c>
     </row>
     <row r="65">
@@ -1495,16 +4759,67 @@
         <v>64</v>
       </c>
       <c r="B65" t="str">
-        <v>251865</v>
+        <v>251772</v>
       </c>
       <c r="C65" t="str">
-        <v>2025-07-15 06:03:42</v>
+        <v>2025-07-09 08:27:55</v>
       </c>
       <c r="D65" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
       </c>
       <c r="E65" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-KMC-TH-24/25-16-18</v>
+      </c>
+      <c r="F65">
+        <v>999</v>
+      </c>
+      <c r="G65">
+        <v>899.1</v>
+      </c>
+      <c r="H65" t="str">
+        <v>P</v>
+      </c>
+      <c r="I65">
+        <v>899.1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>899.1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N65" t="str">
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <v/>
+      </c>
+      <c r="P65" t="str">
+        <v/>
+      </c>
+      <c r="Q65" t="str">
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S65" t="str">
+        <v/>
+      </c>
+      <c r="T65" t="str">
+        <v/>
+      </c>
+      <c r="U65" t="str">
+        <v/>
+      </c>
+      <c r="V65" t="str">
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -1512,16 +4827,67 @@
         <v>65</v>
       </c>
       <c r="B66" t="str">
-        <v>251854</v>
+        <v>251748</v>
       </c>
       <c r="C66" t="str">
-        <v>2025-07-14 10:21:25</v>
+        <v>2025-07-08 00:04:19</v>
       </c>
       <c r="D66" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - L</v>
+        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
       </c>
       <c r="E66" t="str">
-        <v>IND-TST-25-PV-L</v>
+        <v>NAT-JPN-DBZVEG--FV-L</v>
+      </c>
+      <c r="F66">
+        <v>999</v>
+      </c>
+      <c r="G66">
+        <v>999</v>
+      </c>
+      <c r="H66" t="str">
+        <v>C</v>
+      </c>
+      <c r="I66">
+        <v>99.9</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>999</v>
+      </c>
+      <c r="L66">
+        <v>899.1</v>
+      </c>
+      <c r="M66" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N66" t="str">
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <v/>
+      </c>
+      <c r="P66" t="str">
+        <v/>
+      </c>
+      <c r="Q66" t="str">
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S66" t="str">
+        <v/>
+      </c>
+      <c r="T66" t="str">
+        <v/>
+      </c>
+      <c r="U66" t="str">
+        <v/>
+      </c>
+      <c r="V66" t="str">
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -1529,16 +4895,67 @@
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <v>251853</v>
+        <v>251682_2</v>
       </c>
       <c r="C67" t="str">
-        <v>2025-07-14 07:42:58</v>
+        <v>2025-07-07 02:27:16</v>
       </c>
       <c r="D67" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E67" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-M</v>
+      </c>
+      <c r="F67">
+        <v>1079.1</v>
+      </c>
+      <c r="G67">
+        <v>1079.1</v>
+      </c>
+      <c r="H67" t="str">
+        <v>P</v>
+      </c>
+      <c r="I67">
+        <v>1079.1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1079.1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <v/>
+      </c>
+      <c r="P67" t="str">
+        <v/>
+      </c>
+      <c r="Q67" t="str">
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S67" t="str">
+        <v/>
+      </c>
+      <c r="T67" t="str">
+        <v/>
+      </c>
+      <c r="U67" t="str">
+        <v/>
+      </c>
+      <c r="V67" t="str">
+        <v/>
       </c>
     </row>
     <row r="68">
@@ -1546,16 +4963,67 @@
         <v>67</v>
       </c>
       <c r="B68" t="str">
-        <v>251850</v>
+        <v>251734</v>
       </c>
       <c r="C68" t="str">
-        <v>2025-07-13 23:40:21</v>
+        <v>2025-07-06 23:31:10</v>
       </c>
       <c r="D68" t="str">
-        <v>Retro Argentina 1998 World Cup Home Jersey - M</v>
+        <v>INDIA Test Cricket Jersey - 2025 - L</v>
       </c>
       <c r="E68" t="str">
-        <v>RET-ARG-WC-98-PV-M</v>
+        <v>IND-TST-25-PV-L</v>
+      </c>
+      <c r="F68">
+        <v>1299</v>
+      </c>
+      <c r="G68">
+        <v>1199</v>
+      </c>
+      <c r="H68" t="str">
+        <v>P</v>
+      </c>
+      <c r="I68">
+        <v>1199</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1199</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N68" t="str">
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <v/>
+      </c>
+      <c r="P68" t="str">
+        <v/>
+      </c>
+      <c r="Q68" t="str">
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S68" t="str">
+        <v/>
+      </c>
+      <c r="T68" t="str">
+        <v/>
+      </c>
+      <c r="U68" t="str">
+        <v/>
+      </c>
+      <c r="V68" t="str">
+        <v/>
       </c>
     </row>
     <row r="69">
@@ -1563,16 +5031,67 @@
         <v>68</v>
       </c>
       <c r="B69" t="str">
-        <v>251848</v>
+        <v>251705</v>
       </c>
       <c r="C69" t="str">
-        <v>2025-07-13 22:03:23</v>
+        <v>2025-07-05 15:54:04</v>
       </c>
       <c r="D69" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
       </c>
       <c r="E69" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-RM-GOLD-24/25-FV-S</v>
+      </c>
+      <c r="F69">
+        <v>1199</v>
+      </c>
+      <c r="G69">
+        <v>1199</v>
+      </c>
+      <c r="H69" t="str">
+        <v>C</v>
+      </c>
+      <c r="I69">
+        <v>119.9</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1199</v>
+      </c>
+      <c r="L69">
+        <v>1079.1</v>
+      </c>
+      <c r="M69" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <v/>
+      </c>
+      <c r="Q69" t="str">
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S69" t="str">
+        <v/>
+      </c>
+      <c r="T69" t="str">
+        <v/>
+      </c>
+      <c r="U69" t="str">
+        <v/>
+      </c>
+      <c r="V69" t="str">
+        <v/>
       </c>
     </row>
     <row r="70">
@@ -1580,16 +5099,67 @@
         <v>69</v>
       </c>
       <c r="B70" t="str">
-        <v>251840</v>
+        <v>251702</v>
       </c>
       <c r="C70" t="str">
-        <v>2025-07-13 09:20:24</v>
+        <v>2025-07-05 12:23:40</v>
       </c>
       <c r="D70" t="str">
-        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - S</v>
+        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
       </c>
       <c r="E70" t="str">
-        <v>india-test-cricket-jersey-full-sleeves-2025-s</v>
+        <v>NAT-JPN-DBZVEG--FV-L</v>
+      </c>
+      <c r="F70">
+        <v>999</v>
+      </c>
+      <c r="G70">
+        <v>899.1</v>
+      </c>
+      <c r="H70" t="str">
+        <v>P</v>
+      </c>
+      <c r="I70">
+        <v>899.1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>899.1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N70" t="str">
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <v/>
+      </c>
+      <c r="P70" t="str">
+        <v/>
+      </c>
+      <c r="Q70" t="str">
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S70" t="str">
+        <v/>
+      </c>
+      <c r="T70" t="str">
+        <v/>
+      </c>
+      <c r="U70" t="str">
+        <v/>
+      </c>
+      <c r="V70" t="str">
+        <v/>
       </c>
     </row>
     <row r="71">
@@ -1597,16 +5167,67 @@
         <v>70</v>
       </c>
       <c r="B71" t="str">
-        <v>251834</v>
+        <v>251678</v>
       </c>
       <c r="C71" t="str">
-        <v>2025-07-12 19:34:04</v>
+        <v>2025-07-04 07:53:48</v>
       </c>
       <c r="D71" t="str">
-        <v>Japan X Dragon Ball Z Special Anime 2024-25 Player Version - 2XL</v>
+        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
       </c>
       <c r="E71" t="str">
-        <v>NAT-JPN-DBZSP-24/25-PV-XXL</v>
+        <v>CLU-RM-DRGPPL--FV-L</v>
+      </c>
+      <c r="F71">
+        <v>1199</v>
+      </c>
+      <c r="G71">
+        <v>1898</v>
+      </c>
+      <c r="H71" t="str">
+        <v>P</v>
+      </c>
+      <c r="I71">
+        <v>1035.35</v>
+      </c>
+      <c r="J71">
+        <v>1199</v>
+      </c>
+      <c r="K71">
+        <v>1035.35</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
+      <c r="P71" t="str">
+        <v/>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S71" t="str">
+        <v/>
+      </c>
+      <c r="T71" t="str">
+        <v/>
+      </c>
+      <c r="U71" t="str">
+        <v/>
+      </c>
+      <c r="V71" t="str">
+        <v/>
       </c>
     </row>
     <row r="72">
@@ -1614,16 +5235,67 @@
         <v>71</v>
       </c>
       <c r="B72" t="str">
-        <v>251834</v>
+        <v>251678</v>
       </c>
       <c r="C72" t="str">
-        <v>2025-07-12 19:34:04</v>
+        <v>2025-07-04 07:53:48</v>
       </c>
       <c r="D72" t="str">
-        <v>Japan Dragon Ball Z Goku Super Saiyan Jersey Fan Version - 2XL</v>
+        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
       </c>
       <c r="E72" t="str">
-        <v>NAT-JPN-DBZ-GOK-24/25-FV-2XL</v>
+        <v>NAT-JPN-DBZVEG--FV-L</v>
+      </c>
+      <c r="F72">
+        <v>999</v>
+      </c>
+      <c r="G72">
+        <v>1898</v>
+      </c>
+      <c r="H72" t="str">
+        <v>P</v>
+      </c>
+      <c r="I72">
+        <v>862.65</v>
+      </c>
+      <c r="J72">
+        <v>999</v>
+      </c>
+      <c r="K72">
+        <v>862.65</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <v/>
+      </c>
+      <c r="Q72" t="str">
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S72" t="str">
+        <v/>
+      </c>
+      <c r="T72" t="str">
+        <v/>
+      </c>
+      <c r="U72" t="str">
+        <v/>
+      </c>
+      <c r="V72" t="str">
+        <v/>
       </c>
     </row>
     <row r="73">
@@ -1631,16 +5303,67 @@
         <v>72</v>
       </c>
       <c r="B73" t="str">
-        <v>251781_1</v>
+        <v>251589_29</v>
       </c>
       <c r="C73" t="str">
-        <v>2025-07-12 16:03:15</v>
+        <v>2025-07-02 20:30:32</v>
       </c>
       <c r="D73" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
+        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
       </c>
       <c r="E73" t="str">
-        <v>CLU-RM-DRGPPL--FV-XXL</v>
+        <v>NAT-JPN-DBZVEG--FV-L</v>
+      </c>
+      <c r="F73">
+        <v>999</v>
+      </c>
+      <c r="G73">
+        <v>899</v>
+      </c>
+      <c r="H73" t="str">
+        <v>P</v>
+      </c>
+      <c r="I73">
+        <v>899</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>899</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
+      <c r="P73" t="str">
+        <v/>
+      </c>
+      <c r="Q73" t="str">
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S73" t="str">
+        <v/>
+      </c>
+      <c r="T73" t="str">
+        <v/>
+      </c>
+      <c r="U73" t="str">
+        <v/>
+      </c>
+      <c r="V73" t="str">
+        <v/>
       </c>
     </row>
     <row r="74">
@@ -1648,16 +5371,67 @@
         <v>73</v>
       </c>
       <c r="B74" t="str">
-        <v>251818</v>
+        <v>251597_2</v>
       </c>
       <c r="C74" t="str">
-        <v>2025-07-11 10:24:47</v>
+        <v>2025-07-02 01:02:28</v>
       </c>
       <c r="D74" t="str">
-        <v>Retro Argentina 1998 World Cup Home Jersey - S</v>
+        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
       </c>
       <c r="E74" t="str">
-        <v>RET-ARG-WC-98-PV-S</v>
+        <v>CLU-KBARC-HM-24/25-24-26</v>
+      </c>
+      <c r="F74">
+        <v>1046.05</v>
+      </c>
+      <c r="G74">
+        <v>846.05</v>
+      </c>
+      <c r="H74" t="str">
+        <v>P</v>
+      </c>
+      <c r="I74">
+        <v>846.05</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>846.05</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N74" t="str">
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <v/>
+      </c>
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S74" t="str">
+        <v/>
+      </c>
+      <c r="T74" t="str">
+        <v/>
+      </c>
+      <c r="U74" t="str">
+        <v/>
+      </c>
+      <c r="V74" t="str">
+        <v/>
       </c>
     </row>
     <row r="75">
@@ -1665,16 +5439,67 @@
         <v>74</v>
       </c>
       <c r="B75" t="str">
-        <v>251818</v>
+        <v>251592</v>
       </c>
       <c r="C75" t="str">
-        <v>2025-07-11 10:24:47</v>
+        <v>2025-06-29 07:33:02</v>
       </c>
       <c r="D75" t="str">
-        <v>Retro Portugal 2012 Away Full Sleeve Jersey - S</v>
+        <v>Kids Barcelona Home Jersey 2024-25 - 28-30</v>
       </c>
       <c r="E75" t="str">
-        <v>RET-PORT-AWF-12/13-PV-S</v>
+        <v>CLU-KBARC-HM-24/25-28-30</v>
+      </c>
+      <c r="F75">
+        <v>999</v>
+      </c>
+      <c r="G75">
+        <v>999</v>
+      </c>
+      <c r="H75" t="str">
+        <v>C</v>
+      </c>
+      <c r="I75">
+        <v>99.9</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>999</v>
+      </c>
+      <c r="L75">
+        <v>899.1</v>
+      </c>
+      <c r="M75" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N75" t="str">
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S75" t="str">
+        <v/>
+      </c>
+      <c r="T75" t="str">
+        <v/>
+      </c>
+      <c r="U75" t="str">
+        <v/>
+      </c>
+      <c r="V75" t="str">
+        <v/>
       </c>
     </row>
     <row r="76">
@@ -1682,16 +5507,67 @@
         <v>75</v>
       </c>
       <c r="B76" t="str">
-        <v>251815</v>
+        <v>251566</v>
       </c>
       <c r="C76" t="str">
-        <v>2025-07-11 08:13:03</v>
+        <v>2025-06-27 20:00:53</v>
       </c>
       <c r="D76" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
+        <v>Belgium Away Jersey 2024-25 Fan Version - M</v>
       </c>
       <c r="E76" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-M</v>
+        <v>NAT-BEL-AW-24/25-FV-M</v>
+      </c>
+      <c r="F76">
+        <v>999</v>
+      </c>
+      <c r="G76">
+        <v>899.1</v>
+      </c>
+      <c r="H76" t="str">
+        <v>P</v>
+      </c>
+      <c r="I76">
+        <v>899.1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>899.1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S76" t="str">
+        <v/>
+      </c>
+      <c r="T76" t="str">
+        <v/>
+      </c>
+      <c r="U76" t="str">
+        <v/>
+      </c>
+      <c r="V76" t="str">
+        <v/>
       </c>
     </row>
     <row r="77">
@@ -1699,16 +5575,67 @@
         <v>76</v>
       </c>
       <c r="B77" t="str">
-        <v>251814</v>
+        <v>251521</v>
       </c>
       <c r="C77" t="str">
-        <v>2025-07-11 07:51:10</v>
+        <v>2025-06-24 23:44:26</v>
       </c>
       <c r="D77" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>Kids Real Madrid Home Jersey 2024-25 - 24-26</v>
       </c>
       <c r="E77" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>CLU-KRM-HM-24/25-24-26</v>
+      </c>
+      <c r="F77">
+        <v>999</v>
+      </c>
+      <c r="G77">
+        <v>899.1</v>
+      </c>
+      <c r="H77" t="str">
+        <v>P</v>
+      </c>
+      <c r="I77">
+        <v>899.1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>899.1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N77" t="str">
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <v/>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S77" t="str">
+        <v/>
+      </c>
+      <c r="T77" t="str">
+        <v/>
+      </c>
+      <c r="U77" t="str">
+        <v/>
+      </c>
+      <c r="V77" t="str">
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -1716,16 +5643,67 @@
         <v>77</v>
       </c>
       <c r="B78" t="str">
-        <v>251810</v>
+        <v>251507_15</v>
       </c>
       <c r="C78" t="str">
-        <v>2025-07-11 06:07:40</v>
+        <v>2025-06-24 16:18:14</v>
       </c>
       <c r="D78" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version - XL</v>
+        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
       </c>
       <c r="E78" t="str">
-        <v>NAT-JPN-DBZVEG--PV-XL</v>
+        <v>CLU-KBARC-HM-24/25-24-26</v>
+      </c>
+      <c r="F78">
+        <v>999</v>
+      </c>
+      <c r="G78">
+        <v>899</v>
+      </c>
+      <c r="H78" t="str">
+        <v>P</v>
+      </c>
+      <c r="I78">
+        <v>899</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>899</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <v/>
+      </c>
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S78" t="str">
+        <v/>
+      </c>
+      <c r="T78" t="str">
+        <v/>
+      </c>
+      <c r="U78" t="str">
+        <v/>
+      </c>
+      <c r="V78" t="str">
+        <v/>
       </c>
     </row>
     <row r="79">
@@ -1733,16 +5711,67 @@
         <v>78</v>
       </c>
       <c r="B79" t="str">
-        <v>251808</v>
+        <v>251403_12</v>
       </c>
       <c r="C79" t="str">
-        <v>2025-07-11 01:46:30</v>
+        <v>2025-06-17 20:34:27</v>
       </c>
       <c r="D79" t="str">
-        <v>Mexico de Oro Black Jersey 2025-26 Player Version - 2XL</v>
+        <v>Paris Away Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E79" t="str">
-        <v>NAT-MEX-deOro-25/26-PV-2XL</v>
+        <v>CLU-PSG-AW-24/25-PV-L</v>
+      </c>
+      <c r="F79">
+        <v>1134.1</v>
+      </c>
+      <c r="G79">
+        <v>1034.1</v>
+      </c>
+      <c r="H79" t="str">
+        <v>P</v>
+      </c>
+      <c r="I79">
+        <v>1034.1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1034.1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N79" t="str">
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <v/>
+      </c>
+      <c r="P79" t="str">
+        <v/>
+      </c>
+      <c r="Q79" t="str">
+        <v/>
+      </c>
+      <c r="R79" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S79" t="str">
+        <v/>
+      </c>
+      <c r="T79" t="str">
+        <v/>
+      </c>
+      <c r="U79" t="str">
+        <v/>
+      </c>
+      <c r="V79" t="str">
+        <v/>
       </c>
     </row>
     <row r="80">
@@ -1750,16 +5779,67 @@
         <v>79</v>
       </c>
       <c r="B80" t="str">
-        <v>251803</v>
+        <v>251385</v>
       </c>
       <c r="C80" t="str">
-        <v>2025-07-10 15:35:53</v>
+        <v>2025-06-16 21:30:01</v>
       </c>
       <c r="D80" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
       </c>
       <c r="E80" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>IPL-RCB-M-25-L</v>
+      </c>
+      <c r="F80">
+        <v>899</v>
+      </c>
+      <c r="G80">
+        <v>899</v>
+      </c>
+      <c r="H80" t="str">
+        <v>C</v>
+      </c>
+      <c r="I80">
+        <v>89.9</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>899</v>
+      </c>
+      <c r="L80">
+        <v>809.1</v>
+      </c>
+      <c r="M80" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <v/>
+      </c>
+      <c r="R80" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S80" t="str">
+        <v/>
+      </c>
+      <c r="T80" t="str">
+        <v/>
+      </c>
+      <c r="U80" t="str">
+        <v/>
+      </c>
+      <c r="V80" t="str">
+        <v/>
       </c>
     </row>
     <row r="81">
@@ -1767,16 +5847,67 @@
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <v>251792</v>
+        <v>251362</v>
       </c>
       <c r="C81" t="str">
-        <v>2025-07-10 11:01:41</v>
+        <v>2025-06-15 21:18:38</v>
       </c>
       <c r="D81" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Kids Real Madrid Home Jersey 2024-25 - 28-30</v>
       </c>
       <c r="E81" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-KRM-HM-24/25-28-30</v>
+      </c>
+      <c r="F81">
+        <v>999</v>
+      </c>
+      <c r="G81">
+        <v>899.1</v>
+      </c>
+      <c r="H81" t="str">
+        <v>P</v>
+      </c>
+      <c r="I81">
+        <v>899.1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>899.1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N81" t="str">
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <v/>
+      </c>
+      <c r="P81" t="str">
+        <v/>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S81" t="str">
+        <v/>
+      </c>
+      <c r="T81" t="str">
+        <v/>
+      </c>
+      <c r="U81" t="str">
+        <v/>
+      </c>
+      <c r="V81" t="str">
+        <v/>
       </c>
     </row>
     <row r="82">
@@ -1784,16 +5915,67 @@
         <v>81</v>
       </c>
       <c r="B82" t="str">
-        <v>251787</v>
+        <v>251326</v>
       </c>
       <c r="C82" t="str">
-        <v>2025-07-09 22:24:20</v>
+        <v>2025-06-14 10:14:19</v>
       </c>
       <c r="D82" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
       </c>
       <c r="E82" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-KMC-TH-24/25-16-18</v>
+      </c>
+      <c r="F82">
+        <v>999</v>
+      </c>
+      <c r="G82">
+        <v>899.1</v>
+      </c>
+      <c r="H82" t="str">
+        <v>P</v>
+      </c>
+      <c r="I82">
+        <v>899.1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>899.1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S82" t="str">
+        <v/>
+      </c>
+      <c r="T82" t="str">
+        <v/>
+      </c>
+      <c r="U82" t="str">
+        <v/>
+      </c>
+      <c r="V82" t="str">
+        <v/>
       </c>
     </row>
     <row r="83">
@@ -1801,16 +5983,67 @@
         <v>82</v>
       </c>
       <c r="B83" t="str">
-        <v>251772</v>
+        <v>251268_70</v>
       </c>
       <c r="C83" t="str">
-        <v>2025-07-09 08:27:55</v>
+        <v>2025-06-12 01:36:30</v>
       </c>
       <c r="D83" t="str">
-        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
+        <v>RCB Virat Kohli IPL Winning Jersey 2025 - XL</v>
       </c>
       <c r="E83" t="str">
-        <v>CLU-KMC-TH-24/25-16-18</v>
+        <v>IPL-RCB-VK-SE-25-XL</v>
+      </c>
+      <c r="F83">
+        <v>1199</v>
+      </c>
+      <c r="G83">
+        <v>1199</v>
+      </c>
+      <c r="H83" t="str">
+        <v>P</v>
+      </c>
+      <c r="I83">
+        <v>1199</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1199</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S83" t="str">
+        <v/>
+      </c>
+      <c r="T83" t="str">
+        <v/>
+      </c>
+      <c r="U83" t="str">
+        <v/>
+      </c>
+      <c r="V83" t="str">
+        <v/>
       </c>
     </row>
     <row r="84">
@@ -1818,16 +6051,67 @@
         <v>83</v>
       </c>
       <c r="B84" t="str">
-        <v>251748</v>
+        <v>251287</v>
       </c>
       <c r="C84" t="str">
-        <v>2025-07-08 00:04:19</v>
+        <v>2025-06-10 09:09:43</v>
       </c>
       <c r="D84" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
       </c>
       <c r="E84" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>IPL-RCB-VK-SE-25-L</v>
+      </c>
+      <c r="F84">
+        <v>1299</v>
+      </c>
+      <c r="G84">
+        <v>1199</v>
+      </c>
+      <c r="H84" t="str">
+        <v>P</v>
+      </c>
+      <c r="I84">
+        <v>1199</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1199</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S84" t="str">
+        <v/>
+      </c>
+      <c r="T84" t="str">
+        <v/>
+      </c>
+      <c r="U84" t="str">
+        <v/>
+      </c>
+      <c r="V84" t="str">
+        <v/>
       </c>
     </row>
     <row r="85">
@@ -1835,16 +6119,67 @@
         <v>84</v>
       </c>
       <c r="B85" t="str">
-        <v>251682_2</v>
+        <v>251283</v>
       </c>
       <c r="C85" t="str">
-        <v>2025-07-07 02:27:16</v>
+        <v>2025-06-09 20:01:31</v>
       </c>
       <c r="D85" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
+        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
       </c>
       <c r="E85" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-M</v>
+        <v>IPL-RCB-M-25-L</v>
+      </c>
+      <c r="F85">
+        <v>899</v>
+      </c>
+      <c r="G85">
+        <v>809.1</v>
+      </c>
+      <c r="H85" t="str">
+        <v>P</v>
+      </c>
+      <c r="I85">
+        <v>809.1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>809.1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S85" t="str">
+        <v/>
+      </c>
+      <c r="T85" t="str">
+        <v/>
+      </c>
+      <c r="U85" t="str">
+        <v/>
+      </c>
+      <c r="V85" t="str">
+        <v/>
       </c>
     </row>
     <row r="86">
@@ -1852,16 +6187,67 @@
         <v>85</v>
       </c>
       <c r="B86" t="str">
-        <v>251734</v>
+        <v>251281</v>
       </c>
       <c r="C86" t="str">
-        <v>2025-07-06 23:31:10</v>
+        <v>2025-06-09 19:41:00</v>
       </c>
       <c r="D86" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - L</v>
+        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
       </c>
       <c r="E86" t="str">
-        <v>IND-TST-25-PV-L</v>
+        <v>IPL-RCB-VK-SE-25-L</v>
+      </c>
+      <c r="F86">
+        <v>1299</v>
+      </c>
+      <c r="G86">
+        <v>1199</v>
+      </c>
+      <c r="H86" t="str">
+        <v>P</v>
+      </c>
+      <c r="I86">
+        <v>1199</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1199</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N86" t="str">
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <v/>
+      </c>
+      <c r="P86" t="str">
+        <v/>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S86" t="str">
+        <v/>
+      </c>
+      <c r="T86" t="str">
+        <v/>
+      </c>
+      <c r="U86" t="str">
+        <v/>
+      </c>
+      <c r="V86" t="str">
+        <v/>
       </c>
     </row>
     <row r="87">
@@ -1869,16 +6255,67 @@
         <v>86</v>
       </c>
       <c r="B87" t="str">
-        <v>251705</v>
+        <v>251280</v>
       </c>
       <c r="C87" t="str">
-        <v>2025-07-05 15:54:04</v>
+        <v>2025-06-09 12:17:09</v>
       </c>
       <c r="D87" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>Royal Challengers Bengaluru Fan Jersey 2025 - M</v>
       </c>
       <c r="E87" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>IPL-RCB-M-25-M</v>
+      </c>
+      <c r="F87">
+        <v>899</v>
+      </c>
+      <c r="G87">
+        <v>809.1</v>
+      </c>
+      <c r="H87" t="str">
+        <v>P</v>
+      </c>
+      <c r="I87">
+        <v>809.1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>809.1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N87" t="str">
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <v/>
+      </c>
+      <c r="P87" t="str">
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S87" t="str">
+        <v/>
+      </c>
+      <c r="T87" t="str">
+        <v/>
+      </c>
+      <c r="U87" t="str">
+        <v/>
+      </c>
+      <c r="V87" t="str">
+        <v/>
       </c>
     </row>
     <row r="88">
@@ -1886,16 +6323,67 @@
         <v>87</v>
       </c>
       <c r="B88" t="str">
-        <v>251702</v>
+        <v>251152</v>
       </c>
       <c r="C88" t="str">
-        <v>2025-07-05 12:23:40</v>
+        <v>2025-05-25 12:14:37</v>
       </c>
       <c r="D88" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Inter Milan Away Jersey 2024-25 Fan Version - L</v>
       </c>
       <c r="E88" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-IML-AW-24/25-FV-L</v>
+      </c>
+      <c r="F88">
+        <v>999</v>
+      </c>
+      <c r="G88">
+        <v>899.1</v>
+      </c>
+      <c r="H88" t="str">
+        <v>P</v>
+      </c>
+      <c r="I88">
+        <v>899.1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>899.1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <v/>
+      </c>
+      <c r="P88" t="str">
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <v/>
+      </c>
+      <c r="R88" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S88" t="str">
+        <v/>
+      </c>
+      <c r="T88" t="str">
+        <v/>
+      </c>
+      <c r="U88" t="str">
+        <v/>
+      </c>
+      <c r="V88" t="str">
+        <v/>
       </c>
     </row>
     <row r="89">
@@ -1903,378 +6391,72 @@
         <v>88</v>
       </c>
       <c r="B89" t="str">
-        <v>251678</v>
+        <v>251117</v>
       </c>
       <c r="C89" t="str">
-        <v>2025-07-04 07:53:48</v>
+        <v>2025-05-18 16:25:29</v>
       </c>
       <c r="D89" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Inter Milan Away Jersey 2024-25 Fan Version - XL</v>
       </c>
       <c r="E89" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="str">
-        <v>251678</v>
-      </c>
-      <c r="C90" t="str">
-        <v>2025-07-04 07:53:48</v>
-      </c>
-      <c r="D90" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
-      </c>
-      <c r="E90" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="str">
-        <v>251589_29</v>
-      </c>
-      <c r="C91" t="str">
-        <v>2025-07-02 20:30:32</v>
-      </c>
-      <c r="D91" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
-      </c>
-      <c r="E91" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="str">
-        <v>251597_2</v>
-      </c>
-      <c r="C92" t="str">
-        <v>2025-07-02 01:02:28</v>
-      </c>
-      <c r="D92" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
-      </c>
-      <c r="E92" t="str">
-        <v>CLU-KBARC-HM-24/25-24-26</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="str">
-        <v>251594</v>
-      </c>
-      <c r="C93" t="str">
-        <v>2025-06-29 10:13:37</v>
-      </c>
-      <c r="D93" t="str">
-        <v>Retro Argentina 1998 World Cup Home Jersey - 2XL</v>
-      </c>
-      <c r="E93" t="str">
-        <v>RET-ARG-WC-98-PV-XXL</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="str">
-        <v>251592</v>
-      </c>
-      <c r="C94" t="str">
-        <v>2025-06-29 07:33:02</v>
-      </c>
-      <c r="D94" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 28-30</v>
-      </c>
-      <c r="E94" t="str">
-        <v>CLU-KBARC-HM-24/25-28-30</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="str">
-        <v>251566</v>
-      </c>
-      <c r="C95" t="str">
-        <v>2025-06-27 20:00:53</v>
-      </c>
-      <c r="D95" t="str">
-        <v>Belgium Away Jersey 2024-25 Fan Version - M</v>
-      </c>
-      <c r="E95" t="str">
-        <v>NAT-BEL-AW-24/25-FV-M</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="str">
-        <v>251535_1</v>
-      </c>
-      <c r="C96" t="str">
-        <v>2025-06-27 13:03:28</v>
-      </c>
-      <c r="D96" t="str">
-        <v>Retro Argentina 1998 World Cup Home Jersey - L</v>
-      </c>
-      <c r="E96" t="str">
-        <v>RET-ARG-WC-98-PV-L</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="str">
-        <v>251521</v>
-      </c>
-      <c r="C97" t="str">
-        <v>2025-06-24 23:44:26</v>
-      </c>
-      <c r="D97" t="str">
-        <v>Kids Real Madrid Home Jersey 2024-25 - 24-26</v>
-      </c>
-      <c r="E97" t="str">
-        <v>CLU-KRM-HM-24/25-24-26</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="str">
-        <v>251507_15</v>
-      </c>
-      <c r="C98" t="str">
-        <v>2025-06-24 16:18:14</v>
-      </c>
-      <c r="D98" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
-      </c>
-      <c r="E98" t="str">
-        <v>CLU-KBARC-HM-24/25-24-26</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="str">
-        <v>251470</v>
-      </c>
-      <c r="C99" t="str">
-        <v>2025-06-21 10:41:31</v>
-      </c>
-      <c r="D99" t="str">
-        <v>AC Milan Home Jersey 2025-26 Player Version - L</v>
-      </c>
-      <c r="E99" t="str">
-        <v>CLU-ACM-HM-25/26-PV-L</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="str">
-        <v>251403_12</v>
-      </c>
-      <c r="C100" t="str">
-        <v>2025-06-17 20:34:27</v>
-      </c>
-      <c r="D100" t="str">
-        <v>Paris Away Jersey 2024-25 Player Version - L</v>
-      </c>
-      <c r="E100" t="str">
-        <v>CLU-PSG-AW-24/25-PV-L</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="str">
-        <v>251385</v>
-      </c>
-      <c r="C101" t="str">
-        <v>2025-06-16 21:30:01</v>
-      </c>
-      <c r="D101" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
-      </c>
-      <c r="E101" t="str">
-        <v>IPL-RCB-M-25-L</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="str">
-        <v>251362</v>
-      </c>
-      <c r="C102" t="str">
-        <v>2025-06-15 21:18:38</v>
-      </c>
-      <c r="D102" t="str">
-        <v>Kids Real Madrid Home Jersey 2024-25 - 28-30</v>
-      </c>
-      <c r="E102" t="str">
-        <v>CLU-KRM-HM-24/25-28-30</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="str">
-        <v>251326</v>
-      </c>
-      <c r="C103" t="str">
-        <v>2025-06-14 10:14:19</v>
-      </c>
-      <c r="D103" t="str">
-        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
-      </c>
-      <c r="E103" t="str">
-        <v>CLU-KMC-TH-24/25-16-18</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="str">
-        <v>251268_70</v>
-      </c>
-      <c r="C104" t="str">
-        <v>2025-06-12 01:36:30</v>
-      </c>
-      <c r="D104" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - XL</v>
-      </c>
-      <c r="E104" t="str">
-        <v>IPL-RCB-VK-SE-25-XL</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="str">
-        <v>251287</v>
-      </c>
-      <c r="C105" t="str">
-        <v>2025-06-10 09:09:43</v>
-      </c>
-      <c r="D105" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
-      </c>
-      <c r="E105" t="str">
-        <v>IPL-RCB-VK-SE-25-L</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="str">
-        <v>251283</v>
-      </c>
-      <c r="C106" t="str">
-        <v>2025-06-09 20:01:31</v>
-      </c>
-      <c r="D106" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
-      </c>
-      <c r="E106" t="str">
-        <v>IPL-RCB-M-25-L</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="str">
-        <v>251281</v>
-      </c>
-      <c r="C107" t="str">
-        <v>2025-06-09 19:41:00</v>
-      </c>
-      <c r="D107" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
-      </c>
-      <c r="E107" t="str">
-        <v>IPL-RCB-VK-SE-25-L</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="str">
-        <v>251280</v>
-      </c>
-      <c r="C108" t="str">
-        <v>2025-06-09 12:17:09</v>
-      </c>
-      <c r="D108" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - M</v>
-      </c>
-      <c r="E108" t="str">
-        <v>IPL-RCB-M-25-M</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="str">
-        <v>251152</v>
-      </c>
-      <c r="C109" t="str">
-        <v>2025-05-25 12:14:37</v>
-      </c>
-      <c r="D109" t="str">
-        <v>Inter Milan Away Jersey 2024-25 Fan Version - L</v>
-      </c>
-      <c r="E109" t="str">
-        <v>CLU-IML-AW-24/25-FV-L</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="str">
-        <v>251117</v>
-      </c>
-      <c r="C110" t="str">
-        <v>2025-05-18 16:25:29</v>
-      </c>
-      <c r="D110" t="str">
-        <v>Inter Milan Away Jersey 2024-25 Fan Version - XL</v>
-      </c>
-      <c r="E110" t="str">
         <v>CLU-IML-AW-24/25-FV-XL</v>
+      </c>
+      <c r="F89">
+        <v>999</v>
+      </c>
+      <c r="G89">
+        <v>999</v>
+      </c>
+      <c r="H89" t="str">
+        <v>C</v>
+      </c>
+      <c r="I89">
+        <v>99.9</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>999</v>
+      </c>
+      <c r="L89">
+        <v>899.1</v>
+      </c>
+      <c r="M89" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="N89" t="str">
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="S89" t="str">
+        <v/>
+      </c>
+      <c r="T89" t="str">
+        <v/>
+      </c>
+      <c r="U89" t="str">
+        <v/>
+      </c>
+      <c r="V89" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V89"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/orders.xlsx
+++ b/backend/data/orders.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -440,57 +440,69 @@
         <v>collectable_amount</v>
       </c>
       <c r="M1" t="str">
+        <v>pincode</v>
+      </c>
+      <c r="N1" t="str">
         <v>status</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>claimed_by</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>claimed_at</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>last_claimed_by</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>last_claimed_at</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>clone_status</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>cloned_order_id</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>is_cloned_row</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>label_downloaded</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>handover_at</v>
+      </c>
+      <c r="X1" t="str">
+        <v>customer_name</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>product_image</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>priority_carrier</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>4856</v>
       </c>
       <c r="B2" t="str">
-        <v>252013_1</v>
+        <v>252885</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-25 04:57:36</v>
+        <v>2025-09-11 00:42:32</v>
       </c>
       <c r="D2" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
+        <v>Real Madrid Third Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E2" t="str">
-        <v>CLU-RM-DRGPPL--FV-XXL</v>
+        <v>CLU-RM-TH-25/26-PV-S</v>
       </c>
       <c r="F2">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G2">
-        <v>2498</v>
+        <v>1199</v>
       </c>
       <c r="H2" t="str">
         <v>P</v>
@@ -499,7 +511,7 @@
         <v>1199</v>
       </c>
       <c r="J2">
-        <v>1199</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1199</v>
@@ -508,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>unclaimed</v>
+        <v>173223</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O2" t="str">
         <v/>
@@ -523,10 +535,10 @@
         <v/>
       </c>
       <c r="R2" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S2" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T2" t="str">
         <v/>
@@ -535,51 +547,63 @@
         <v/>
       </c>
       <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v>Oishani Sarkar</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-third-jersey-2025-26-front-full-emirates-trefoil-sleeves.png?v=1755550707</v>
+      </c>
+      <c r="Z2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>4857</v>
       </c>
       <c r="B3" t="str">
-        <v>252013_1</v>
+        <v>252884</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-07-25 04:57:36</v>
+        <v>2025-09-11 00:38:48</v>
       </c>
       <c r="D3" t="str">
-        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
+        <v>France Home Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E3" t="str">
-        <v>CLU-ARS-TH-25/26-PV-2XL</v>
+        <v>NAT-FRA-HM-24/25-PV-M</v>
       </c>
       <c r="F3">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="G3">
-        <v>2498</v>
+        <v>1099</v>
       </c>
       <c r="H3" t="str">
         <v>P</v>
       </c>
       <c r="I3">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="J3">
-        <v>1299</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <v>unclaimed</v>
+        <v>500034</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O3" t="str">
         <v/>
@@ -591,10 +615,10 @@
         <v/>
       </c>
       <c r="R3" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T3" t="str">
         <v/>
@@ -603,51 +627,63 @@
         <v/>
       </c>
       <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v>Animesh Jha</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/france-home-jersey-2024-25-front-angle-view.png?v=1745613290</v>
+      </c>
+      <c r="Z3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>4858</v>
       </c>
       <c r="B4" t="str">
-        <v>251818_27</v>
+        <v>252883</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-07-25 04:46:44</v>
+        <v>2025-09-11 00:32:24</v>
       </c>
       <c r="D4" t="str">
-        <v>Retro Portugal 2012 Away Full Sleeve Jersey - S</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E4" t="str">
-        <v>RET-PORT-AWF-12/13-PV-S</v>
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
       </c>
       <c r="F4">
-        <v>1714.09</v>
+        <v>1299</v>
       </c>
       <c r="G4">
-        <v>1714.09</v>
+        <v>1199</v>
       </c>
       <c r="H4" t="str">
         <v>P</v>
       </c>
       <c r="I4">
-        <v>1714.09</v>
+        <v>1199</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1714.09</v>
+        <v>1199</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="str">
-        <v>unclaimed</v>
+        <v>400076</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -659,10 +695,10 @@
         <v/>
       </c>
       <c r="R4" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S4" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T4" t="str">
         <v/>
@@ -671,51 +707,63 @@
         <v/>
       </c>
       <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v>Vijayeshwar Battula</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>4859</v>
       </c>
       <c r="B5" t="str">
-        <v>251985_1</v>
+        <v>TEST17</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-07-25 04:39:22</v>
+        <v>2025-09-10 17:24:02</v>
       </c>
       <c r="D5" t="str">
-        <v>Germany Home Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Arsenal Home Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E5" t="str">
-        <v>NAT-GER-HM-24/25-FV-XXL</v>
+        <v>CLU-ARS-HM-24/25-FV-XXL</v>
       </c>
       <c r="F5">
-        <v>999</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>899</v>
+        <v>150</v>
       </c>
       <c r="H5" t="str">
         <v>P</v>
       </c>
       <c r="I5">
-        <v>899</v>
+        <v>19.29</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>899</v>
+        <v>19.29</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <v>unclaimed</v>
+        <v>560037</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O5" t="str">
         <v/>
@@ -727,10 +775,10 @@
         <v/>
       </c>
       <c r="R5" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S5" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T5" t="str">
         <v/>
@@ -739,51 +787,63 @@
         <v/>
       </c>
       <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v>Mohit Dubey</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2024-home-jersey-red-white-front-view.png?v=1745638677</v>
+      </c>
+      <c r="Z5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4860</v>
       </c>
       <c r="B6" t="str">
-        <v>252017</v>
+        <v>TEST17</v>
       </c>
       <c r="C6" t="str">
-        <v>2025-07-25 01:55:36</v>
+        <v>2025-09-10 17:24:02</v>
       </c>
       <c r="D6" t="str">
-        <v>Real Madrid SE Gold Jersey 2023-24 Player Version - 2XL</v>
+        <v>Arsenal Home Jersey 2024-25 Fan Version - XL</v>
       </c>
       <c r="E6" t="str">
-        <v>CLU-RM-SEGB-23/24-PV-2XL</v>
+        <v>CLU-ARS-HM-24/25-FV-XL</v>
       </c>
       <c r="F6">
-        <v>1199</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>1099</v>
+        <v>150</v>
       </c>
       <c r="H6" t="str">
         <v>P</v>
       </c>
       <c r="I6">
-        <v>1099</v>
+        <v>23.57</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>1099</v>
+        <v>23.57</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <v>unclaimed</v>
+        <v>560037</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O6" t="str">
         <v/>
@@ -795,10 +855,10 @@
         <v/>
       </c>
       <c r="R6" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S6" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T6" t="str">
         <v/>
@@ -807,51 +867,63 @@
         <v/>
       </c>
       <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v>Mohit Dubey</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2024-home-jersey-red-white-front-view.png?v=1745638677</v>
+      </c>
+      <c r="Z6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>4861</v>
       </c>
       <c r="B7" t="str">
-        <v>252015</v>
+        <v>TEST17</v>
       </c>
       <c r="C7" t="str">
-        <v>2025-07-25 00:43:25</v>
+        <v>2025-09-10 17:24:02</v>
       </c>
       <c r="D7" t="str">
-        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - S</v>
+        <v>Barcelona X Travis Scott Special Edition SE 2025-26 Player Version - S</v>
       </c>
       <c r="E7" t="str">
-        <v>NAT-MEX-GCC-25/26-PV-S</v>
+        <v>CLU-BARC-SE-TS-25/26-PV-S</v>
       </c>
       <c r="F7">
-        <v>1299</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>1199</v>
+        <v>150</v>
       </c>
       <c r="H7" t="str">
         <v>P</v>
       </c>
       <c r="I7">
-        <v>1199</v>
+        <v>64.29</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>1199</v>
+        <v>64.29</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>unclaimed</v>
+        <v>560037</v>
       </c>
       <c r="N7" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O7" t="str">
         <v/>
@@ -863,10 +935,10 @@
         <v/>
       </c>
       <c r="R7" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S7" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T7" t="str">
         <v/>
@@ -875,51 +947,63 @@
         <v/>
       </c>
       <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v>Mohit Dubey</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/barcelona-travis-scott-2025-26-player-version-front-view.png?v=1749113512</v>
+      </c>
+      <c r="Z7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>4862</v>
       </c>
       <c r="B8" t="str">
-        <v>252014</v>
+        <v>TEST17</v>
       </c>
       <c r="C8" t="str">
-        <v>2025-07-24 21:05:36</v>
+        <v>2025-09-10 17:24:02</v>
       </c>
       <c r="D8" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - M</v>
+        <v>Arsenal Home Jersey 2024-25 Fan Version - L</v>
       </c>
       <c r="E8" t="str">
-        <v>CLU-RM-DRGPPL--FV-M</v>
+        <v>CLU-ARS-HM-24/25-FV-L</v>
       </c>
       <c r="F8">
-        <v>1199</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>2398</v>
+        <v>150</v>
       </c>
       <c r="H8" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I8">
-        <v>119.9</v>
+        <v>42.86</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>1199</v>
+        <v>42.86</v>
       </c>
       <c r="L8">
-        <v>1079.1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>unclaimed</v>
+        <v>560037</v>
       </c>
       <c r="N8" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O8" t="str">
         <v/>
@@ -931,10 +1015,10 @@
         <v/>
       </c>
       <c r="R8" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S8" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T8" t="str">
         <v/>
@@ -943,51 +1027,63 @@
         <v/>
       </c>
       <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v>Mohit Dubey</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2024-home-jersey-red-white-front-view.png?v=1745638677</v>
+      </c>
+      <c r="Z8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>4863</v>
       </c>
       <c r="B9" t="str">
-        <v>252014</v>
+        <v>252882</v>
       </c>
       <c r="C9" t="str">
-        <v>2025-07-24 21:05:36</v>
+        <v>2025-09-10 23:26:02</v>
       </c>
       <c r="D9" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
+        <v>INDIA Champions Trophy ODI Cricket Jersey - 2025 - S</v>
       </c>
       <c r="E9" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-M</v>
+        <v>IND-CTODI-25-PV-S</v>
       </c>
       <c r="F9">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G9">
-        <v>2398</v>
+        <v>1299</v>
       </c>
       <c r="H9" t="str">
         <v>C</v>
       </c>
       <c r="I9">
-        <v>119.9</v>
+        <v>129.9</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L9">
-        <v>1079.1</v>
+        <v>1169.1</v>
       </c>
       <c r="M9" t="str">
-        <v>unclaimed</v>
+        <v>452001</v>
       </c>
       <c r="N9" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O9" t="str">
         <v/>
@@ -999,10 +1095,10 @@
         <v/>
       </c>
       <c r="R9" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S9" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T9" t="str">
         <v/>
@@ -1011,51 +1107,63 @@
         <v/>
       </c>
       <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v>Vikas dhakad</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/india-odi-cricket-jersey-2025-front-view-2.jpg?v=1745990426</v>
+      </c>
+      <c r="Z9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>4864</v>
       </c>
       <c r="B10" t="str">
-        <v>252012</v>
+        <v>252881</v>
       </c>
       <c r="C10" t="str">
-        <v>2025-07-24 15:13:41</v>
+        <v>2025-09-10 23:00:47</v>
       </c>
       <c r="D10" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - XL</v>
+        <v>Bayern Munich Home Jersey 2024-25 Player Version - M</v>
       </c>
       <c r="E10" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-XL</v>
+        <v>CLU-BM-HM-24/25-PV-M</v>
       </c>
       <c r="F10">
         <v>1199</v>
       </c>
       <c r="G10">
-        <v>1199</v>
+        <v>2398</v>
       </c>
       <c r="H10" t="str">
         <v>C</v>
       </c>
       <c r="I10">
-        <v>119.9</v>
+        <v>115.1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>1199</v>
       </c>
       <c r="K10">
-        <v>1199</v>
+        <v>1151</v>
       </c>
       <c r="L10">
-        <v>1079.1</v>
+        <v>1035.9</v>
       </c>
       <c r="M10" t="str">
-        <v>unclaimed</v>
+        <v>391775</v>
       </c>
       <c r="N10" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O10" t="str">
         <v/>
@@ -1067,10 +1175,10 @@
         <v/>
       </c>
       <c r="R10" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S10" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T10" t="str">
         <v/>
@@ -1079,51 +1187,63 @@
         <v/>
       </c>
       <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v>Athul Atturan</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/bayern-munich-home-jersey-2024-red-jersey-front.png?v=1745615579</v>
+      </c>
+      <c r="Z10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>4865</v>
       </c>
       <c r="B11" t="str">
-        <v>251987_1</v>
+        <v>252881</v>
       </c>
       <c r="C11" t="str">
-        <v>2025-07-24 14:58:52</v>
+        <v>2025-09-10 23:00:47</v>
       </c>
       <c r="D11" t="str">
-        <v>Manchester United Full Sleeve Home Jersey 2024-25 Player Version - M</v>
+        <v>Mexico de Oro Black Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E11" t="str">
-        <v>CLU-MU-HMF-24/25-PV-M</v>
+        <v>NAT-MEX-deOro-25/26-PV-M</v>
       </c>
       <c r="F11">
-        <v>1212.34</v>
+        <v>1299</v>
       </c>
       <c r="G11">
-        <v>1212.34</v>
+        <v>2398</v>
       </c>
       <c r="H11" t="str">
         <v>C</v>
       </c>
       <c r="I11">
-        <v>121.23</v>
+        <v>124.7</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K11">
-        <v>1212.34</v>
+        <v>1247</v>
       </c>
       <c r="L11">
-        <v>1091.11</v>
+        <v>1122.3</v>
       </c>
       <c r="M11" t="str">
-        <v>unclaimed</v>
+        <v>391775</v>
       </c>
       <c r="N11" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O11" t="str">
         <v/>
@@ -1135,10 +1255,10 @@
         <v/>
       </c>
       <c r="R11" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S11" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T11" t="str">
         <v/>
@@ -1147,51 +1267,63 @@
         <v/>
       </c>
       <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v>Athul Atturan</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/mexico-de-oro-2025-26-black-jersey-front-view.png?v=1749112451</v>
+      </c>
+      <c r="Z11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>4866</v>
       </c>
       <c r="B12" t="str">
-        <v>251983_1</v>
+        <v>252880</v>
       </c>
       <c r="C12" t="str">
-        <v>2025-07-24 14:49:58</v>
+        <v>2025-09-10 21:45:10</v>
       </c>
       <c r="D12" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Barcelona X Travis Scott Special Edition SE 2025-26 Player Version - M</v>
       </c>
       <c r="E12" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-BARC-SE-TS-25/26-PV-M</v>
       </c>
       <c r="F12">
-        <v>1109.1</v>
+        <v>1399</v>
       </c>
       <c r="G12">
-        <v>1109.1</v>
+        <v>1399</v>
       </c>
       <c r="H12" t="str">
         <v>C</v>
       </c>
       <c r="I12">
-        <v>110.91</v>
+        <v>139.9</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1109.1</v>
+        <v>1399</v>
       </c>
       <c r="L12">
-        <v>998.19</v>
+        <v>1259.1</v>
       </c>
       <c r="M12" t="str">
-        <v>unclaimed</v>
+        <v>400610</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O12" t="str">
         <v/>
@@ -1203,10 +1335,10 @@
         <v/>
       </c>
       <c r="R12" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S12" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T12" t="str">
         <v/>
@@ -1215,51 +1347,63 @@
         <v/>
       </c>
       <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v>Arya Khandalkar</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/barcelona-travis-scott-2025-26-player-version-front-view.png?v=1749113512</v>
+      </c>
+      <c r="Z12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>4867</v>
       </c>
       <c r="B13" t="str">
-        <v>252011</v>
+        <v>252879</v>
       </c>
       <c r="C13" t="str">
-        <v>2025-07-24 14:49:19</v>
+        <v>2025-09-10 21:00:27</v>
       </c>
       <c r="D13" t="str">
-        <v>Bayern Munich Third Jersey 2024-25 Fan Version - XL</v>
+        <v>Chelsea Third Jersey 2024-25 Player Version - L</v>
       </c>
       <c r="E13" t="str">
-        <v>CLU-BM-TH-24/25-FV-XL</v>
+        <v>CLU-CHEL-TH-24/25-PV-L</v>
       </c>
       <c r="F13">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G13">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="H13" t="str">
         <v>C</v>
       </c>
       <c r="I13">
-        <v>99.9</v>
+        <v>119.9</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="L13">
-        <v>899.1</v>
+        <v>1079.1</v>
       </c>
       <c r="M13" t="str">
-        <v>unclaimed</v>
+        <v>132001</v>
       </c>
       <c r="N13" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O13" t="str">
         <v/>
@@ -1271,10 +1415,10 @@
         <v/>
       </c>
       <c r="R13" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S13" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T13" t="str">
         <v/>
@@ -1283,51 +1427,63 @@
         <v/>
       </c>
       <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v>Ujjwal .</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/chelsea-2024-third-jersey-player-version-front-view.png?v=1745635038</v>
+      </c>
+      <c r="Z13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>4868</v>
       </c>
       <c r="B14" t="str">
-        <v>252006</v>
+        <v>252878</v>
       </c>
       <c r="C14" t="str">
-        <v>2025-07-24 10:18:59</v>
+        <v>2025-09-10 20:13:48</v>
       </c>
       <c r="D14" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
+        <v>Manchester United Home Jersey 2024-25 Fan Version - XL</v>
       </c>
       <c r="E14" t="str">
-        <v>CLU-MU-TH-25/26-PV-M</v>
+        <v>CLU-MU-HM-24/25-FV-XL</v>
       </c>
       <c r="F14">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="G14">
-        <v>1299</v>
+        <v>899.1</v>
       </c>
       <c r="H14" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I14">
-        <v>129.9</v>
+        <v>899.1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1299</v>
+        <v>899.1</v>
       </c>
       <c r="L14">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="str">
-        <v>unclaimed</v>
+        <v>110023</v>
       </c>
       <c r="N14" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O14" t="str">
         <v/>
@@ -1339,10 +1495,10 @@
         <v/>
       </c>
       <c r="R14" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S14" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T14" t="str">
         <v/>
@@ -1351,51 +1507,63 @@
         <v/>
       </c>
       <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v>Vishal Korotania</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-2024-home-jersey-front-view-snapdragon.png?v=1745527551</v>
+      </c>
+      <c r="Z14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>4854</v>
       </c>
       <c r="B15" t="str">
-        <v>252004</v>
+        <v>252877</v>
       </c>
       <c r="C15" t="str">
-        <v>2025-07-24 07:32:44</v>
+        <v>2025-09-10 19:43:09</v>
       </c>
       <c r="D15" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Away Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E15" t="str">
-        <v>CLU-MU-TH-25/26-PV-XL</v>
+        <v>CLU-LP-AW-25/26-PV-2XL</v>
       </c>
       <c r="F15">
         <v>1299</v>
       </c>
       <c r="G15">
-        <v>1199</v>
+        <v>2298</v>
       </c>
       <c r="H15" t="str">
         <v>P</v>
       </c>
       <c r="I15">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K15">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <v>unclaimed</v>
+        <v>673003</v>
       </c>
       <c r="N15" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O15" t="str">
         <v/>
@@ -1407,10 +1575,10 @@
         <v/>
       </c>
       <c r="R15" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S15" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T15" t="str">
         <v/>
@@ -1419,51 +1587,63 @@
         <v/>
       </c>
       <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v>Sahir Ali</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-away-jersey-2025-26-cream-front-red-crest-sponsor.png?v=1756150536</v>
+      </c>
+      <c r="Z15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>4855</v>
       </c>
       <c r="B16" t="str">
-        <v>252002</v>
+        <v>252877</v>
       </c>
       <c r="C16" t="str">
-        <v>2025-07-24 03:03:08</v>
+        <v>2025-09-10 19:43:09</v>
       </c>
       <c r="D16" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - L</v>
+        <v>Kids Liverpool Home Kit 2025-26 - 28-30</v>
       </c>
       <c r="E16" t="str">
-        <v>CLU-MU-AW-24/25-FV-L</v>
+        <v>CLU-KLP-HM-25/26-28-30</v>
       </c>
       <c r="F16">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G16">
-        <v>999</v>
+        <v>2298</v>
       </c>
       <c r="H16" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I16">
-        <v>99.9</v>
+        <v>1103</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>1199</v>
       </c>
       <c r="K16">
-        <v>999</v>
+        <v>1103</v>
       </c>
       <c r="L16">
-        <v>899.1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="str">
-        <v>unclaimed</v>
+        <v>673003</v>
       </c>
       <c r="N16" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O16" t="str">
         <v/>
@@ -1475,10 +1655,10 @@
         <v/>
       </c>
       <c r="R16" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S16" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T16" t="str">
         <v/>
@@ -1487,51 +1667,63 @@
         <v/>
       </c>
       <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v>Sahir Ali</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/kids-liverpool-home-kit-2025-26-red-set-jersey-shorts.png?v=1757114858</v>
+      </c>
+      <c r="Z16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>4845</v>
       </c>
       <c r="B17" t="str">
-        <v>252001</v>
+        <v>252876</v>
       </c>
       <c r="C17" t="str">
-        <v>2025-07-24 02:59:53</v>
+        <v>2025-09-10 16:58:30</v>
       </c>
       <c r="D17" t="str">
-        <v>Bayern Munich 125th Anniversery Jersey Player Version - S</v>
+        <v>Pre Order Bayern Munich Third Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E17" t="str">
-        <v>CLU-BM-125ANN-24/25-PV-S</v>
+        <v>CLU-BM-TH-25/26-PV-S</v>
       </c>
       <c r="F17">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G17">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H17" t="str">
         <v>C</v>
       </c>
       <c r="I17">
-        <v>119.9</v>
+        <v>129.9</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L17">
-        <v>1079.1</v>
+        <v>1169.1</v>
       </c>
       <c r="M17" t="str">
-        <v>unclaimed</v>
+        <v>791109</v>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O17" t="str">
         <v/>
@@ -1543,10 +1735,10 @@
         <v/>
       </c>
       <c r="R17" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S17" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T17" t="str">
         <v/>
@@ -1555,51 +1747,63 @@
         <v/>
       </c>
       <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v>Ram Taku</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-bayern-munich-third-jersey-2025-26-front-straight-telekom-logo-trefoil-crest-allianz.png?v=1755551024</v>
+      </c>
+      <c r="Z17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>4835</v>
       </c>
       <c r="B18" t="str">
-        <v>252000</v>
+        <v>252875</v>
       </c>
       <c r="C18" t="str">
-        <v>2025-07-24 02:52:18</v>
+        <v>2025-09-10 15:46:32</v>
       </c>
       <c r="D18" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E18" t="str">
-        <v>CLU-MU-TH-25/26-PV-M</v>
+        <v>CLU-LP-FS-HM-25/26-PV-M</v>
       </c>
       <c r="F18">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G18">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="H18" t="str">
         <v>P</v>
       </c>
       <c r="I18">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <v>unclaimed</v>
+        <v>400069</v>
       </c>
       <c r="N18" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O18" t="str">
         <v/>
@@ -1611,10 +1815,10 @@
         <v/>
       </c>
       <c r="R18" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S18" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T18" t="str">
         <v/>
@@ -1623,51 +1827,63 @@
         <v/>
       </c>
       <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v>Anushree Joh</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>4839</v>
       </c>
       <c r="B19" t="str">
-        <v>251998</v>
+        <v>252874</v>
       </c>
       <c r="C19" t="str">
-        <v>2025-07-24 00:19:59</v>
+        <v>2025-09-10 15:33:45</v>
       </c>
       <c r="D19" t="str">
-        <v>Chelsea Home Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E19" t="str">
-        <v>CLU-CH-HM-25/26-PV-XL</v>
+        <v>CLU-LP-HM-25/26-PV-S</v>
       </c>
       <c r="F19">
         <v>1299</v>
       </c>
       <c r="G19">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H19" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I19">
-        <v>1199</v>
+        <v>129.9</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M19" t="str">
-        <v>unclaimed</v>
+        <v>700141</v>
       </c>
       <c r="N19" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -1679,10 +1895,10 @@
         <v/>
       </c>
       <c r="R19" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S19" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T19" t="str">
         <v/>
@@ -1691,51 +1907,63 @@
         <v/>
       </c>
       <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v>Atanu .</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/liverpool-2025-26-home-jersey-player-version-regular-view.png?v=1749113236</v>
+      </c>
+      <c r="Z19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>4842</v>
       </c>
       <c r="B20" t="str">
-        <v>251991</v>
+        <v>252872</v>
       </c>
       <c r="C20" t="str">
-        <v>2025-07-23 18:31:19</v>
+        <v>2025-09-10 14:33:01</v>
       </c>
       <c r="D20" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E20" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>CLU-LP-FS-HM-25/26-PV-2XL</v>
       </c>
       <c r="F20">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G20">
-        <v>1299</v>
+        <v>2598</v>
       </c>
       <c r="H20" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I20">
-        <v>129.9</v>
+        <v>1391.85</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>1499</v>
       </c>
       <c r="K20">
-        <v>1299</v>
+        <v>1391.85</v>
       </c>
       <c r="L20">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="str">
-        <v>unclaimed</v>
+        <v>700131</v>
       </c>
       <c r="N20" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O20" t="str">
         <v/>
@@ -1747,10 +1975,10 @@
         <v/>
       </c>
       <c r="R20" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S20" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T20" t="str">
         <v/>
@@ -1759,51 +1987,63 @@
         <v/>
       </c>
       <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v>Barnik De</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>4843</v>
       </c>
       <c r="B21" t="str">
-        <v>251989</v>
+        <v>252872</v>
       </c>
       <c r="C21" t="str">
-        <v>2025-07-23 17:05:49</v>
+        <v>2025-09-10 14:33:01</v>
       </c>
       <c r="D21" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E21" t="str">
-        <v>CLU-LP-HM-25/26-PV-XL</v>
+        <v>CLU-LP-HM-25/26-PV-2XL</v>
       </c>
       <c r="F21">
         <v>1299</v>
       </c>
       <c r="G21">
-        <v>1199</v>
+        <v>2598</v>
       </c>
       <c r="H21" t="str">
         <v>P</v>
       </c>
       <c r="I21">
-        <v>1199</v>
+        <v>1206.15</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K21">
-        <v>1199</v>
+        <v>1206.15</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <v>unclaimed</v>
+        <v>700131</v>
       </c>
       <c r="N21" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O21" t="str">
         <v/>
@@ -1815,10 +2055,10 @@
         <v/>
       </c>
       <c r="R21" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S21" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T21" t="str">
         <v/>
@@ -1827,24 +2067,36 @@
         <v/>
       </c>
       <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v>Barnik De</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/liverpool-2025-26-home-jersey-player-version-regular-view.png?v=1749113236</v>
+      </c>
+      <c r="Z21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>4844</v>
       </c>
       <c r="B22" t="str">
-        <v>251986</v>
+        <v>252871</v>
       </c>
       <c r="C22" t="str">
-        <v>2025-07-23 13:24:41</v>
+        <v>2025-09-10 14:15:30</v>
       </c>
       <c r="D22" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Real Madrid Home Jersey 2024-25 Fan Version - M</v>
       </c>
       <c r="E22" t="str">
-        <v>CLU-MU-AW-24/25-FV-XXL</v>
+        <v>CLU-RM-HM-24/25-FV-M</v>
       </c>
       <c r="F22">
         <v>999</v>
@@ -1868,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <v>unclaimed</v>
+        <v>797113</v>
       </c>
       <c r="N22" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O22" t="str">
         <v/>
@@ -1883,10 +2135,10 @@
         <v/>
       </c>
       <c r="R22" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S22" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T22" t="str">
         <v/>
@@ -1895,51 +2147,63 @@
         <v/>
       </c>
       <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v>Pongjei Konyak</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/real-madrid-jersey-fan-version-front-view.png?v=1745636256</v>
+      </c>
+      <c r="Z22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>4833</v>
       </c>
       <c r="B23" t="str">
-        <v>251950_2</v>
+        <v>252870</v>
       </c>
       <c r="C23" t="str">
-        <v>2025-07-23 12:07:15</v>
+        <v>2025-09-10 12:57:37</v>
       </c>
       <c r="D23" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - S</v>
+        <v>Retro Manchester United 2008 Full Sleeve Away Jersey - S</v>
       </c>
       <c r="E23" t="str">
-        <v>CLU-RM-DRGPPL--FV-S</v>
+        <v>RET-MU-AWF-08-PV-S</v>
       </c>
       <c r="F23">
-        <v>1199</v>
+        <v>2337.22</v>
       </c>
       <c r="G23">
-        <v>1099</v>
+        <v>2137.22</v>
       </c>
       <c r="H23" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I23">
-        <v>1099</v>
+        <v>213.72</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1099</v>
+        <v>2137.22</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1923.5</v>
       </c>
       <c r="M23" t="str">
-        <v>unclaimed</v>
+        <v>452001</v>
       </c>
       <c r="N23" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O23" t="str">
         <v/>
@@ -1951,10 +2215,10 @@
         <v/>
       </c>
       <c r="R23" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S23" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T23" t="str">
         <v/>
@@ -1963,51 +2227,63 @@
         <v/>
       </c>
       <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v>Manas Gupta</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/retro-manchester-united-jersey-2008-front-view-black.png?v=1745615115</v>
+      </c>
+      <c r="Z23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>482</v>
       </c>
       <c r="B24" t="str">
-        <v>251982</v>
+        <v>252869</v>
       </c>
       <c r="C24" t="str">
-        <v>2025-07-23 10:29:15</v>
+        <v>2025-09-10 12:27:01</v>
       </c>
       <c r="D24" t="str">
-        <v>Manchester United Third Jersey 2025-26 Player Version - M</v>
+        <v>Italy Away Jersey 2024-25 Fan Version - L</v>
       </c>
       <c r="E24" t="str">
-        <v>CLU-MU-TH-25/26-PV-M</v>
+        <v>NAT-ITY-AW-24/25-FV-L</v>
       </c>
       <c r="F24">
-        <v>1299</v>
+        <v>1168.2</v>
       </c>
       <c r="G24">
-        <v>1199</v>
+        <v>1068.2</v>
       </c>
       <c r="H24" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I24">
-        <v>1199</v>
+        <v>106.82</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1199</v>
+        <v>1068.2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>961.38</v>
       </c>
       <c r="M24" t="str">
-        <v>unclaimed</v>
+        <v>122015</v>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O24" t="str">
         <v/>
@@ -2019,10 +2295,10 @@
         <v/>
       </c>
       <c r="R24" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S24" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T24" t="str">
         <v/>
@@ -2033,22 +2309,34 @@
       <c r="V24" t="str">
         <v/>
       </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v>manju .</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/italy-away-jersey-2024-white-front-view.png?v=1745637627</v>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="str">
+        <v>483</v>
       </c>
       <c r="B25" t="str">
-        <v>251972</v>
+        <v>252868</v>
       </c>
       <c r="C25" t="str">
-        <v>2025-07-22 13:35:11</v>
+        <v>2025-09-10 12:26:48</v>
       </c>
       <c r="D25" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - XL</v>
+        <v>Brazil Christ THE REDEEMER Limited Edition Black 2025-26 Jersey Player Version - M</v>
       </c>
       <c r="E25" t="str">
-        <v>IND-TST-25-PV-XL</v>
+        <v>NAT-BRA-HM-CTRB-25/26-PV-M</v>
       </c>
       <c r="F25">
         <v>1299</v>
@@ -2072,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v>unclaimed</v>
+        <v>560080</v>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>claimed</v>
       </c>
       <c r="O25" t="str">
-        <v/>
+        <v>78115</v>
       </c>
       <c r="P25" t="str">
-        <v/>
+        <v>2025-09-10 07:20:18</v>
       </c>
       <c r="Q25" t="str">
-        <v/>
+        <v>78115</v>
       </c>
       <c r="R25" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 07:20:18</v>
       </c>
       <c r="S25" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T25" t="str">
         <v/>
@@ -2101,49 +2389,61 @@
       <c r="V25" t="str">
         <v/>
       </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v>Saif Naveen</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-brazil-christ-the-redeemer-jersey-front-full-design.png?v=1753003106</v>
+      </c>
+      <c r="Z25" t="str">
+        <v/>
+      </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="str">
+        <v>473</v>
       </c>
       <c r="B26" t="str">
-        <v>251968</v>
+        <v>252867</v>
       </c>
       <c r="C26" t="str">
-        <v>2025-07-22 10:31:56</v>
+        <v>2025-09-10 10:52:44</v>
       </c>
       <c r="D26" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Real Madrid Pre Match Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E26" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>CLU-RM-PM-25/26-PV-L</v>
       </c>
       <c r="F26">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G26">
-        <v>1099</v>
+        <v>2298</v>
       </c>
       <c r="H26" t="str">
         <v>P</v>
       </c>
       <c r="I26">
-        <v>1099</v>
+        <v>1195</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K26">
-        <v>1099</v>
+        <v>1195</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <v>unclaimed</v>
+        <v>600093</v>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O26" t="str">
         <v/>
@@ -2152,13 +2452,13 @@
         <v/>
       </c>
       <c r="Q26" t="str">
-        <v/>
+        <v>71884</v>
       </c>
       <c r="R26" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 06:48:15</v>
       </c>
       <c r="S26" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T26" t="str">
         <v/>
@@ -2169,49 +2469,61 @@
       <c r="V26" t="str">
         <v/>
       </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v>Sarat .</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-pre-match-jersey-2025-full-front-view.png?v=1753002904</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>19339</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="str">
+        <v>474</v>
       </c>
       <c r="B27" t="str">
-        <v>251965</v>
+        <v>252867</v>
       </c>
       <c r="C27" t="str">
-        <v>2025-07-22 02:28:12</v>
+        <v>2025-09-10 10:52:44</v>
       </c>
       <c r="D27" t="str">
-        <v>Real Madrid Pre Match Jersey 2025-26 Player Version - M</v>
+        <v>Manchester United CNY SE Solid 2024-25 Jersey Player Version - L</v>
       </c>
       <c r="E27" t="str">
-        <v>CLU-RM-PM-25/26-PV-M</v>
+        <v>CLU-MU-CNY-24/25-PV-L</v>
       </c>
       <c r="F27">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="G27">
-        <v>1299</v>
+        <v>2298</v>
       </c>
       <c r="H27" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I27">
-        <v>129.9</v>
+        <v>1103</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>1199</v>
       </c>
       <c r="K27">
-        <v>1299</v>
+        <v>1103</v>
       </c>
       <c r="L27">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="str">
-        <v>unclaimed</v>
+        <v>600093</v>
       </c>
       <c r="N27" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O27" t="str">
         <v/>
@@ -2220,13 +2532,13 @@
         <v/>
       </c>
       <c r="Q27" t="str">
-        <v/>
+        <v>71884</v>
       </c>
       <c r="R27" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 06:48:18</v>
       </c>
       <c r="S27" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T27" t="str">
         <v/>
@@ -2237,49 +2549,61 @@
       <c r="V27" t="str">
         <v/>
       </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v>Sarat .</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-cny-2024-jersey-front-view.png?v=1745989712</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>19339</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="str">
+        <v>476</v>
       </c>
       <c r="B28" t="str">
-        <v>251962</v>
+        <v>252866</v>
       </c>
       <c r="C28" t="str">
-        <v>2025-07-21 22:28:20</v>
+        <v>2025-09-10 10:45:19</v>
       </c>
       <c r="D28" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
+        <v>Real Madrid SE Gold Jersey 2023-24 Player Version - S</v>
       </c>
       <c r="E28" t="str">
-        <v>CLU-LP-HM-25/26-PV-S</v>
+        <v>CLU-RM-SEGB-23/24-PV-S</v>
       </c>
       <c r="F28">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="G28">
-        <v>2398</v>
+        <v>1099</v>
       </c>
       <c r="H28" t="str">
         <v>P</v>
       </c>
       <c r="I28">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <v>unclaimed</v>
+        <v>121007</v>
       </c>
       <c r="N28" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O28" t="str">
         <v/>
@@ -2288,13 +2612,13 @@
         <v/>
       </c>
       <c r="Q28" t="str">
-        <v/>
+        <v>67311</v>
       </c>
       <c r="R28" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 06:44:19</v>
       </c>
       <c r="S28" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T28" t="str">
         <v/>
@@ -2305,28 +2629,40 @@
       <c r="V28" t="str">
         <v/>
       </c>
+      <c r="W28" t="str">
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <v>Anha Arya</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/real-madrid-gold-jersey-2023-front-view.png?v=1745991011</v>
+      </c>
+      <c r="Z28" t="str">
+        <v/>
+      </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="str">
+        <v>477</v>
       </c>
       <c r="B29" t="str">
-        <v>251962</v>
+        <v>252865</v>
       </c>
       <c r="C29" t="str">
-        <v>2025-07-21 22:28:20</v>
+        <v>2025-09-10 10:13:48</v>
       </c>
       <c r="D29" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - S</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E29" t="str">
-        <v>IND-TST-25-PV-S</v>
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
       </c>
       <c r="F29">
         <v>1299</v>
       </c>
       <c r="G29">
-        <v>2398</v>
+        <v>1199</v>
       </c>
       <c r="H29" t="str">
         <v>P</v>
@@ -2344,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <v>unclaimed</v>
+        <v>796001</v>
       </c>
       <c r="N29" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -2356,13 +2692,13 @@
         <v/>
       </c>
       <c r="Q29" t="str">
-        <v/>
+        <v>67311</v>
       </c>
       <c r="R29" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 06:44:19</v>
       </c>
       <c r="S29" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T29" t="str">
         <v/>
@@ -2373,22 +2709,34 @@
       <c r="V29" t="str">
         <v/>
       </c>
+      <c r="W29" t="str">
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <v>Lalhruaizela .</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z29" t="str">
+        <v/>
+      </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="str">
+        <v>478</v>
       </c>
       <c r="B30" t="str">
-        <v>251959</v>
+        <v>252864</v>
       </c>
       <c r="C30" t="str">
-        <v>2025-07-21 20:54:10</v>
+        <v>2025-09-10 09:49:44</v>
       </c>
       <c r="D30" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - S</v>
+        <v>Liverpool Away Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E30" t="str">
-        <v>CLU-LP-HM-25/26-PV-S</v>
+        <v>CLU-LP-AW-25/26-PV-2XL</v>
       </c>
       <c r="F30">
         <v>1299</v>
@@ -2412,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <v>unclaimed</v>
+        <v>403806</v>
       </c>
       <c r="N30" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -2424,13 +2772,13 @@
         <v/>
       </c>
       <c r="Q30" t="str">
-        <v/>
+        <v>67311</v>
       </c>
       <c r="R30" t="str">
-        <v>not_cloned</v>
+        <v>2025-09-10 06:25:03</v>
       </c>
       <c r="S30" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T30" t="str">
         <v/>
@@ -2439,24 +2787,36 @@
         <v/>
       </c>
       <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <v>Selroy Cardoz</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-away-jersey-2025-26-cream-front-red-crest-sponsor.png?v=1756150536</v>
+      </c>
+      <c r="Z30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="B31" t="str">
-        <v>251952</v>
+        <v>252862</v>
       </c>
       <c r="C31" t="str">
-        <v>2025-07-21 08:02:32</v>
+        <v>2025-09-10 09:09:16</v>
       </c>
       <c r="D31" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>INDIA Test Cricket Jersey - 2025 - M</v>
       </c>
       <c r="E31" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>IND-TST-25-PV-M</v>
       </c>
       <c r="F31">
         <v>1299</v>
@@ -2480,10 +2840,10 @@
         <v>1169.1</v>
       </c>
       <c r="M31" t="str">
-        <v>unclaimed</v>
+        <v>248179</v>
       </c>
       <c r="N31" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -2495,10 +2855,10 @@
         <v/>
       </c>
       <c r="R31" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S31" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T31" t="str">
         <v/>
@@ -2507,51 +2867,63 @@
         <v/>
       </c>
       <c r="V31" t="str">
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <v>Nishtha Kumar</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/india-test-cricket-jersey-2025-hanging-view.png?v=1745988706</v>
+      </c>
+      <c r="Z31" t="str">
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="B32" t="str">
-        <v>251947</v>
+        <v>252859</v>
       </c>
       <c r="C32" t="str">
-        <v>2025-07-20 21:54:21</v>
+        <v>2025-09-09 22:00:15</v>
       </c>
       <c r="D32" t="str">
-        <v>Real Madrid Third Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Arsenal Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E32" t="str">
-        <v>CLU-RM-TH-24/25-FV-XXL</v>
+        <v>CLU-ARS-TH-25/26-PV-2XL</v>
       </c>
       <c r="F32">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G32">
-        <v>1798</v>
+        <v>1199</v>
       </c>
       <c r="H32" t="str">
         <v>P</v>
       </c>
       <c r="I32">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <v>unclaimed</v>
+        <v>560103</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -2563,10 +2935,10 @@
         <v/>
       </c>
       <c r="R32" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S32" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T32" t="str">
         <v/>
@@ -2575,51 +2947,63 @@
         <v/>
       </c>
       <c r="V32" t="str">
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <v>Jeevan .</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2025-26-third-jersey-front-emirates-logo.png?v=1752534817</v>
+      </c>
+      <c r="Z32" t="str">
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="B33" t="str">
-        <v>251947</v>
+        <v>252858</v>
       </c>
       <c r="C33" t="str">
-        <v>2025-07-20 21:54:21</v>
+        <v>2025-09-09 21:13:34</v>
       </c>
       <c r="D33" t="str">
-        <v>Real Madrid SE Gold Jersey 2023-24 Fan Version - 2XL</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E33" t="str">
-        <v>CLU-RM-SEGB-23/24-FV-2XL</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F33">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G33">
-        <v>1798</v>
+        <v>1199</v>
       </c>
       <c r="H33" t="str">
         <v>P</v>
       </c>
       <c r="I33">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <v>unclaimed</v>
+        <v>342005</v>
       </c>
       <c r="N33" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O33" t="str">
         <v/>
@@ -2631,10 +3015,10 @@
         <v/>
       </c>
       <c r="R33" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S33" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T33" t="str">
         <v/>
@@ -2643,24 +3027,36 @@
         <v/>
       </c>
       <c r="V33" t="str">
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <v>Karan .</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="B34" t="str">
-        <v>251944</v>
+        <v>252857</v>
       </c>
       <c r="C34" t="str">
-        <v>2025-07-20 17:40:05</v>
+        <v>2025-09-09 20:39:50</v>
       </c>
       <c r="D34" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E34" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
       </c>
       <c r="F34">
         <v>1299</v>
@@ -2684,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <v>unclaimed</v>
+        <v>700047</v>
       </c>
       <c r="N34" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -2699,10 +3095,10 @@
         <v/>
       </c>
       <c r="R34" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S34" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T34" t="str">
         <v/>
@@ -2711,51 +3107,63 @@
         <v/>
       </c>
       <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <v>Kabir .</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z34" t="str">
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B35" t="str">
-        <v>251924_1</v>
+        <v>252856</v>
       </c>
       <c r="C35" t="str">
-        <v>2025-07-20 15:03:08</v>
+        <v>2025-09-09 18:52:46</v>
       </c>
       <c r="D35" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Manchester City Away Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E35" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>CLU-MC-AWW-25/26-PV-L</v>
       </c>
       <c r="F35">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G35">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="H35" t="str">
         <v>P</v>
       </c>
       <c r="I35">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" t="str">
-        <v>unclaimed</v>
+        <v>110089</v>
       </c>
       <c r="N35" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O35" t="str">
         <v/>
@@ -2767,10 +3175,10 @@
         <v/>
       </c>
       <c r="R35" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S35" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T35" t="str">
         <v/>
@@ -2779,36 +3187,48 @@
         <v/>
       </c>
       <c r="V35" t="str">
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <v>sadhik .</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-manchester-city-away-jersey-2025-front-view-black-white-accents.png?v=1753951530</v>
+      </c>
+      <c r="Z35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="B36" t="str">
-        <v>251935</v>
+        <v>252854</v>
       </c>
       <c r="C36" t="str">
-        <v>2025-07-20 06:41:45</v>
+        <v>2025-09-09 16:39:25</v>
       </c>
       <c r="D36" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
+        <v>Tottenham Hotspur Home Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E36" t="str">
-        <v>CLU-RM-DRGPPL--FV-XXL</v>
+        <v>CLU-THP-HM-25/26-PV-2XL</v>
       </c>
       <c r="F36">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G36">
         <v>1199</v>
       </c>
       <c r="H36" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I36">
-        <v>119.9</v>
+        <v>1199</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2817,13 +3237,13 @@
         <v>1199</v>
       </c>
       <c r="L36">
-        <v>1079.1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="str">
-        <v>unclaimed</v>
+        <v>500075</v>
       </c>
       <c r="N36" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -2835,10 +3255,10 @@
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S36" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T36" t="str">
         <v/>
@@ -2847,51 +3267,63 @@
         <v/>
       </c>
       <c r="V36" t="str">
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <v>Wangchuk .</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-tottenham-hotspur-2025-home-jersey-front-aia-sponsor-white-navy.png?v=1755551422</v>
+      </c>
+      <c r="Z36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="B37" t="str">
-        <v>251934</v>
+        <v>252853</v>
       </c>
       <c r="C37" t="str">
-        <v>2025-07-19 23:16:17</v>
+        <v>2025-09-09 16:26:52</v>
       </c>
       <c r="D37" t="str">
-        <v>Spain Home Jersey 2024-25 Player Version - L</v>
+        <v>Manchester City Away Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E37" t="str">
-        <v>NAT-SPN-HM-24/25-PV-L</v>
+        <v>CLU-MC-AWW-25/26-PV-S</v>
       </c>
       <c r="F37">
-        <v>1248.49</v>
+        <v>1299</v>
       </c>
       <c r="G37">
-        <v>2493.24</v>
+        <v>1299</v>
       </c>
       <c r="H37" t="str">
         <v>C</v>
       </c>
       <c r="I37">
-        <v>124.85</v>
+        <v>129.9</v>
       </c>
       <c r="J37">
-        <v>124849</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1248.49</v>
+        <v>1299</v>
       </c>
       <c r="L37">
-        <v>1123.64</v>
+        <v>1169.1</v>
       </c>
       <c r="M37" t="str">
-        <v>unclaimed</v>
+        <v>560047</v>
       </c>
       <c r="N37" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O37" t="str">
         <v/>
@@ -2903,10 +3335,10 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S37" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T37" t="str">
         <v/>
@@ -2915,51 +3347,63 @@
         <v/>
       </c>
       <c r="V37" t="str">
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <v>shivansh tripathi</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-manchester-city-away-jersey-2025-front-view-black-white-accents.png?v=1753951530</v>
+      </c>
+      <c r="Z37" t="str">
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="B38" t="str">
-        <v>251934</v>
+        <v>252852</v>
       </c>
       <c r="C38" t="str">
-        <v>2025-07-19 23:16:17</v>
+        <v>2025-09-09 16:08:54</v>
       </c>
       <c r="D38" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E38" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
       </c>
       <c r="F38">
-        <v>1244.75</v>
+        <v>1499</v>
       </c>
       <c r="G38">
-        <v>2493.24</v>
+        <v>1399</v>
       </c>
       <c r="H38" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I38">
-        <v>124.47</v>
+        <v>1399</v>
       </c>
       <c r="J38">
-        <v>124475</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1244.75</v>
+        <v>1399</v>
       </c>
       <c r="L38">
-        <v>1120.28</v>
+        <v>0</v>
       </c>
       <c r="M38" t="str">
-        <v>unclaimed</v>
+        <v>794002</v>
       </c>
       <c r="N38" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O38" t="str">
         <v/>
@@ -2971,10 +3415,10 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S38" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T38" t="str">
         <v/>
@@ -2983,51 +3427,63 @@
         <v/>
       </c>
       <c r="V38" t="str">
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <v>ADAM MOMIN</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z38" t="str">
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="B39" t="str">
-        <v>251921</v>
+        <v>252851</v>
       </c>
       <c r="C39" t="str">
-        <v>2025-07-19 08:18:52</v>
+        <v>2025-09-09 15:22:51</v>
       </c>
       <c r="D39" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - XL</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E39" t="str">
-        <v>CLU-LP-HM-25/26-PV-XL</v>
+        <v>CLU-LP-FS-HM-25/26-PV-L</v>
       </c>
       <c r="F39">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G39">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="H39" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I39">
-        <v>1199</v>
+        <v>149.9</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M39" t="str">
-        <v>unclaimed</v>
+        <v>440015</v>
       </c>
       <c r="N39" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O39" t="str">
         <v/>
@@ -3039,10 +3495,10 @@
         <v/>
       </c>
       <c r="R39" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S39" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T39" t="str">
         <v/>
@@ -3051,24 +3507,36 @@
         <v/>
       </c>
       <c r="V39" t="str">
+        <v/>
+      </c>
+      <c r="W39" t="str">
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <v>Syamantak Dey</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z39" t="str">
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="B40" t="str">
-        <v>251916</v>
+        <v>252850</v>
       </c>
       <c r="C40" t="str">
-        <v>2025-07-18 15:33:09</v>
+        <v>2025-09-09 14:00:53</v>
       </c>
       <c r="D40" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E40" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
       </c>
       <c r="F40">
         <v>1299</v>
@@ -3092,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <v>unclaimed</v>
+        <v>201303</v>
       </c>
       <c r="N40" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O40" t="str">
         <v/>
@@ -3107,10 +3575,10 @@
         <v/>
       </c>
       <c r="R40" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S40" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T40" t="str">
         <v/>
@@ -3119,51 +3587,63 @@
         <v/>
       </c>
       <c r="V40" t="str">
+        <v/>
+      </c>
+      <c r="W40" t="str">
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <v>Anirudh .</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="B41" t="str">
-        <v>251913</v>
+        <v>252849</v>
       </c>
       <c r="C41" t="str">
-        <v>2025-07-18 08:32:22</v>
+        <v>2025-09-09 13:08:56</v>
       </c>
       <c r="D41" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Mexico Gold Cup Concept Green Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E41" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>NAT-MEX-GCC-25/26-PV-M</v>
       </c>
       <c r="F41">
         <v>1299</v>
       </c>
       <c r="G41">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H41" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I41">
-        <v>1199</v>
+        <v>129.9</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M41" t="str">
-        <v>unclaimed</v>
+        <v>396150</v>
       </c>
       <c r="N41" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -3175,10 +3655,10 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S41" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T41" t="str">
         <v/>
@@ -3187,51 +3667,63 @@
         <v/>
       </c>
       <c r="V41" t="str">
+        <v/>
+      </c>
+      <c r="W41" t="str">
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <v>Aman .</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/mexico-gold-cup-concept-green-jersey-2025-26-player.png?v=1749112568</v>
+      </c>
+      <c r="Z41" t="str">
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="B42" t="str">
-        <v>251911</v>
+        <v>252847</v>
       </c>
       <c r="C42" t="str">
-        <v>2025-07-18 08:03:29</v>
+        <v>2025-09-09 12:16:04</v>
       </c>
       <c r="D42" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E42" t="str">
-        <v>CLU-MU-AW-24/25-FV-XXL</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F42">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G42">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="H42" t="str">
         <v>P</v>
       </c>
       <c r="I42">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <v>unclaimed</v>
+        <v>721145</v>
       </c>
       <c r="N42" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -3243,10 +3735,10 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S42" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T42" t="str">
         <v/>
@@ -3255,51 +3747,63 @@
         <v/>
       </c>
       <c r="V42" t="str">
+        <v/>
+      </c>
+      <c r="W42" t="str">
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <v>Anil Gurung</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z42" t="str">
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="B43" t="str">
-        <v>251908</v>
+        <v>252846</v>
       </c>
       <c r="C43" t="str">
-        <v>2025-07-18 00:15:30</v>
+        <v>2025-09-09 12:06:15</v>
       </c>
       <c r="D43" t="str">
-        <v>Manchester United Away Jersey 2024-25 Fan Version - XL</v>
+        <v>Real Madrid US Pack Shirt Special Edition 2025-26 - M</v>
       </c>
       <c r="E43" t="str">
-        <v>CLU-MU-AW-24/25-FV-XL</v>
+        <v>CLU-RMUS-PS-25/26-PV-M</v>
       </c>
       <c r="F43">
-        <v>999</v>
+        <v>1599</v>
       </c>
       <c r="G43">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="H43" t="str">
         <v>P</v>
       </c>
       <c r="I43">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <v>unclaimed</v>
+        <v>201305</v>
       </c>
       <c r="N43" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -3311,10 +3815,10 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S43" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T43" t="str">
         <v/>
@@ -3323,51 +3827,63 @@
         <v/>
       </c>
       <c r="V43" t="str">
+        <v/>
+      </c>
+      <c r="W43" t="str">
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <v>Sachin Malik</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-special-edition-jersey-2025-26-white-pinstripe-front-full-view.png?v=1756759809</v>
+      </c>
+      <c r="Z43" t="str">
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="B44" t="str">
-        <v>251892</v>
+        <v>252845</v>
       </c>
       <c r="C44" t="str">
-        <v>2025-07-16 23:49:41</v>
+        <v>2025-09-09 11:28:34</v>
       </c>
       <c r="D44" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Liverpool Home Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E44" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-LP-HM-25/26-PV-2XL</v>
       </c>
       <c r="F44">
         <v>1299</v>
       </c>
       <c r="G44">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="H44" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I44">
-        <v>129.9</v>
+        <v>1199</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="L44">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="str">
-        <v>unclaimed</v>
+        <v>201301</v>
       </c>
       <c r="N44" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O44" t="str">
         <v/>
@@ -3379,10 +3895,10 @@
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S44" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T44" t="str">
         <v/>
@@ -3391,51 +3907,63 @@
         <v/>
       </c>
       <c r="V44" t="str">
+        <v/>
+      </c>
+      <c r="W44" t="str">
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <v>Aradhya Jain</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/liverpool-2025-26-home-jersey-player-version-regular-view.png?v=1749113236</v>
+      </c>
+      <c r="Z44" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="B45" t="str">
-        <v>251891</v>
+        <v>252844</v>
       </c>
       <c r="C45" t="str">
-        <v>2025-07-16 21:56:23</v>
+        <v>2025-09-09 10:47:06</v>
       </c>
       <c r="D45" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E45" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F45">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G45">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="H45" t="str">
         <v>P</v>
       </c>
       <c r="I45">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <v>unclaimed</v>
+        <v>560048</v>
       </c>
       <c r="N45" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -3447,10 +3975,10 @@
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S45" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T45" t="str">
         <v/>
@@ -3459,51 +3987,63 @@
         <v/>
       </c>
       <c r="V45" t="str">
+        <v/>
+      </c>
+      <c r="W45" t="str">
+        <v/>
+      </c>
+      <c r="X45" t="str">
+        <v>Himnish Pritmani</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z45" t="str">
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="B46" t="str">
-        <v>251889</v>
+        <v>252843</v>
       </c>
       <c r="C46" t="str">
-        <v>2025-07-16 19:23:46</v>
+        <v>2025-09-09 10:45:51</v>
       </c>
       <c r="D46" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - M</v>
+        <v>Manchester United Away Jersey 2024-25 Fan Version - 2XL</v>
       </c>
       <c r="E46" t="str">
-        <v>CLU-LP-HM-25/26-PV-M</v>
+        <v>CLU-MU-AW-24/25-FV-XXL</v>
       </c>
       <c r="F46">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="G46">
-        <v>1199</v>
+        <v>899</v>
       </c>
       <c r="H46" t="str">
         <v>P</v>
       </c>
       <c r="I46">
-        <v>1199</v>
+        <v>899</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1199</v>
+        <v>899</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <v>unclaimed</v>
+        <v>560093</v>
       </c>
       <c r="N46" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O46" t="str">
         <v/>
@@ -3515,10 +4055,10 @@
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S46" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T46" t="str">
         <v/>
@@ -3527,51 +4067,63 @@
         <v/>
       </c>
       <c r="V46" t="str">
+        <v/>
+      </c>
+      <c r="W46" t="str">
+        <v/>
+      </c>
+      <c r="X46" t="str">
+        <v>Nitin .</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-away-jersey-2024-front-view.png?v=1745638750</v>
+      </c>
+      <c r="Z46" t="str">
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="B47" t="str">
-        <v>251882</v>
+        <v>252842</v>
       </c>
       <c r="C47" t="str">
-        <v>2025-07-16 10:32:15</v>
+        <v>2025-09-09 09:57:45</v>
       </c>
       <c r="D47" t="str">
-        <v>Japan X Dragon Ball Z Special Anime 2024-25 Player Version - M</v>
+        <v>Manchester United Full Sleeve Home Jersey 2024-25 Player Version - XL</v>
       </c>
       <c r="E47" t="str">
-        <v>NAT-JPN-DBZSP-24/25-PV-M</v>
+        <v>CLU-MU-HMF-24/25-PV-XL</v>
       </c>
       <c r="F47">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="G47">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="H47" t="str">
         <v>C</v>
       </c>
       <c r="I47">
-        <v>119.9</v>
+        <v>139.9</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="L47">
-        <v>1079.1</v>
+        <v>1259.1</v>
       </c>
       <c r="M47" t="str">
-        <v>unclaimed</v>
+        <v>411046</v>
       </c>
       <c r="N47" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O47" t="str">
         <v/>
@@ -3583,10 +4135,10 @@
         <v/>
       </c>
       <c r="R47" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S47" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T47" t="str">
         <v/>
@@ -3595,51 +4147,63 @@
         <v/>
       </c>
       <c r="V47" t="str">
+        <v/>
+      </c>
+      <c r="W47" t="str">
+        <v/>
+      </c>
+      <c r="X47" t="str">
+        <v>Harshita Tripathi</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-2024-jersey-red-adidas-long-sleeve-front-view.png?v=1745988607</v>
+      </c>
+      <c r="Z47" t="str">
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>363</v>
       </c>
       <c r="B48" t="str">
-        <v>251880</v>
+        <v>252841</v>
       </c>
       <c r="C48" t="str">
-        <v>2025-07-16 07:07:50</v>
+        <v>2025-09-09 08:46:42</v>
       </c>
       <c r="D48" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E48" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
       </c>
       <c r="F48">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="G48">
-        <v>1099</v>
+        <v>1349</v>
       </c>
       <c r="H48" t="str">
         <v>P</v>
       </c>
       <c r="I48">
-        <v>1099</v>
+        <v>1349</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1099</v>
+        <v>1349</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <v>unclaimed</v>
+        <v>600096</v>
       </c>
       <c r="N48" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O48" t="str">
         <v/>
@@ -3651,10 +4215,10 @@
         <v/>
       </c>
       <c r="R48" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S48" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T48" t="str">
         <v/>
@@ -3663,51 +4227,63 @@
         <v/>
       </c>
       <c r="V48" t="str">
+        <v/>
+      </c>
+      <c r="W48" t="str">
+        <v/>
+      </c>
+      <c r="X48" t="str">
+        <v>Gokul .</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z48" t="str">
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>364</v>
       </c>
       <c r="B49" t="str">
-        <v>251877</v>
+        <v>252840</v>
       </c>
       <c r="C49" t="str">
-        <v>2025-07-15 23:30:10</v>
+        <v>2025-09-09 07:39:09</v>
       </c>
       <c r="D49" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E49" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-M</v>
       </c>
       <c r="F49">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G49">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="H49" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I49">
-        <v>1199</v>
+        <v>149.9</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M49" t="str">
-        <v>unclaimed</v>
+        <v>793003</v>
       </c>
       <c r="N49" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O49" t="str">
         <v/>
@@ -3719,10 +4295,10 @@
         <v/>
       </c>
       <c r="R49" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S49" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T49" t="str">
         <v/>
@@ -3731,36 +4307,48 @@
         <v/>
       </c>
       <c r="V49" t="str">
+        <v/>
+      </c>
+      <c r="W49" t="str">
+        <v/>
+      </c>
+      <c r="X49" t="str">
+        <v>Ador Thangkhiew</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z49" t="str">
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="B50" t="str">
-        <v>251871</v>
+        <v>252839</v>
       </c>
       <c r="C50" t="str">
-        <v>2025-07-15 17:06:43</v>
+        <v>2025-09-09 07:20:38</v>
       </c>
       <c r="D50" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>Manchester United Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E50" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>CLU-MU-TH-25/26-PV-L</v>
       </c>
       <c r="F50">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G50">
         <v>1199</v>
       </c>
       <c r="H50" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I50">
-        <v>119.9</v>
+        <v>1199</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3769,13 +4357,13 @@
         <v>1199</v>
       </c>
       <c r="L50">
-        <v>1079.1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="str">
-        <v>unclaimed</v>
+        <v>680518</v>
       </c>
       <c r="N50" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O50" t="str">
         <v/>
@@ -3787,10 +4375,10 @@
         <v/>
       </c>
       <c r="R50" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S50" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T50" t="str">
         <v/>
@@ -3799,51 +4387,63 @@
         <v/>
       </c>
       <c r="V50" t="str">
+        <v/>
+      </c>
+      <c r="W50" t="str">
+        <v/>
+      </c>
+      <c r="X50" t="str">
+        <v>Mohammed Shahfas</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-manchester-united-2025-26-third-jersey-front-full-snapdragon-trefoil-badge.png?v=1756511351</v>
+      </c>
+      <c r="Z50" t="str">
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="B51" t="str">
-        <v>251869</v>
+        <v>252696_14</v>
       </c>
       <c r="C51" t="str">
-        <v>2025-07-15 13:57:22</v>
+        <v>2025-09-09 03:36:09</v>
       </c>
       <c r="D51" t="str">
-        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - XL</v>
+        <v>Arsenal Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E51" t="str">
-        <v>india-test-cricket-jersey-full-sleeves-2025-xl</v>
+        <v>CLU-ARS-TH-25/26-PV-XL</v>
       </c>
       <c r="F51">
-        <v>1499</v>
+        <v>1473.9</v>
       </c>
       <c r="G51">
-        <v>1499</v>
+        <v>1124.1</v>
       </c>
       <c r="H51" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I51">
-        <v>149.9</v>
+        <v>1124.1</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>1499</v>
+        <v>1124.1</v>
       </c>
       <c r="L51">
-        <v>1349.1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="str">
-        <v>unclaimed</v>
+        <v>201301</v>
       </c>
       <c r="N51" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -3855,10 +4455,10 @@
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S51" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T51" t="str">
         <v/>
@@ -3867,51 +4467,63 @@
         <v/>
       </c>
       <c r="V51" t="str">
+        <v/>
+      </c>
+      <c r="W51" t="str">
+        <v/>
+      </c>
+      <c r="X51" t="str">
+        <v>Arjun Rawal</v>
+      </c>
+      <c r="Y51" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2025-26-third-jersey-front-emirates-logo.png?v=1752534817</v>
+      </c>
+      <c r="Z51" t="str">
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>366</v>
       </c>
       <c r="B52" t="str">
-        <v>251865</v>
+        <v>252837</v>
       </c>
       <c r="C52" t="str">
-        <v>2025-07-15 06:03:42</v>
+        <v>2025-09-09 01:09:36</v>
       </c>
       <c r="D52" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E52" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-M</v>
       </c>
       <c r="F52">
         <v>1299</v>
       </c>
       <c r="G52">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H52" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I52">
-        <v>1199</v>
+        <v>129.9</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M52" t="str">
-        <v>unclaimed</v>
+        <v>110058</v>
       </c>
       <c r="N52" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -3923,10 +4535,10 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S52" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T52" t="str">
         <v/>
@@ -3935,51 +4547,63 @@
         <v/>
       </c>
       <c r="V52" t="str">
+        <v/>
+      </c>
+      <c r="W52" t="str">
+        <v/>
+      </c>
+      <c r="X52" t="str">
+        <v>Devansh Madan</v>
+      </c>
+      <c r="Y52" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z52" t="str">
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="B53" t="str">
-        <v>251854</v>
+        <v>252836</v>
       </c>
       <c r="C53" t="str">
-        <v>2025-07-14 10:21:25</v>
+        <v>2025-09-09 00:45:50</v>
       </c>
       <c r="D53" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E53" t="str">
-        <v>IND-TST-25-PV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F53">
-        <v>1299</v>
+        <v>1473.9</v>
       </c>
       <c r="G53">
-        <v>1199</v>
+        <v>1373.9</v>
       </c>
       <c r="H53" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I53">
-        <v>1199</v>
+        <v>137.39</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>1199</v>
+        <v>1373.9</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1236.51</v>
       </c>
       <c r="M53" t="str">
-        <v>unclaimed</v>
+        <v>400104</v>
       </c>
       <c r="N53" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -3991,10 +4615,10 @@
         <v/>
       </c>
       <c r="R53" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S53" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T53" t="str">
         <v/>
@@ -4003,51 +4627,63 @@
         <v/>
       </c>
       <c r="V53" t="str">
+        <v/>
+      </c>
+      <c r="W53" t="str">
+        <v/>
+      </c>
+      <c r="X53" t="str">
+        <v>Karan Khilnani</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z53" t="str">
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>368</v>
       </c>
       <c r="B54" t="str">
-        <v>251853</v>
+        <v>252835</v>
       </c>
       <c r="C54" t="str">
-        <v>2025-07-14 07:42:58</v>
+        <v>2025-09-08 23:59:34</v>
       </c>
       <c r="D54" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Pre Order Bayern Munich Third Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E54" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-BM-TH-25/26-PV-S</v>
       </c>
       <c r="F54">
         <v>1299</v>
       </c>
       <c r="G54">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="H54" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I54">
-        <v>1349</v>
+        <v>129.9</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M54" t="str">
-        <v>unclaimed</v>
+        <v>201012</v>
       </c>
       <c r="N54" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O54" t="str">
         <v/>
@@ -4059,10 +4695,10 @@
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S54" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T54" t="str">
         <v/>
@@ -4071,51 +4707,63 @@
         <v/>
       </c>
       <c r="V54" t="str">
+        <v/>
+      </c>
+      <c r="W54" t="str">
+        <v/>
+      </c>
+      <c r="X54" t="str">
+        <v>raghav ragi</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-bayern-munich-third-jersey-2025-26-front-straight-telekom-logo-trefoil-crest-allianz.png?v=1755551024</v>
+      </c>
+      <c r="Z54" t="str">
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>370</v>
       </c>
       <c r="B55" t="str">
-        <v>251848</v>
+        <v>252830</v>
       </c>
       <c r="C55" t="str">
-        <v>2025-07-13 22:03:23</v>
+        <v>2025-09-08 19:46:14</v>
       </c>
       <c r="D55" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+        <v>Manchester United Third Full Sleeves Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E55" t="str">
-        <v>IND-TST-25-PV-2XL</v>
+        <v>CLU-MU-THFS-25/26-PV-2XL</v>
       </c>
       <c r="F55">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G55">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="H55" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I55">
-        <v>129.9</v>
+        <v>1199</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="L55">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="str">
-        <v>unclaimed</v>
+        <v>711108</v>
       </c>
       <c r="N55" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -4127,10 +4775,10 @@
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S55" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T55" t="str">
         <v/>
@@ -4139,51 +4787,63 @@
         <v/>
       </c>
       <c r="V55" t="str">
+        <v/>
+      </c>
+      <c r="W55" t="str">
+        <v/>
+      </c>
+      <c r="X55" t="str">
+        <v>Arijit Roy</v>
+      </c>
+      <c r="Y55" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-united-third-jersey-2025-26-black-front-view.png?v=1757017426</v>
+      </c>
+      <c r="Z55" t="str">
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="B56" t="str">
-        <v>251840</v>
+        <v>252829</v>
       </c>
       <c r="C56" t="str">
-        <v>2025-07-13 09:20:24</v>
+        <v>2025-09-08 18:53:44</v>
       </c>
       <c r="D56" t="str">
-        <v>INDIA Test Cricket Jersey Full Sleeves - 2025 - S</v>
+        <v>Ac Milan Away Jersey 2024-25 Fan Version - M</v>
       </c>
       <c r="E56" t="str">
-        <v>india-test-cricket-jersey-full-sleeves-2025-s</v>
+        <v>CLU-ACM-AW-24/25-FV-M</v>
       </c>
       <c r="F56">
-        <v>1499</v>
+        <v>999</v>
       </c>
       <c r="G56">
-        <v>1499</v>
+        <v>899.1</v>
       </c>
       <c r="H56" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I56">
-        <v>149.9</v>
+        <v>899.1</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>1499</v>
+        <v>899.1</v>
       </c>
       <c r="L56">
-        <v>1349.1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="str">
-        <v>unclaimed</v>
+        <v>171207</v>
       </c>
       <c r="N56" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -4195,10 +4855,10 @@
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S56" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T56" t="str">
         <v/>
@@ -4207,51 +4867,63 @@
         <v/>
       </c>
       <c r="V56" t="str">
+        <v/>
+      </c>
+      <c r="W56" t="str">
+        <v/>
+      </c>
+      <c r="X56" t="str">
+        <v>Jamta Jamta</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/ac-milan-away-jersey-2024-front-view-with-logo.png?v=1745612032</v>
+      </c>
+      <c r="Z56" t="str">
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="B57" t="str">
-        <v>251834</v>
+        <v>252828</v>
       </c>
       <c r="C57" t="str">
-        <v>2025-07-12 19:34:04</v>
+        <v>2025-09-08 18:24:55</v>
       </c>
       <c r="D57" t="str">
-        <v>Japan Dragon Ball Z Goku Super Saiyan Jersey Fan Version - 2XL</v>
+        <v>Spain Home Jersey 2024-25 Player Version - S</v>
       </c>
       <c r="E57" t="str">
-        <v>NAT-JPN-DBZ-GOK-24/25-FV-2XL</v>
+        <v>NAT-SPN-HM-24/25-PV-S</v>
       </c>
       <c r="F57">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G57">
-        <v>899</v>
+        <v>2298</v>
       </c>
       <c r="H57" t="str">
         <v>P</v>
       </c>
       <c r="I57">
-        <v>899</v>
+        <v>1103</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>1199</v>
       </c>
       <c r="K57">
-        <v>899</v>
+        <v>1103</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <v>unclaimed</v>
+        <v>492001</v>
       </c>
       <c r="N57" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -4263,10 +4935,10 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S57" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T57" t="str">
         <v/>
@@ -4275,51 +4947,63 @@
         <v/>
       </c>
       <c r="V57" t="str">
+        <v/>
+      </c>
+      <c r="W57" t="str">
+        <v/>
+      </c>
+      <c r="X57" t="str">
+        <v>Aviral .</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/2024-25-spain-player-version-jersey-front-view.png?v=1745635158</v>
+      </c>
+      <c r="Z57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="B58" t="str">
-        <v>251781_1</v>
+        <v>252828</v>
       </c>
       <c r="C58" t="str">
-        <v>2025-07-12 16:03:15</v>
+        <v>2025-09-08 18:24:55</v>
       </c>
       <c r="D58" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - 2XL</v>
+        <v>Manchester City Away Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E58" t="str">
-        <v>CLU-RM-DRGPPL--FV-XXL</v>
+        <v>CLU-MC-AWW-25/26-PV-L</v>
       </c>
       <c r="F58">
-        <v>1137.36</v>
+        <v>1299</v>
       </c>
       <c r="G58">
-        <v>1037.36</v>
+        <v>2298</v>
       </c>
       <c r="H58" t="str">
         <v>P</v>
       </c>
       <c r="I58">
-        <v>1037.36</v>
+        <v>1195</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K58">
-        <v>1037.36</v>
+        <v>1195</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58" t="str">
-        <v>unclaimed</v>
+        <v>492001</v>
       </c>
       <c r="N58" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O58" t="str">
         <v/>
@@ -4331,10 +5015,10 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S58" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T58" t="str">
         <v/>
@@ -4343,51 +5027,63 @@
         <v/>
       </c>
       <c r="V58" t="str">
+        <v/>
+      </c>
+      <c r="W58" t="str">
+        <v/>
+      </c>
+      <c r="X58" t="str">
+        <v>Aviral .</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/puma-manchester-city-away-jersey-2025-front-view-black-white-accents.png?v=1753951530</v>
+      </c>
+      <c r="Z58" t="str">
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="B59" t="str">
-        <v>251815</v>
+        <v>252827</v>
       </c>
       <c r="C59" t="str">
-        <v>2025-07-11 08:13:03</v>
+        <v>2025-09-08 17:43:55</v>
       </c>
       <c r="D59" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E59" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-M</v>
+        <v>CLU-LP-FS-HM-25/26-PV-S</v>
       </c>
       <c r="F59">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="G59">
-        <v>1099</v>
+        <v>1499</v>
       </c>
       <c r="H59" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I59">
-        <v>1099</v>
+        <v>149.9</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1099</v>
+        <v>1499</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M59" t="str">
-        <v>unclaimed</v>
+        <v>122018</v>
       </c>
       <c r="N59" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -4399,10 +5095,10 @@
         <v/>
       </c>
       <c r="R59" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S59" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T59" t="str">
         <v/>
@@ -4411,51 +5107,63 @@
         <v/>
       </c>
       <c r="V59" t="str">
+        <v/>
+      </c>
+      <c r="W59" t="str">
+        <v/>
+      </c>
+      <c r="X59" t="str">
+        <v>Saharsh Kapoor</v>
+      </c>
+      <c r="Y59" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>375</v>
       </c>
       <c r="B60" t="str">
-        <v>251814</v>
+        <v>252826</v>
       </c>
       <c r="C60" t="str">
-        <v>2025-07-11 07:51:10</v>
+        <v>2025-09-08 17:22:19</v>
       </c>
       <c r="D60" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>Pre Order Bayern Munich Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E60" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>CLU-BM-TH-25/26-PV-XL</v>
       </c>
       <c r="F60">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G60">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="H60" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I60">
-        <v>1099</v>
+        <v>129.9</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M60" t="str">
-        <v>unclaimed</v>
+        <v>302021</v>
       </c>
       <c r="N60" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O60" t="str">
         <v/>
@@ -4467,10 +5175,10 @@
         <v/>
       </c>
       <c r="R60" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S60" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T60" t="str">
         <v/>
@@ -4479,36 +5187,48 @@
         <v/>
       </c>
       <c r="V60" t="str">
+        <v/>
+      </c>
+      <c r="W60" t="str">
+        <v/>
+      </c>
+      <c r="X60" t="str">
+        <v>Ishaan Vashishtha</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-bayern-munich-third-jersey-2025-26-front-straight-telekom-logo-trefoil-crest-allianz.png?v=1755551024</v>
+      </c>
+      <c r="Z60" t="str">
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>376</v>
       </c>
       <c r="B61" t="str">
-        <v>251810</v>
+        <v>252825</v>
       </c>
       <c r="C61" t="str">
-        <v>2025-07-11 06:07:40</v>
+        <v>2025-09-08 16:58:17</v>
       </c>
       <c r="D61" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version - XL</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E61" t="str">
-        <v>NAT-JPN-DBZVEG--PV-XL</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F61">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G61">
         <v>1199</v>
       </c>
       <c r="H61" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I61">
-        <v>119.9</v>
+        <v>1199</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4517,13 +5237,13 @@
         <v>1199</v>
       </c>
       <c r="L61">
-        <v>1079.1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="str">
-        <v>unclaimed</v>
+        <v>134117</v>
       </c>
       <c r="N61" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O61" t="str">
         <v/>
@@ -4535,10 +5255,10 @@
         <v/>
       </c>
       <c r="R61" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S61" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T61" t="str">
         <v/>
@@ -4547,51 +5267,63 @@
         <v/>
       </c>
       <c r="V61" t="str">
+        <v/>
+      </c>
+      <c r="W61" t="str">
+        <v/>
+      </c>
+      <c r="X61" t="str">
+        <v>Samiksha .</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z61" t="str">
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="B62" t="str">
-        <v>251803</v>
+        <v>252821</v>
       </c>
       <c r="C62" t="str">
-        <v>2025-07-10 15:35:53</v>
+        <v>2025-09-08 14:19:23</v>
       </c>
       <c r="D62" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E62" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F62">
         <v>1299</v>
       </c>
       <c r="G62">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="H62" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I62">
-        <v>129.9</v>
+        <v>1199</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="L62">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="str">
-        <v>unclaimed</v>
+        <v>110025</v>
       </c>
       <c r="N62" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -4603,10 +5335,10 @@
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S62" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T62" t="str">
         <v/>
@@ -4615,51 +5347,63 @@
         <v/>
       </c>
       <c r="V62" t="str">
+        <v/>
+      </c>
+      <c r="W62" t="str">
+        <v/>
+      </c>
+      <c r="X62" t="str">
+        <v>Divyansh .</v>
+      </c>
+      <c r="Y62" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z62" t="str">
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>379</v>
       </c>
       <c r="B63" t="str">
-        <v>251792</v>
+        <v>252819</v>
       </c>
       <c r="C63" t="str">
-        <v>2025-07-10 11:01:41</v>
+        <v>2025-09-08 13:58:36</v>
       </c>
       <c r="D63" t="str">
-        <v>Liverpool Home Jersey 2025-26 Player Version - L</v>
+        <v>Pre Order Barcelona Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E63" t="str">
-        <v>CLU-LP-HM-25/26-PV-L</v>
+        <v>CLU-BARC-TH-25/26-PV-XL</v>
       </c>
       <c r="F63">
         <v>1299</v>
       </c>
       <c r="G63">
-        <v>1299</v>
+        <v>2398</v>
       </c>
       <c r="H63" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I63">
-        <v>129.9</v>
+        <v>2398</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1299</v>
+        <v>2398</v>
       </c>
       <c r="L63">
-        <v>1169.1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="str">
-        <v>unclaimed</v>
+        <v>411057</v>
       </c>
       <c r="N63" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -4671,10 +5415,10 @@
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S63" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T63" t="str">
         <v/>
@@ -4683,51 +5427,63 @@
         <v/>
       </c>
       <c r="V63" t="str">
+        <v/>
+      </c>
+      <c r="W63" t="str">
+        <v/>
+      </c>
+      <c r="X63" t="str">
+        <v>Rohtash .</v>
+      </c>
+      <c r="Y63" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-barcelona-third-jersey-2025-26-player-version-coral-orange-front-spotify-crest-nike-swoosh.png?v=1756511197</v>
+      </c>
+      <c r="Z63" t="str">
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>380</v>
       </c>
       <c r="B64" t="str">
-        <v>251787</v>
+        <v>252818</v>
       </c>
       <c r="C64" t="str">
-        <v>2025-07-09 22:24:20</v>
+        <v>2025-09-08 13:24:36</v>
       </c>
       <c r="D64" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E64" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-L</v>
       </c>
       <c r="F64">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="G64">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="H64" t="str">
         <v>C</v>
       </c>
       <c r="I64">
-        <v>99.9</v>
+        <v>149.9</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="L64">
-        <v>899.1</v>
+        <v>1349.1</v>
       </c>
       <c r="M64" t="str">
-        <v>unclaimed</v>
+        <v>202001</v>
       </c>
       <c r="N64" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -4739,10 +5495,10 @@
         <v/>
       </c>
       <c r="R64" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S64" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T64" t="str">
         <v/>
@@ -4751,51 +5507,63 @@
         <v/>
       </c>
       <c r="V64" t="str">
+        <v/>
+      </c>
+      <c r="W64" t="str">
+        <v/>
+      </c>
+      <c r="X64" t="str">
+        <v>Md Zaid</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z64" t="str">
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="B65" t="str">
-        <v>251772</v>
+        <v>252817</v>
       </c>
       <c r="C65" t="str">
-        <v>2025-07-09 08:27:55</v>
+        <v>2025-09-08 13:15:09</v>
       </c>
       <c r="D65" t="str">
-        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
+        <v>Mexico de Oro Black Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E65" t="str">
-        <v>CLU-KMC-TH-24/25-16-18</v>
+        <v>NAT-MEX-deOro-25/26-PV-L</v>
       </c>
       <c r="F65">
-        <v>999</v>
+        <v>1473.9</v>
       </c>
       <c r="G65">
-        <v>899.1</v>
+        <v>1373.9</v>
       </c>
       <c r="H65" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I65">
-        <v>899.1</v>
+        <v>137.39</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>899.1</v>
+        <v>1373.9</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1236.51</v>
       </c>
       <c r="M65" t="str">
-        <v>unclaimed</v>
+        <v>313001</v>
       </c>
       <c r="N65" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O65" t="str">
         <v/>
@@ -4807,10 +5575,10 @@
         <v/>
       </c>
       <c r="R65" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S65" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T65" t="str">
         <v/>
@@ -4819,51 +5587,63 @@
         <v/>
       </c>
       <c r="V65" t="str">
+        <v/>
+      </c>
+      <c r="W65" t="str">
+        <v/>
+      </c>
+      <c r="X65" t="str">
+        <v>Anuj .</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/mexico-de-oro-2025-26-black-jersey-front-view.png?v=1749112451</v>
+      </c>
+      <c r="Z65" t="str">
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="B66" t="str">
-        <v>251748</v>
+        <v>252813</v>
       </c>
       <c r="C66" t="str">
-        <v>2025-07-08 00:04:19</v>
+        <v>2025-09-08 11:30:36</v>
       </c>
       <c r="D66" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E66" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
       </c>
       <c r="F66">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G66">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H66" t="str">
         <v>C</v>
       </c>
       <c r="I66">
-        <v>99.9</v>
+        <v>129.9</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="L66">
-        <v>899.1</v>
+        <v>1169.1</v>
       </c>
       <c r="M66" t="str">
-        <v>unclaimed</v>
+        <v>796007</v>
       </c>
       <c r="N66" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O66" t="str">
         <v/>
@@ -4875,10 +5655,10 @@
         <v/>
       </c>
       <c r="R66" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S66" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T66" t="str">
         <v/>
@@ -4887,51 +5667,63 @@
         <v/>
       </c>
       <c r="V66" t="str">
+        <v/>
+      </c>
+      <c r="W66" t="str">
+        <v/>
+      </c>
+      <c r="X66" t="str">
+        <v>George .</v>
+      </c>
+      <c r="Y66" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z66" t="str">
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="B67" t="str">
-        <v>251682_2</v>
+        <v>252812</v>
       </c>
       <c r="C67" t="str">
-        <v>2025-07-07 02:27:16</v>
+        <v>2025-09-08 05:24:21</v>
       </c>
       <c r="D67" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - M</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E67" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-M</v>
+        <v>CLU-LP-FS-HM-25/26-PV-M</v>
       </c>
       <c r="F67">
-        <v>1079.1</v>
+        <v>1499</v>
       </c>
       <c r="G67">
-        <v>1079.1</v>
+        <v>1499</v>
       </c>
       <c r="H67" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I67">
-        <v>1079.1</v>
+        <v>149.9</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>1079.1</v>
+        <v>1499</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M67" t="str">
-        <v>unclaimed</v>
+        <v>226016</v>
       </c>
       <c r="N67" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O67" t="str">
         <v/>
@@ -4943,10 +5735,10 @@
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S67" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T67" t="str">
         <v/>
@@ -4955,51 +5747,63 @@
         <v/>
       </c>
       <c r="V67" t="str">
+        <v/>
+      </c>
+      <c r="W67" t="str">
+        <v/>
+      </c>
+      <c r="X67" t="str">
+        <v>Akash Tiwari</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z67" t="str">
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="B68" t="str">
-        <v>251734</v>
+        <v>252811</v>
       </c>
       <c r="C68" t="str">
-        <v>2025-07-06 23:31:10</v>
+        <v>2025-09-08 04:57:38</v>
       </c>
       <c r="D68" t="str">
-        <v>INDIA Test Cricket Jersey - 2025 - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E68" t="str">
-        <v>IND-TST-25-PV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
       </c>
       <c r="F68">
         <v>1299</v>
       </c>
       <c r="G68">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H68" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I68">
-        <v>1199</v>
+        <v>129.9</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M68" t="str">
-        <v>unclaimed</v>
+        <v>700075</v>
       </c>
       <c r="N68" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -5011,10 +5815,10 @@
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S68" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T68" t="str">
         <v/>
@@ -5023,51 +5827,63 @@
         <v/>
       </c>
       <c r="V68" t="str">
+        <v/>
+      </c>
+      <c r="W68" t="str">
+        <v/>
+      </c>
+      <c r="X68" t="str">
+        <v>Navneil .</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z68" t="str">
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="B69" t="str">
-        <v>251705</v>
+        <v>252810</v>
       </c>
       <c r="C69" t="str">
-        <v>2025-07-05 15:54:04</v>
+        <v>2025-09-08 01:05:56</v>
       </c>
       <c r="D69" t="str">
-        <v>Real Madrid SE Jersey 2024-25 Player Version - S</v>
+        <v>FC Barcelona SE Blue Edition Jersey 2025-26 Player Version - S</v>
       </c>
       <c r="E69" t="str">
-        <v>CLU-RM-GOLD-24/25-FV-S</v>
+        <v>CLU-BARC-SEP-25/26-PV-S</v>
       </c>
       <c r="F69">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G69">
-        <v>1199</v>
+        <v>3497</v>
       </c>
       <c r="H69" t="str">
         <v>C</v>
       </c>
       <c r="I69">
-        <v>119.9</v>
+        <v>122.87</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>1299</v>
       </c>
       <c r="K69">
-        <v>1199</v>
+        <v>1228.73</v>
       </c>
       <c r="L69">
-        <v>1079.1</v>
+        <v>1105.86</v>
       </c>
       <c r="M69" t="str">
-        <v>unclaimed</v>
+        <v>638002</v>
       </c>
       <c r="N69" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -5079,10 +5895,10 @@
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S69" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T69" t="str">
         <v/>
@@ -5091,51 +5907,63 @@
         <v/>
       </c>
       <c r="V69" t="str">
+        <v/>
+      </c>
+      <c r="W69" t="str">
+        <v/>
+      </c>
+      <c r="X69" t="str">
+        <v>Pavan .</v>
+      </c>
+      <c r="Y69" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-fc-barcelona-blue-edition-jersey-2025-26-full-front-spotify-sponsor-hanger.png?v=1756510947</v>
+      </c>
+      <c r="Z69" t="str">
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>387</v>
       </c>
       <c r="B70" t="str">
-        <v>251702</v>
+        <v>252810</v>
       </c>
       <c r="C70" t="str">
-        <v>2025-07-05 12:23:40</v>
+        <v>2025-09-08 01:05:56</v>
       </c>
       <c r="D70" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Manchester City Full Sleeve Home Blue Jersey 2024-25 Fan Version - S</v>
       </c>
       <c r="E70" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-MC-HMF-24/25-FV-S</v>
       </c>
       <c r="F70">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G70">
-        <v>899.1</v>
+        <v>3497</v>
       </c>
       <c r="H70" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I70">
-        <v>899.1</v>
+        <v>113.41</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>1199</v>
       </c>
       <c r="K70">
-        <v>899.1</v>
+        <v>1134.14</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1020.73</v>
       </c>
       <c r="M70" t="str">
-        <v>unclaimed</v>
+        <v>638002</v>
       </c>
       <c r="N70" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -5147,10 +5975,10 @@
         <v/>
       </c>
       <c r="R70" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S70" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T70" t="str">
         <v/>
@@ -5159,51 +5987,63 @@
         <v/>
       </c>
       <c r="V70" t="str">
+        <v/>
+      </c>
+      <c r="W70" t="str">
+        <v/>
+      </c>
+      <c r="X70" t="str">
+        <v>Pavan .</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/manchester-city-full-sleeve-jersey-2024-front-view.png?v=1745635732</v>
+      </c>
+      <c r="Z70" t="str">
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="B71" t="str">
-        <v>251678</v>
+        <v>252810</v>
       </c>
       <c r="C71" t="str">
-        <v>2025-07-04 07:53:48</v>
+        <v>2025-09-08 01:05:56</v>
       </c>
       <c r="D71" t="str">
-        <v>Real Madrid SE Purple Dragon Jersey Player Version - L</v>
+        <v>Real Madrid SE White Gold Jersey 2024-25 Player Version - S</v>
       </c>
       <c r="E71" t="str">
-        <v>CLU-RM-DRGPPL--FV-L</v>
+        <v>CLU-RM-GOLD-24/25-FV-S</v>
       </c>
       <c r="F71">
         <v>1199</v>
       </c>
       <c r="G71">
-        <v>1898</v>
+        <v>3497</v>
       </c>
       <c r="H71" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I71">
-        <v>1035.35</v>
+        <v>113.41</v>
       </c>
       <c r="J71">
         <v>1199</v>
       </c>
       <c r="K71">
-        <v>1035.35</v>
+        <v>1134.14</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1020.73</v>
       </c>
       <c r="M71" t="str">
-        <v>unclaimed</v>
+        <v>638002</v>
       </c>
       <c r="N71" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O71" t="str">
         <v/>
@@ -5215,10 +6055,10 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S71" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T71" t="str">
         <v/>
@@ -5227,51 +6067,63 @@
         <v/>
       </c>
       <c r="V71" t="str">
+        <v/>
+      </c>
+      <c r="W71" t="str">
+        <v/>
+      </c>
+      <c r="X71" t="str">
+        <v>Pavan .</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-real-madrid-white-gold-jersey-2024-25-full-front-emirates-logo.png?v=1754337827</v>
+      </c>
+      <c r="Z71" t="str">
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>389</v>
       </c>
       <c r="B72" t="str">
-        <v>251678</v>
+        <v>252808</v>
       </c>
       <c r="C72" t="str">
-        <v>2025-07-04 07:53:48</v>
+        <v>2025-09-07 23:36:19</v>
       </c>
       <c r="D72" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E72" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
       </c>
       <c r="F72">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G72">
-        <v>1898</v>
+        <v>1199</v>
       </c>
       <c r="H72" t="str">
         <v>P</v>
       </c>
       <c r="I72">
-        <v>862.65</v>
+        <v>1199</v>
       </c>
       <c r="J72">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>862.65</v>
+        <v>1199</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72" t="str">
-        <v>unclaimed</v>
+        <v>695010</v>
       </c>
       <c r="N72" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O72" t="str">
         <v/>
@@ -5283,10 +6135,10 @@
         <v/>
       </c>
       <c r="R72" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S72" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T72" t="str">
         <v/>
@@ -5295,24 +6147,36 @@
         <v/>
       </c>
       <c r="V72" t="str">
+        <v/>
+      </c>
+      <c r="W72" t="str">
+        <v/>
+      </c>
+      <c r="X72" t="str">
+        <v>Rakesh J</v>
+      </c>
+      <c r="Y72" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z72" t="str">
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="B73" t="str">
-        <v>251589_29</v>
+        <v>252807</v>
       </c>
       <c r="C73" t="str">
-        <v>2025-07-02 20:30:32</v>
+        <v>2025-09-07 23:03:26</v>
       </c>
       <c r="D73" t="str">
-        <v>Japan Dragon Ball Z Vegeta Version Fan Version - L</v>
+        <v>Germany Home Jersey 2024-25 Fan Version - L</v>
       </c>
       <c r="E73" t="str">
-        <v>NAT-JPN-DBZVEG--FV-L</v>
+        <v>NAT-GER-HM-24/25-FV-L</v>
       </c>
       <c r="F73">
         <v>999</v>
@@ -5336,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="str">
-        <v>unclaimed</v>
+        <v>560085</v>
       </c>
       <c r="N73" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -5351,10 +6215,10 @@
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S73" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T73" t="str">
         <v/>
@@ -5363,51 +6227,63 @@
         <v/>
       </c>
       <c r="V73" t="str">
+        <v/>
+      </c>
+      <c r="W73" t="str">
+        <v/>
+      </c>
+      <c r="X73" t="str">
+        <v>Prateek .</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/germany-home-jersey-2024-25-front-view.png?v=1745636849</v>
+      </c>
+      <c r="Z73" t="str">
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="B74" t="str">
-        <v>251597_2</v>
+        <v>252806</v>
       </c>
       <c r="C74" t="str">
-        <v>2025-07-02 01:02:28</v>
+        <v>2025-09-07 23:02:23</v>
       </c>
       <c r="D74" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E74" t="str">
-        <v>CLU-KBARC-HM-24/25-24-26</v>
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
       </c>
       <c r="F74">
-        <v>1046.05</v>
+        <v>1299</v>
       </c>
       <c r="G74">
-        <v>846.05</v>
+        <v>1299</v>
       </c>
       <c r="H74" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I74">
-        <v>846.05</v>
+        <v>129.9</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>846.05</v>
+        <v>1299</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M74" t="str">
-        <v>unclaimed</v>
+        <v>560037</v>
       </c>
       <c r="N74" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O74" t="str">
         <v/>
@@ -5419,10 +6295,10 @@
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S74" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T74" t="str">
         <v/>
@@ -5431,51 +6307,63 @@
         <v/>
       </c>
       <c r="V74" t="str">
+        <v/>
+      </c>
+      <c r="W74" t="str">
+        <v/>
+      </c>
+      <c r="X74" t="str">
+        <v>Surabhi .</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z74" t="str">
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="B75" t="str">
-        <v>251592</v>
+        <v>252804</v>
       </c>
       <c r="C75" t="str">
-        <v>2025-06-29 07:33:02</v>
+        <v>2025-09-07 22:18:02</v>
       </c>
       <c r="D75" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 28-30</v>
+        <v>Mexico de Oro Black Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E75" t="str">
-        <v>CLU-KBARC-HM-24/25-28-30</v>
+        <v>NAT-MEX-deOro-25/26-PV-XL</v>
       </c>
       <c r="F75">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G75">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="H75" t="str">
         <v>C</v>
       </c>
       <c r="I75">
-        <v>99.9</v>
+        <v>129.9</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="L75">
-        <v>899.1</v>
+        <v>1169.1</v>
       </c>
       <c r="M75" t="str">
-        <v>unclaimed</v>
+        <v>768002</v>
       </c>
       <c r="N75" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O75" t="str">
         <v/>
@@ -5487,10 +6375,10 @@
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S75" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T75" t="str">
         <v/>
@@ -5499,51 +6387,63 @@
         <v/>
       </c>
       <c r="V75" t="str">
+        <v/>
+      </c>
+      <c r="W75" t="str">
+        <v/>
+      </c>
+      <c r="X75" t="str">
+        <v>Krushna .</v>
+      </c>
+      <c r="Y75" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/mexico-de-oro-2025-26-black-jersey-front-view.png?v=1749112451</v>
+      </c>
+      <c r="Z75" t="str">
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="B76" t="str">
-        <v>251566</v>
+        <v>252802</v>
       </c>
       <c r="C76" t="str">
-        <v>2025-06-27 20:00:53</v>
+        <v>2025-09-07 20:04:09</v>
       </c>
       <c r="D76" t="str">
-        <v>Belgium Away Jersey 2024-25 Fan Version - M</v>
+        <v>Germany Home Jersey 2024-25 Fan Version - M</v>
       </c>
       <c r="E76" t="str">
-        <v>NAT-BEL-AW-24/25-FV-M</v>
+        <v>NAT-GER-HM-24/25-FV-M</v>
       </c>
       <c r="F76">
         <v>999</v>
       </c>
       <c r="G76">
-        <v>899.1</v>
+        <v>999</v>
       </c>
       <c r="H76" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I76">
-        <v>899.1</v>
+        <v>99.9</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
+        <v>999</v>
+      </c>
+      <c r="L76">
         <v>899.1</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
       <c r="M76" t="str">
-        <v>unclaimed</v>
+        <v>835210</v>
       </c>
       <c r="N76" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O76" t="str">
         <v/>
@@ -5555,10 +6455,10 @@
         <v/>
       </c>
       <c r="R76" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S76" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T76" t="str">
         <v/>
@@ -5567,51 +6467,63 @@
         <v/>
       </c>
       <c r="V76" t="str">
+        <v/>
+      </c>
+      <c r="W76" t="str">
+        <v/>
+      </c>
+      <c r="X76" t="str">
+        <v>Devashish Balmuchu</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/germany-home-jersey-2024-25-front-view.png?v=1745636849</v>
+      </c>
+      <c r="Z76" t="str">
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="B77" t="str">
-        <v>251521</v>
+        <v>252801</v>
       </c>
       <c r="C77" t="str">
-        <v>2025-06-24 23:44:26</v>
+        <v>2025-09-07 19:56:04</v>
       </c>
       <c r="D77" t="str">
-        <v>Kids Real Madrid Home Jersey 2024-25 - 24-26</v>
+        <v>Liverpool Away Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E77" t="str">
-        <v>CLU-KRM-HM-24/25-24-26</v>
+        <v>CLU-LP-AW-25/26-PV-L</v>
       </c>
       <c r="F77">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G77">
-        <v>899.1</v>
+        <v>1299</v>
       </c>
       <c r="H77" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I77">
-        <v>899.1</v>
+        <v>129.9</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>899.1</v>
+        <v>1299</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M77" t="str">
-        <v>unclaimed</v>
+        <v>791109</v>
       </c>
       <c r="N77" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -5623,10 +6535,10 @@
         <v/>
       </c>
       <c r="R77" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S77" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T77" t="str">
         <v/>
@@ -5635,51 +6547,63 @@
         <v/>
       </c>
       <c r="V77" t="str">
+        <v/>
+      </c>
+      <c r="W77" t="str">
+        <v/>
+      </c>
+      <c r="X77" t="str">
+        <v>Damrik Doje</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-away-jersey-2025-26-cream-front-red-crest-sponsor.png?v=1756150536</v>
+      </c>
+      <c r="Z77" t="str">
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="B78" t="str">
-        <v>251507_15</v>
+        <v>252799</v>
       </c>
       <c r="C78" t="str">
-        <v>2025-06-24 16:18:14</v>
+        <v>2025-09-07 18:58:50</v>
       </c>
       <c r="D78" t="str">
-        <v>Kids Barcelona Home Jersey 2024-25 - 24-26</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E78" t="str">
-        <v>CLU-KBARC-HM-24/25-24-26</v>
+        <v>CLU-LP-FS-HM-25/26-PV-2XL</v>
       </c>
       <c r="F78">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="G78">
-        <v>899</v>
+        <v>1499</v>
       </c>
       <c r="H78" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I78">
-        <v>899</v>
+        <v>149.9</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78">
-        <v>899</v>
+        <v>1499</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M78" t="str">
-        <v>unclaimed</v>
+        <v>700051</v>
       </c>
       <c r="N78" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O78" t="str">
         <v/>
@@ -5691,10 +6615,10 @@
         <v/>
       </c>
       <c r="R78" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S78" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T78" t="str">
         <v/>
@@ -5703,51 +6627,63 @@
         <v/>
       </c>
       <c r="V78" t="str">
+        <v/>
+      </c>
+      <c r="W78" t="str">
+        <v/>
+      </c>
+      <c r="X78" t="str">
+        <v>Avijeet Roy</v>
+      </c>
+      <c r="Y78" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z78" t="str">
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="B79" t="str">
-        <v>251403_12</v>
+        <v>252798</v>
       </c>
       <c r="C79" t="str">
-        <v>2025-06-17 20:34:27</v>
+        <v>2025-09-07 18:52:41</v>
       </c>
       <c r="D79" t="str">
-        <v>Paris Away Jersey 2024-25 Player Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - 2XL</v>
       </c>
       <c r="E79" t="str">
-        <v>CLU-PSG-AW-24/25-PV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-2XL</v>
       </c>
       <c r="F79">
-        <v>1134.1</v>
+        <v>1499</v>
       </c>
       <c r="G79">
-        <v>1034.1</v>
+        <v>1499</v>
       </c>
       <c r="H79" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I79">
-        <v>1034.1</v>
+        <v>149.9</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>1034.1</v>
+        <v>1499</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M79" t="str">
-        <v>unclaimed</v>
+        <v>605014</v>
       </c>
       <c r="N79" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -5759,10 +6695,10 @@
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S79" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T79" t="str">
         <v/>
@@ -5771,51 +6707,63 @@
         <v/>
       </c>
       <c r="V79" t="str">
+        <v/>
+      </c>
+      <c r="W79" t="str">
+        <v/>
+      </c>
+      <c r="X79" t="str">
+        <v>Maharshee Baruah</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z79" t="str">
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="B80" t="str">
-        <v>251385</v>
+        <v>252795</v>
       </c>
       <c r="C80" t="str">
-        <v>2025-06-16 21:30:01</v>
+        <v>2025-09-07 15:44:34</v>
       </c>
       <c r="D80" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E80" t="str">
-        <v>IPL-RCB-M-25-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-M</v>
       </c>
       <c r="F80">
-        <v>899</v>
+        <v>1299</v>
       </c>
       <c r="G80">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="H80" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I80">
-        <v>89.9</v>
+        <v>1199</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="L80">
-        <v>809.1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="str">
-        <v>unclaimed</v>
+        <v>793123</v>
       </c>
       <c r="N80" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O80" t="str">
         <v/>
@@ -5827,10 +6775,10 @@
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S80" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T80" t="str">
         <v/>
@@ -5839,51 +6787,63 @@
         <v/>
       </c>
       <c r="V80" t="str">
+        <v/>
+      </c>
+      <c r="W80" t="str">
+        <v/>
+      </c>
+      <c r="X80" t="str">
+        <v>KARMA RABGYAL BHUTIA</v>
+      </c>
+      <c r="Y80" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z80" t="str">
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="B81" t="str">
-        <v>251362</v>
+        <v>252794</v>
       </c>
       <c r="C81" t="str">
-        <v>2025-06-15 21:18:38</v>
+        <v>2025-09-07 14:39:31</v>
       </c>
       <c r="D81" t="str">
-        <v>Kids Real Madrid Home Jersey 2024-25 - 28-30</v>
+        <v>Arsenal Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E81" t="str">
-        <v>CLU-KRM-HM-24/25-28-30</v>
+        <v>CLU-ARS-TH-25/26-PV-L</v>
       </c>
       <c r="F81">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="G81">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="H81" t="str">
         <v>P</v>
       </c>
       <c r="I81">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>899.1</v>
+        <v>1199</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <v>unclaimed</v>
+        <v>785621</v>
       </c>
       <c r="N81" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -5895,10 +6855,10 @@
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S81" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T81" t="str">
         <v/>
@@ -5907,51 +6867,63 @@
         <v/>
       </c>
       <c r="V81" t="str">
+        <v/>
+      </c>
+      <c r="W81" t="str">
+        <v/>
+      </c>
+      <c r="X81" t="str">
+        <v>Jyotish Khaklary</v>
+      </c>
+      <c r="Y81" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/arsenal-2025-26-third-jersey-front-emirates-logo.png?v=1752534817</v>
+      </c>
+      <c r="Z81" t="str">
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="B82" t="str">
-        <v>251326</v>
+        <v>252793</v>
       </c>
       <c r="C82" t="str">
-        <v>2025-06-14 10:14:19</v>
+        <v>2025-09-07 13:48:43</v>
       </c>
       <c r="D82" t="str">
-        <v>Kids Manchester City Third Jersey 2024-25 - 16-18</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E82" t="str">
-        <v>CLU-KMC-TH-24/25-16-18</v>
+        <v>CLU-LP-FS-HM-25/26-PV-L</v>
       </c>
       <c r="F82">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="G82">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="H82" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I82">
-        <v>899.1</v>
+        <v>149.9</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M82" t="str">
-        <v>unclaimed</v>
+        <v>790104</v>
       </c>
       <c r="N82" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O82" t="str">
         <v/>
@@ -5963,10 +6935,10 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S82" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T82" t="str">
         <v/>
@@ -5975,27 +6947,39 @@
         <v/>
       </c>
       <c r="V82" t="str">
+        <v/>
+      </c>
+      <c r="W82" t="str">
+        <v/>
+      </c>
+      <c r="X82" t="str">
+        <v>Genden Tseder</v>
+      </c>
+      <c r="Y82" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z82" t="str">
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="B83" t="str">
-        <v>251268_70</v>
+        <v>252790</v>
       </c>
       <c r="C83" t="str">
-        <v>2025-06-12 01:36:30</v>
+        <v>2025-09-07 12:17:59</v>
       </c>
       <c r="D83" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - XL</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E83" t="str">
-        <v>IPL-RCB-VK-SE-25-XL</v>
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
       </c>
       <c r="F83">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="G83">
         <v>1199</v>
@@ -6016,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <v>unclaimed</v>
+        <v>560092</v>
       </c>
       <c r="N83" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O83" t="str">
         <v/>
@@ -6031,10 +7015,10 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S83" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T83" t="str">
         <v/>
@@ -6043,51 +7027,63 @@
         <v/>
       </c>
       <c r="V83" t="str">
+        <v/>
+      </c>
+      <c r="W83" t="str">
+        <v/>
+      </c>
+      <c r="X83" t="str">
+        <v>Chitvan .</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z83" t="str">
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="B84" t="str">
-        <v>251287</v>
+        <v>252782</v>
       </c>
       <c r="C84" t="str">
-        <v>2025-06-10 09:09:43</v>
+        <v>2025-09-07 02:19:54</v>
       </c>
       <c r="D84" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E84" t="str">
-        <v>IPL-RCB-VK-SE-25-L</v>
+        <v>CLU-CHEL-TH-25/26-PV-M</v>
       </c>
       <c r="F84">
         <v>1299</v>
       </c>
       <c r="G84">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="H84" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I84">
-        <v>1199</v>
+        <v>129.9</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M84" t="str">
-        <v>unclaimed</v>
+        <v>500084</v>
       </c>
       <c r="N84" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O84" t="str">
         <v/>
@@ -6099,10 +7095,10 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S84" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T84" t="str">
         <v/>
@@ -6111,51 +7107,63 @@
         <v/>
       </c>
       <c r="V84" t="str">
+        <v/>
+      </c>
+      <c r="W84" t="str">
+        <v/>
+      </c>
+      <c r="X84" t="str">
+        <v>Waseem Askar</v>
+      </c>
+      <c r="Y84" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z84" t="str">
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="B85" t="str">
-        <v>251283</v>
+        <v>252780</v>
       </c>
       <c r="C85" t="str">
-        <v>2025-06-09 20:01:31</v>
+        <v>2025-09-07 01:14:44</v>
       </c>
       <c r="D85" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - L</v>
+        <v>Pre Order Barcelona Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E85" t="str">
-        <v>IPL-RCB-M-25-L</v>
+        <v>CLU-BARC-TH-25/26-PV-M</v>
       </c>
       <c r="F85">
-        <v>899</v>
+        <v>1438.44</v>
       </c>
       <c r="G85">
-        <v>809.1</v>
+        <v>1338.44</v>
       </c>
       <c r="H85" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I85">
-        <v>809.1</v>
+        <v>133.84</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>809.1</v>
+        <v>1338.44</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1204.6</v>
       </c>
       <c r="M85" t="str">
-        <v>unclaimed</v>
+        <v>122006</v>
       </c>
       <c r="N85" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O85" t="str">
         <v/>
@@ -6167,10 +7175,10 @@
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S85" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T85" t="str">
         <v/>
@@ -6179,51 +7187,63 @@
         <v/>
       </c>
       <c r="V85" t="str">
+        <v/>
+      </c>
+      <c r="W85" t="str">
+        <v/>
+      </c>
+      <c r="X85" t="str">
+        <v>Abhishek Mandal</v>
+      </c>
+      <c r="Y85" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-barcelona-third-jersey-2025-26-player-version-coral-orange-front-spotify-crest-nike-swoosh.png?v=1756511197</v>
+      </c>
+      <c r="Z85" t="str">
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>402</v>
       </c>
       <c r="B86" t="str">
-        <v>251281</v>
+        <v>252778</v>
       </c>
       <c r="C86" t="str">
-        <v>2025-06-09 19:41:00</v>
+        <v>2025-09-07 00:52:41</v>
       </c>
       <c r="D86" t="str">
-        <v>RCB Virat Kohli IPL Winning Jersey 2025 - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E86" t="str">
-        <v>IPL-RCB-VK-SE-25-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
       </c>
       <c r="F86">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="G86">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="H86" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I86">
-        <v>1199</v>
+        <v>149.9</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M86" t="str">
-        <v>unclaimed</v>
+        <v>492001</v>
       </c>
       <c r="N86" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O86" t="str">
         <v/>
@@ -6235,10 +7255,10 @@
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S86" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T86" t="str">
         <v/>
@@ -6247,51 +7267,63 @@
         <v/>
       </c>
       <c r="V86" t="str">
+        <v/>
+      </c>
+      <c r="W86" t="str">
+        <v/>
+      </c>
+      <c r="X86" t="str">
+        <v>Ravi sherwani</v>
+      </c>
+      <c r="Y86" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z86" t="str">
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>403</v>
       </c>
       <c r="B87" t="str">
-        <v>251280</v>
+        <v>252775</v>
       </c>
       <c r="C87" t="str">
-        <v>2025-06-09 12:17:09</v>
+        <v>2025-09-06 23:57:02</v>
       </c>
       <c r="D87" t="str">
-        <v>Royal Challengers Bengaluru Fan Jersey 2025 - M</v>
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - M</v>
       </c>
       <c r="E87" t="str">
-        <v>IPL-RCB-M-25-M</v>
+        <v>CLU-CHEL-TH-25/26-PV-M</v>
       </c>
       <c r="F87">
-        <v>899</v>
+        <v>1299</v>
       </c>
       <c r="G87">
-        <v>809.1</v>
+        <v>1299</v>
       </c>
       <c r="H87" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I87">
-        <v>809.1</v>
+        <v>129.9</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>809.1</v>
+        <v>1299</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1169.1</v>
       </c>
       <c r="M87" t="str">
-        <v>unclaimed</v>
+        <v>411032</v>
       </c>
       <c r="N87" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O87" t="str">
         <v/>
@@ -6303,10 +7335,10 @@
         <v/>
       </c>
       <c r="R87" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S87" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T87" t="str">
         <v/>
@@ -6315,51 +7347,63 @@
         <v/>
       </c>
       <c r="V87" t="str">
+        <v/>
+      </c>
+      <c r="W87" t="str">
+        <v/>
+      </c>
+      <c r="X87" t="str">
+        <v>avradeep sen</v>
+      </c>
+      <c r="Y87" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z87" t="str">
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="B88" t="str">
-        <v>251152</v>
+        <v>252774</v>
       </c>
       <c r="C88" t="str">
-        <v>2025-05-25 12:14:37</v>
+        <v>2025-09-06 23:55:27</v>
       </c>
       <c r="D88" t="str">
-        <v>Inter Milan Away Jersey 2024-25 Fan Version - L</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - L</v>
       </c>
       <c r="E88" t="str">
-        <v>CLU-IML-AW-24/25-FV-L</v>
+        <v>CLU-LP-FS-HM-25/26-PV-L</v>
       </c>
       <c r="F88">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="G88">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="H88" t="str">
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="I88">
-        <v>899.1</v>
+        <v>149.9</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>899.1</v>
+        <v>1499</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1349.1</v>
       </c>
       <c r="M88" t="str">
-        <v>unclaimed</v>
+        <v>600100</v>
       </c>
       <c r="N88" t="str">
-        <v/>
+        <v>unclaimed</v>
       </c>
       <c r="O88" t="str">
         <v/>
@@ -6371,10 +7415,10 @@
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>not_cloned</v>
+        <v/>
       </c>
       <c r="S88" t="str">
-        <v/>
+        <v>not_cloned</v>
       </c>
       <c r="T88" t="str">
         <v/>
@@ -6383,80 +7427,1864 @@
         <v/>
       </c>
       <c r="V88" t="str">
+        <v/>
+      </c>
+      <c r="W88" t="str">
+        <v/>
+      </c>
+      <c r="X88" t="str">
+        <v>Vincent Rajendran</v>
+      </c>
+      <c r="Y88" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z88" t="str">
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="B89" t="str">
-        <v>251117</v>
+        <v>252773</v>
       </c>
       <c r="C89" t="str">
-        <v>2025-05-18 16:25:29</v>
+        <v>2025-09-06 23:53:08</v>
       </c>
       <c r="D89" t="str">
-        <v>Inter Milan Away Jersey 2024-25 Fan Version - XL</v>
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
       </c>
       <c r="E89" t="str">
-        <v>CLU-IML-AW-24/25-FV-XL</v>
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
       </c>
       <c r="F89">
-        <v>999</v>
+        <v>1499</v>
       </c>
       <c r="G89">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="H89" t="str">
-        <v>C</v>
+        <v>P</v>
       </c>
       <c r="I89">
-        <v>99.9</v>
+        <v>1399</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
+        <v>1399</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="str">
+        <v>400072</v>
+      </c>
+      <c r="N89" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v/>
+      </c>
+      <c r="S89" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T89" t="str">
+        <v/>
+      </c>
+      <c r="U89" t="str">
+        <v/>
+      </c>
+      <c r="V89" t="str">
+        <v/>
+      </c>
+      <c r="W89" t="str">
+        <v/>
+      </c>
+      <c r="X89" t="str">
+        <v>Zarah ,</v>
+      </c>
+      <c r="Y89" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>406</v>
+      </c>
+      <c r="B90" t="str">
+        <v>252771</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2025-09-06 23:10:27</v>
+      </c>
+      <c r="D90" t="str">
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+      </c>
+      <c r="E90" t="str">
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F90">
+        <v>1299</v>
+      </c>
+      <c r="G90">
+        <v>1299</v>
+      </c>
+      <c r="H90" t="str">
+        <v>C</v>
+      </c>
+      <c r="I90">
+        <v>129.9</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1299</v>
+      </c>
+      <c r="L90">
+        <v>1169.1</v>
+      </c>
+      <c r="M90" t="str">
+        <v>400071</v>
+      </c>
+      <c r="N90" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+      <c r="S90" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T90" t="str">
+        <v/>
+      </c>
+      <c r="U90" t="str">
+        <v/>
+      </c>
+      <c r="V90" t="str">
+        <v/>
+      </c>
+      <c r="W90" t="str">
+        <v/>
+      </c>
+      <c r="X90" t="str">
+        <v>RAUNAK LAKRA</v>
+      </c>
+      <c r="Y90" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/india-test-cricket-jersey-2025-hanging-view.png?v=1745988706</v>
+      </c>
+      <c r="Z90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>407</v>
+      </c>
+      <c r="B91" t="str">
+        <v>252769</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2025-09-06 21:34:51</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
+      </c>
+      <c r="E91" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
+      </c>
+      <c r="F91">
+        <v>1299</v>
+      </c>
+      <c r="G91">
+        <v>1199</v>
+      </c>
+      <c r="H91" t="str">
+        <v>P</v>
+      </c>
+      <c r="I91">
+        <v>1199</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1199</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <v>560100</v>
+      </c>
+      <c r="N91" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O91" t="str">
+        <v/>
+      </c>
+      <c r="P91" t="str">
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v/>
+      </c>
+      <c r="S91" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T91" t="str">
+        <v/>
+      </c>
+      <c r="U91" t="str">
+        <v/>
+      </c>
+      <c r="V91" t="str">
+        <v/>
+      </c>
+      <c r="W91" t="str">
+        <v/>
+      </c>
+      <c r="X91" t="str">
+        <v>Kalai K</v>
+      </c>
+      <c r="Y91" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>408</v>
+      </c>
+      <c r="B92" t="str">
+        <v>252768</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2025-09-06 19:52:27</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - M</v>
+      </c>
+      <c r="E92" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-M</v>
+      </c>
+      <c r="F92">
+        <v>1299</v>
+      </c>
+      <c r="G92">
+        <v>1299</v>
+      </c>
+      <c r="H92" t="str">
+        <v>C</v>
+      </c>
+      <c r="I92">
+        <v>129.9</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1299</v>
+      </c>
+      <c r="L92">
+        <v>1169.1</v>
+      </c>
+      <c r="M92" t="str">
+        <v>380054</v>
+      </c>
+      <c r="N92" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O92" t="str">
+        <v/>
+      </c>
+      <c r="P92" t="str">
+        <v/>
+      </c>
+      <c r="Q92" t="str">
+        <v/>
+      </c>
+      <c r="R92" t="str">
+        <v/>
+      </c>
+      <c r="S92" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T92" t="str">
+        <v/>
+      </c>
+      <c r="U92" t="str">
+        <v/>
+      </c>
+      <c r="V92" t="str">
+        <v/>
+      </c>
+      <c r="W92" t="str">
+        <v/>
+      </c>
+      <c r="X92" t="str">
+        <v>Jarahn Poptani</v>
+      </c>
+      <c r="Y92" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>409</v>
+      </c>
+      <c r="B93" t="str">
+        <v>252766</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2025-09-06 19:17:30</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E93" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-S</v>
+      </c>
+      <c r="F93">
+        <v>1299</v>
+      </c>
+      <c r="G93">
+        <v>1199</v>
+      </c>
+      <c r="H93" t="str">
+        <v>P</v>
+      </c>
+      <c r="I93">
+        <v>1199</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1199</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <v>560042</v>
+      </c>
+      <c r="N93" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O93" t="str">
+        <v/>
+      </c>
+      <c r="P93" t="str">
+        <v/>
+      </c>
+      <c r="Q93" t="str">
+        <v/>
+      </c>
+      <c r="R93" t="str">
+        <v/>
+      </c>
+      <c r="S93" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T93" t="str">
+        <v/>
+      </c>
+      <c r="U93" t="str">
+        <v/>
+      </c>
+      <c r="V93" t="str">
+        <v/>
+      </c>
+      <c r="W93" t="str">
+        <v/>
+      </c>
+      <c r="X93" t="str">
+        <v>Gautham Paul</v>
+      </c>
+      <c r="Y93" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>410</v>
+      </c>
+      <c r="B94" t="str">
+        <v>252762</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2025-09-06 15:40:49</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - 2XL</v>
+      </c>
+      <c r="E94" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-2XL</v>
+      </c>
+      <c r="F94">
+        <v>1299</v>
+      </c>
+      <c r="G94">
+        <v>1199</v>
+      </c>
+      <c r="H94" t="str">
+        <v>P</v>
+      </c>
+      <c r="I94">
+        <v>1199</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1199</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <v>560076</v>
+      </c>
+      <c r="N94" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O94" t="str">
+        <v/>
+      </c>
+      <c r="P94" t="str">
+        <v/>
+      </c>
+      <c r="Q94" t="str">
+        <v/>
+      </c>
+      <c r="R94" t="str">
+        <v/>
+      </c>
+      <c r="S94" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T94" t="str">
+        <v/>
+      </c>
+      <c r="U94" t="str">
+        <v/>
+      </c>
+      <c r="V94" t="str">
+        <v/>
+      </c>
+      <c r="W94" t="str">
+        <v/>
+      </c>
+      <c r="X94" t="str">
+        <v>AJAY SIngh</v>
+      </c>
+      <c r="Y94" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>411</v>
+      </c>
+      <c r="B95" t="str">
+        <v>252761</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2025-09-06 15:15:15</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - M</v>
+      </c>
+      <c r="E95" t="str">
+        <v>CLU-LP-FS-HM-25/26-PV-M</v>
+      </c>
+      <c r="F95">
+        <v>1499</v>
+      </c>
+      <c r="G95">
+        <v>1399</v>
+      </c>
+      <c r="H95" t="str">
+        <v>P</v>
+      </c>
+      <c r="I95">
+        <v>1399</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1399</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <v>400601</v>
+      </c>
+      <c r="N95" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O95" t="str">
+        <v/>
+      </c>
+      <c r="P95" t="str">
+        <v/>
+      </c>
+      <c r="Q95" t="str">
+        <v/>
+      </c>
+      <c r="R95" t="str">
+        <v/>
+      </c>
+      <c r="S95" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T95" t="str">
+        <v/>
+      </c>
+      <c r="U95" t="str">
+        <v/>
+      </c>
+      <c r="V95" t="str">
+        <v/>
+      </c>
+      <c r="W95" t="str">
+        <v/>
+      </c>
+      <c r="X95" t="str">
+        <v>Rikhav Satra</v>
+      </c>
+      <c r="Y95" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>412</v>
+      </c>
+      <c r="B96" t="str">
+        <v>252758</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2025-09-06 14:13:28</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
+      </c>
+      <c r="E96" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
+      </c>
+      <c r="F96">
+        <v>1299</v>
+      </c>
+      <c r="G96">
+        <v>1199</v>
+      </c>
+      <c r="H96" t="str">
+        <v>P</v>
+      </c>
+      <c r="I96">
+        <v>1199</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1199</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <v>411014</v>
+      </c>
+      <c r="N96" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O96" t="str">
+        <v/>
+      </c>
+      <c r="P96" t="str">
+        <v/>
+      </c>
+      <c r="Q96" t="str">
+        <v/>
+      </c>
+      <c r="R96" t="str">
+        <v/>
+      </c>
+      <c r="S96" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T96" t="str">
+        <v/>
+      </c>
+      <c r="U96" t="str">
+        <v/>
+      </c>
+      <c r="V96" t="str">
+        <v/>
+      </c>
+      <c r="W96" t="str">
+        <v/>
+      </c>
+      <c r="X96" t="str">
+        <v>Clide Castelino</v>
+      </c>
+      <c r="Y96" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>413</v>
+      </c>
+      <c r="B97" t="str">
+        <v>252757</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2025-09-06 12:46:01</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Pre Order Barcelona Third Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E97" t="str">
+        <v>CLU-BARC-TH-25/26-PV-S</v>
+      </c>
+      <c r="F97">
+        <v>1299</v>
+      </c>
+      <c r="G97">
+        <v>1299</v>
+      </c>
+      <c r="H97" t="str">
+        <v>C</v>
+      </c>
+      <c r="I97">
+        <v>129.9</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1299</v>
+      </c>
+      <c r="L97">
+        <v>1169.1</v>
+      </c>
+      <c r="M97" t="str">
+        <v>122003</v>
+      </c>
+      <c r="N97" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O97" t="str">
+        <v/>
+      </c>
+      <c r="P97" t="str">
+        <v/>
+      </c>
+      <c r="Q97" t="str">
+        <v/>
+      </c>
+      <c r="R97" t="str">
+        <v/>
+      </c>
+      <c r="S97" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T97" t="str">
+        <v/>
+      </c>
+      <c r="U97" t="str">
+        <v/>
+      </c>
+      <c r="V97" t="str">
+        <v/>
+      </c>
+      <c r="W97" t="str">
+        <v/>
+      </c>
+      <c r="X97" t="str">
+        <v>Ajay Mandal</v>
+      </c>
+      <c r="Y97" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-barcelona-third-jersey-2025-26-player-version-coral-orange-front-spotify-crest-nike-swoosh.png?v=1756511197</v>
+      </c>
+      <c r="Z97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>414</v>
+      </c>
+      <c r="B98" t="str">
+        <v>252755</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2025-09-06 12:03:37</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
+      </c>
+      <c r="E98" t="str">
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
+      </c>
+      <c r="F98">
+        <v>1499</v>
+      </c>
+      <c r="G98">
+        <v>1499</v>
+      </c>
+      <c r="H98" t="str">
+        <v>C</v>
+      </c>
+      <c r="I98">
+        <v>149.9</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1499</v>
+      </c>
+      <c r="L98">
+        <v>1349.1</v>
+      </c>
+      <c r="M98" t="str">
+        <v>201310</v>
+      </c>
+      <c r="N98" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O98" t="str">
+        <v/>
+      </c>
+      <c r="P98" t="str">
+        <v/>
+      </c>
+      <c r="Q98" t="str">
+        <v/>
+      </c>
+      <c r="R98" t="str">
+        <v/>
+      </c>
+      <c r="S98" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T98" t="str">
+        <v/>
+      </c>
+      <c r="U98" t="str">
+        <v/>
+      </c>
+      <c r="V98" t="str">
+        <v/>
+      </c>
+      <c r="W98" t="str">
+        <v/>
+      </c>
+      <c r="X98" t="str">
+        <v>Satvik Kshatriya</v>
+      </c>
+      <c r="Y98" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>415</v>
+      </c>
+      <c r="B99" t="str">
+        <v>252754</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2025-09-06 11:48:10</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E99" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-S</v>
+      </c>
+      <c r="F99">
+        <v>1299</v>
+      </c>
+      <c r="G99">
+        <v>1299</v>
+      </c>
+      <c r="H99" t="str">
+        <v>C</v>
+      </c>
+      <c r="I99">
+        <v>129.9</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1299</v>
+      </c>
+      <c r="L99">
+        <v>1169.1</v>
+      </c>
+      <c r="M99" t="str">
+        <v>360004</v>
+      </c>
+      <c r="N99" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O99" t="str">
+        <v/>
+      </c>
+      <c r="P99" t="str">
+        <v/>
+      </c>
+      <c r="Q99" t="str">
+        <v/>
+      </c>
+      <c r="R99" t="str">
+        <v/>
+      </c>
+      <c r="S99" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T99" t="str">
+        <v/>
+      </c>
+      <c r="U99" t="str">
+        <v/>
+      </c>
+      <c r="V99" t="str">
+        <v/>
+      </c>
+      <c r="W99" t="str">
+        <v/>
+      </c>
+      <c r="X99" t="str">
+        <v>Jaitra .</v>
+      </c>
+      <c r="Y99" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>416</v>
+      </c>
+      <c r="B100" t="str">
+        <v>252753</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2025-09-06 11:26:59</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
+      </c>
+      <c r="E100" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
+      </c>
+      <c r="F100">
+        <v>1299</v>
+      </c>
+      <c r="G100">
+        <v>1299</v>
+      </c>
+      <c r="H100" t="str">
+        <v>C</v>
+      </c>
+      <c r="I100">
+        <v>129.9</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1299</v>
+      </c>
+      <c r="L100">
+        <v>1169.1</v>
+      </c>
+      <c r="M100" t="str">
+        <v>570017</v>
+      </c>
+      <c r="N100" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O100" t="str">
+        <v/>
+      </c>
+      <c r="P100" t="str">
+        <v/>
+      </c>
+      <c r="Q100" t="str">
+        <v/>
+      </c>
+      <c r="R100" t="str">
+        <v/>
+      </c>
+      <c r="S100" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T100" t="str">
+        <v/>
+      </c>
+      <c r="U100" t="str">
+        <v/>
+      </c>
+      <c r="V100" t="str">
+        <v/>
+      </c>
+      <c r="W100" t="str">
+        <v/>
+      </c>
+      <c r="X100" t="str">
+        <v>Surya M</v>
+      </c>
+      <c r="Y100" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>417</v>
+      </c>
+      <c r="B101" t="str">
+        <v>252752</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2025-09-06 11:11:00</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
+      </c>
+      <c r="E101" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
+      </c>
+      <c r="F101">
+        <v>1299</v>
+      </c>
+      <c r="G101">
+        <v>1199</v>
+      </c>
+      <c r="H101" t="str">
+        <v>P</v>
+      </c>
+      <c r="I101">
+        <v>1199</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1199</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="str">
+        <v>400016</v>
+      </c>
+      <c r="N101" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O101" t="str">
+        <v/>
+      </c>
+      <c r="P101" t="str">
+        <v/>
+      </c>
+      <c r="Q101" t="str">
+        <v/>
+      </c>
+      <c r="R101" t="str">
+        <v/>
+      </c>
+      <c r="S101" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T101" t="str">
+        <v/>
+      </c>
+      <c r="U101" t="str">
+        <v/>
+      </c>
+      <c r="V101" t="str">
+        <v/>
+      </c>
+      <c r="W101" t="str">
+        <v/>
+      </c>
+      <c r="X101" t="str">
+        <v>kunal jain</v>
+      </c>
+      <c r="Y101" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>418</v>
+      </c>
+      <c r="B102" t="str">
+        <v>252751</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2025-09-06 10:38:39</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - XL</v>
+      </c>
+      <c r="E102" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-XL</v>
+      </c>
+      <c r="F102">
+        <v>1299</v>
+      </c>
+      <c r="G102">
+        <v>1299</v>
+      </c>
+      <c r="H102" t="str">
+        <v>C</v>
+      </c>
+      <c r="I102">
+        <v>129.9</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1299</v>
+      </c>
+      <c r="L102">
+        <v>1169.1</v>
+      </c>
+      <c r="M102" t="str">
+        <v>560010</v>
+      </c>
+      <c r="N102" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O102" t="str">
+        <v/>
+      </c>
+      <c r="P102" t="str">
+        <v/>
+      </c>
+      <c r="Q102" t="str">
+        <v/>
+      </c>
+      <c r="R102" t="str">
+        <v/>
+      </c>
+      <c r="S102" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T102" t="str">
+        <v/>
+      </c>
+      <c r="U102" t="str">
+        <v/>
+      </c>
+      <c r="V102" t="str">
+        <v/>
+      </c>
+      <c r="W102" t="str">
+        <v/>
+      </c>
+      <c r="X102" t="str">
+        <v>Yuvan B</v>
+      </c>
+      <c r="Y102" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>419</v>
+      </c>
+      <c r="B103" t="str">
+        <v>252748</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2025-09-06 08:24:23</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - L</v>
+      </c>
+      <c r="E103" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-L</v>
+      </c>
+      <c r="F103">
+        <v>1299</v>
+      </c>
+      <c r="G103">
+        <v>1199</v>
+      </c>
+      <c r="H103" t="str">
+        <v>P</v>
+      </c>
+      <c r="I103">
+        <v>1199</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1199</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <v>744101</v>
+      </c>
+      <c r="N103" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O103" t="str">
+        <v/>
+      </c>
+      <c r="P103" t="str">
+        <v/>
+      </c>
+      <c r="Q103" t="str">
+        <v/>
+      </c>
+      <c r="R103" t="str">
+        <v/>
+      </c>
+      <c r="S103" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T103" t="str">
+        <v/>
+      </c>
+      <c r="U103" t="str">
+        <v/>
+      </c>
+      <c r="V103" t="str">
+        <v/>
+      </c>
+      <c r="W103" t="str">
+        <v/>
+      </c>
+      <c r="X103" t="str">
+        <v>Vlen Silvia</v>
+      </c>
+      <c r="Y103" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>420</v>
+      </c>
+      <c r="B104" t="str">
+        <v>252747</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2025-09-06 06:55:57</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E104" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-S</v>
+      </c>
+      <c r="F104">
+        <v>1299</v>
+      </c>
+      <c r="G104">
+        <v>1299</v>
+      </c>
+      <c r="H104" t="str">
+        <v>C</v>
+      </c>
+      <c r="I104">
+        <v>129.9</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1299</v>
+      </c>
+      <c r="L104">
+        <v>1169.1</v>
+      </c>
+      <c r="M104" t="str">
+        <v>400708</v>
+      </c>
+      <c r="N104" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O104" t="str">
+        <v/>
+      </c>
+      <c r="P104" t="str">
+        <v/>
+      </c>
+      <c r="Q104" t="str">
+        <v/>
+      </c>
+      <c r="R104" t="str">
+        <v/>
+      </c>
+      <c r="S104" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T104" t="str">
+        <v/>
+      </c>
+      <c r="U104" t="str">
+        <v/>
+      </c>
+      <c r="V104" t="str">
+        <v/>
+      </c>
+      <c r="W104" t="str">
+        <v/>
+      </c>
+      <c r="X104" t="str">
+        <v>Vihaan JR</v>
+      </c>
+      <c r="Y104" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>421</v>
+      </c>
+      <c r="B105" t="str">
+        <v>252746</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2025-09-06 01:14:35</v>
+      </c>
+      <c r="D105" t="str">
+        <v>INDIA Test Cricket Jersey - 2025 - 2XL</v>
+      </c>
+      <c r="E105" t="str">
+        <v>IND-TST-25-PV-2XL</v>
+      </c>
+      <c r="F105">
+        <v>1299</v>
+      </c>
+      <c r="G105">
+        <v>1299</v>
+      </c>
+      <c r="H105" t="str">
+        <v>C</v>
+      </c>
+      <c r="I105">
+        <v>129.9</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1299</v>
+      </c>
+      <c r="L105">
+        <v>1169.1</v>
+      </c>
+      <c r="M105" t="str">
+        <v>110007</v>
+      </c>
+      <c r="N105" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O105" t="str">
+        <v/>
+      </c>
+      <c r="P105" t="str">
+        <v/>
+      </c>
+      <c r="Q105" t="str">
+        <v/>
+      </c>
+      <c r="R105" t="str">
+        <v/>
+      </c>
+      <c r="S105" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T105" t="str">
+        <v/>
+      </c>
+      <c r="U105" t="str">
+        <v/>
+      </c>
+      <c r="V105" t="str">
+        <v/>
+      </c>
+      <c r="W105" t="str">
+        <v/>
+      </c>
+      <c r="X105" t="str">
+        <v>Vasu .</v>
+      </c>
+      <c r="Y105" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/india-test-cricket-jersey-2025-hanging-view.png?v=1745988706</v>
+      </c>
+      <c r="Z105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>422</v>
+      </c>
+      <c r="B106" t="str">
+        <v>252745</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2025-09-06 00:09:28</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - XL</v>
+      </c>
+      <c r="E106" t="str">
+        <v>CLU-LP-FS-HM-25/26-PV-XL</v>
+      </c>
+      <c r="F106">
+        <v>1499</v>
+      </c>
+      <c r="G106">
+        <v>1399</v>
+      </c>
+      <c r="H106" t="str">
+        <v>P</v>
+      </c>
+      <c r="I106">
+        <v>1399</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1399</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <v>560037</v>
+      </c>
+      <c r="N106" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O106" t="str">
+        <v/>
+      </c>
+      <c r="P106" t="str">
+        <v/>
+      </c>
+      <c r="Q106" t="str">
+        <v/>
+      </c>
+      <c r="R106" t="str">
+        <v/>
+      </c>
+      <c r="S106" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T106" t="str">
+        <v/>
+      </c>
+      <c r="U106" t="str">
+        <v/>
+      </c>
+      <c r="V106" t="str">
+        <v/>
+      </c>
+      <c r="W106" t="str">
+        <v/>
+      </c>
+      <c r="X106" t="str">
+        <v>Parth Dubey</v>
+      </c>
+      <c r="Y106" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>423</v>
+      </c>
+      <c r="B107" t="str">
+        <v>252744</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2025-09-05 22:46:12</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - L</v>
+      </c>
+      <c r="E107" t="str">
+        <v>CLU-LP-FS-HM-25/26-PV-L</v>
+      </c>
+      <c r="F107">
+        <v>1499</v>
+      </c>
+      <c r="G107">
+        <v>1399</v>
+      </c>
+      <c r="H107" t="str">
+        <v>P</v>
+      </c>
+      <c r="I107">
+        <v>1399</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1399</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="str">
+        <v>689626</v>
+      </c>
+      <c r="N107" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O107" t="str">
+        <v/>
+      </c>
+      <c r="P107" t="str">
+        <v/>
+      </c>
+      <c r="Q107" t="str">
+        <v/>
+      </c>
+      <c r="R107" t="str">
+        <v/>
+      </c>
+      <c r="S107" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T107" t="str">
+        <v/>
+      </c>
+      <c r="U107" t="str">
+        <v/>
+      </c>
+      <c r="V107" t="str">
+        <v/>
+      </c>
+      <c r="W107" t="str">
+        <v/>
+      </c>
+      <c r="X107" t="str">
+        <v>ajith johnson</v>
+      </c>
+      <c r="Y107" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>424</v>
+      </c>
+      <c r="B108" t="str">
+        <v>252743</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2025-09-05 22:29:40</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Germany Home Jersey 2024-25 Fan Version - XL</v>
+      </c>
+      <c r="E108" t="str">
+        <v>NAT-GER-HM-24/25-FV-XL</v>
+      </c>
+      <c r="F108">
         <v>999</v>
       </c>
-      <c r="L89">
+      <c r="G108">
         <v>899.1</v>
       </c>
-      <c r="M89" t="str">
-        <v>unclaimed</v>
-      </c>
-      <c r="N89" t="str">
-        <v/>
-      </c>
-      <c r="O89" t="str">
-        <v/>
-      </c>
-      <c r="P89" t="str">
-        <v/>
-      </c>
-      <c r="Q89" t="str">
-        <v/>
-      </c>
-      <c r="R89" t="str">
-        <v>not_cloned</v>
-      </c>
-      <c r="S89" t="str">
-        <v/>
-      </c>
-      <c r="T89" t="str">
-        <v/>
-      </c>
-      <c r="U89" t="str">
-        <v/>
-      </c>
-      <c r="V89" t="str">
+      <c r="H108" t="str">
+        <v>P</v>
+      </c>
+      <c r="I108">
+        <v>899.1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>899.1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="str">
+        <v>390024</v>
+      </c>
+      <c r="N108" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O108" t="str">
+        <v/>
+      </c>
+      <c r="P108" t="str">
+        <v/>
+      </c>
+      <c r="Q108" t="str">
+        <v/>
+      </c>
+      <c r="R108" t="str">
+        <v/>
+      </c>
+      <c r="S108" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T108" t="str">
+        <v/>
+      </c>
+      <c r="U108" t="str">
+        <v/>
+      </c>
+      <c r="V108" t="str">
+        <v/>
+      </c>
+      <c r="W108" t="str">
+        <v/>
+      </c>
+      <c r="X108" t="str">
+        <v>VIPIN YADAV</v>
+      </c>
+      <c r="Y108" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/germany-home-jersey-2024-25-front-view.png?v=1745636849</v>
+      </c>
+      <c r="Z108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>425</v>
+      </c>
+      <c r="B109" t="str">
+        <v>252742</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2025-09-05 22:05:59</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Liverpool Home Full Sleeves Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E109" t="str">
+        <v>CLU-LP-FS-HM-25/26-PV-S</v>
+      </c>
+      <c r="F109">
+        <v>1499</v>
+      </c>
+      <c r="G109">
+        <v>1499</v>
+      </c>
+      <c r="H109" t="str">
+        <v>C</v>
+      </c>
+      <c r="I109">
+        <v>149.9</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1499</v>
+      </c>
+      <c r="L109">
+        <v>1349.1</v>
+      </c>
+      <c r="M109" t="str">
+        <v>793008</v>
+      </c>
+      <c r="N109" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O109" t="str">
+        <v/>
+      </c>
+      <c r="P109" t="str">
+        <v/>
+      </c>
+      <c r="Q109" t="str">
+        <v/>
+      </c>
+      <c r="R109" t="str">
+        <v/>
+      </c>
+      <c r="S109" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T109" t="str">
+        <v/>
+      </c>
+      <c r="U109" t="str">
+        <v/>
+      </c>
+      <c r="V109" t="str">
+        <v/>
+      </c>
+      <c r="W109" t="str">
+        <v/>
+      </c>
+      <c r="X109" t="str">
+        <v>Con Lyngdoh</v>
+      </c>
+      <c r="Y109" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-liverpool-home-jersey-2025-26-full-sleeves-front-view-standard-chartered-white-piping-sleeves.png?v=1756511992</v>
+      </c>
+      <c r="Z109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>426</v>
+      </c>
+      <c r="B110" t="str">
+        <v>252741</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2025-09-05 22:03:54</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Manchester United Third Jersey 2025-26 Player Version - 2XL</v>
+      </c>
+      <c r="E110" t="str">
+        <v>CLU-MU-TH-25/26-PV-2XL</v>
+      </c>
+      <c r="F110">
+        <v>1299</v>
+      </c>
+      <c r="G110">
+        <v>1199</v>
+      </c>
+      <c r="H110" t="str">
+        <v>P</v>
+      </c>
+      <c r="I110">
+        <v>1199</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1199</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="str">
+        <v>122017</v>
+      </c>
+      <c r="N110" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O110" t="str">
+        <v/>
+      </c>
+      <c r="P110" t="str">
+        <v/>
+      </c>
+      <c r="Q110" t="str">
+        <v/>
+      </c>
+      <c r="R110" t="str">
+        <v/>
+      </c>
+      <c r="S110" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T110" t="str">
+        <v/>
+      </c>
+      <c r="U110" t="str">
+        <v/>
+      </c>
+      <c r="V110" t="str">
+        <v/>
+      </c>
+      <c r="W110" t="str">
+        <v/>
+      </c>
+      <c r="X110" t="str">
+        <v>Archit Daral</v>
+      </c>
+      <c r="Y110" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/adidas-manchester-united-2025-26-third-jersey-front-full-snapdragon-trefoil-badge.png?v=1756511351</v>
+      </c>
+      <c r="Z110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>427</v>
+      </c>
+      <c r="B111" t="str">
+        <v>252740</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2025-09-05 21:55:13</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Pre Order Chelsea Third Jersey 2025-26 Player Version - S</v>
+      </c>
+      <c r="E111" t="str">
+        <v>CLU-CHEL-TH-25/26-PV-S</v>
+      </c>
+      <c r="F111">
+        <v>1299</v>
+      </c>
+      <c r="G111">
+        <v>1199</v>
+      </c>
+      <c r="H111" t="str">
+        <v>P</v>
+      </c>
+      <c r="I111">
+        <v>1199</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1199</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="str">
+        <v>110018</v>
+      </c>
+      <c r="N111" t="str">
+        <v>unclaimed</v>
+      </c>
+      <c r="O111" t="str">
+        <v/>
+      </c>
+      <c r="P111" t="str">
+        <v/>
+      </c>
+      <c r="Q111" t="str">
+        <v/>
+      </c>
+      <c r="R111" t="str">
+        <v/>
+      </c>
+      <c r="S111" t="str">
+        <v>not_cloned</v>
+      </c>
+      <c r="T111" t="str">
+        <v/>
+      </c>
+      <c r="U111" t="str">
+        <v/>
+      </c>
+      <c r="V111" t="str">
+        <v/>
+      </c>
+      <c r="W111" t="str">
+        <v/>
+      </c>
+      <c r="X111" t="str">
+        <v>Lalrin Kima</v>
+      </c>
+      <c r="Y111" t="str">
+        <v>https://cdn.shopify.com/s/files/1/0922/4824/4508/files/nike-chelsea-third-jersey-2025-26-player-version-front-full-view-black-blue-piping.png?v=1756760291</v>
+      </c>
+      <c r="Z111" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V89"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z111"/>
   </ignoredErrors>
 </worksheet>
 </file>